--- a/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
@@ -84,7 +84,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -125,12 +125,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E8F5E9"/>
         <bgColor rgb="00E8F5E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
     <fill>
@@ -186,20 +180,20 @@
     <xf numFmtId="9" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,7 +633,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 09, 2025</t>
+          <t>November 13, 2025</t>
         </is>
       </c>
     </row>
@@ -714,67 +708,67 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>RISK-001</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Risk Assessment</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>Implementation</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>What are your main concerns about implementing IDP?</t>
         </is>
       </c>
-      <c r="E2" s="12" t="n"/>
+      <c r="E2" s="14" t="n"/>
       <c r="F2" s="15" t="n"/>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>Primary implementation concerns</t>
         </is>
@@ -810,29 +804,29 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>RISK-003</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>Risk Assessment</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>What are your concerns about data accuracy and quality?</t>
         </is>
       </c>
-      <c r="E4" s="12" t="n"/>
+      <c r="E4" s="14" t="n"/>
       <c r="F4" s="15" t="n"/>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="14" t="inlineStr">
         <is>
           <t>Data quality risks</t>
         </is>
@@ -896,67 +890,67 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>FUTURE-001</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Future State</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>Vision</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>What is your long-term vision for document processing automation?</t>
         </is>
       </c>
-      <c r="E2" s="12" t="n"/>
+      <c r="E2" s="14" t="n"/>
       <c r="F2" s="15" t="n"/>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>Future roadmap</t>
         </is>
@@ -992,29 +986,29 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>FUTURE-003</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>Future State</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>What future document types or sources might need processing?</t>
         </is>
       </c>
-      <c r="E4" s="12" t="n"/>
+      <c r="E4" s="14" t="n"/>
       <c r="F4" s="15" t="n"/>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="14" t="inlineStr">
         <is>
           <t>Future expansion needs</t>
         </is>
@@ -1049,67 +1043,67 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>VENDOR-001</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Vendor Selection</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>Experience</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>What AWS AI/ML implementation experience do you expect from partners?</t>
         </is>
       </c>
-      <c r="E2" s="12" t="n"/>
+      <c r="E2" s="14" t="n"/>
       <c r="F2" s="15" t="n"/>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>Partner requirements</t>
         </is>
@@ -1212,7 +1206,7 @@
         <v/>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="32" customHeight="1">
       <c r="A4" s="11" t="inlineStr">
         <is>
           <t>Question ID</t>
@@ -1280,23 +1274,23 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12">
+      <c r="A6" s="14">
         <f>IF('Project Information'!A3="","",'Project Information'!A3)</f>
         <v/>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <f>IF('Project Information'!B3="","",'Project Information'!B3)</f>
         <v/>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="14">
         <f>IF('Project Information'!C3="","",'Project Information'!C3)</f>
         <v/>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="14">
         <f>IF('Project Information'!D3="","",'Project Information'!D3)</f>
         <v/>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="14">
         <f>IF('Project Information'!E3="","",'Project Information'!E3)</f>
         <v/>
       </c>
@@ -1304,7 +1298,7 @@
         <f>IF('Project Information'!F3="","",'Project Information'!F3)</f>
         <v/>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <f>IF('Project Information'!G3="","",'Project Information'!G3)</f>
         <v/>
       </c>
@@ -1340,23 +1334,23 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12">
+      <c r="A8" s="14">
         <f>IF('Project Information'!A5="","",'Project Information'!A5)</f>
         <v/>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <f>IF('Project Information'!B5="","",'Project Information'!B5)</f>
         <v/>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="14">
         <f>IF('Project Information'!C5="","",'Project Information'!C5)</f>
         <v/>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="14">
         <f>IF('Project Information'!D5="","",'Project Information'!D5)</f>
         <v/>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="14">
         <f>IF('Project Information'!E5="","",'Project Information'!E5)</f>
         <v/>
       </c>
@@ -1364,7 +1358,7 @@
         <f>IF('Project Information'!F5="","",'Project Information'!F5)</f>
         <v/>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="14">
         <f>IF('Project Information'!G5="","",'Project Information'!G5)</f>
         <v/>
       </c>
@@ -1400,23 +1394,23 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12">
+      <c r="A10" s="14">
         <f>IF('Business Requirements'!A2="","",'Business Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="14">
         <f>IF('Business Requirements'!B2="","",'Business Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="14">
         <f>IF('Business Requirements'!C2="","",'Business Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="14">
         <f>IF('Business Requirements'!D2="","",'Business Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="14">
         <f>IF('Business Requirements'!E2="","",'Business Requirements'!E2)</f>
         <v/>
       </c>
@@ -1424,7 +1418,7 @@
         <f>IF('Business Requirements'!F2="","",'Business Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="14">
         <f>IF('Business Requirements'!G2="","",'Business Requirements'!G2)</f>
         <v/>
       </c>
@@ -1460,23 +1454,23 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12">
+      <c r="A12" s="14">
         <f>IF('Business Requirements'!A4="","",'Business Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="14">
         <f>IF('Business Requirements'!B4="","",'Business Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="14">
         <f>IF('Business Requirements'!C4="","",'Business Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="14">
         <f>IF('Business Requirements'!D4="","",'Business Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="14">
         <f>IF('Business Requirements'!E4="","",'Business Requirements'!E4)</f>
         <v/>
       </c>
@@ -1484,7 +1478,7 @@
         <f>IF('Business Requirements'!F4="","",'Business Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="14">
         <f>IF('Business Requirements'!G4="","",'Business Requirements'!G4)</f>
         <v/>
       </c>
@@ -1520,23 +1514,23 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12">
+      <c r="A14" s="14">
         <f>IF('Business Requirements'!A6="","",'Business Requirements'!A6)</f>
         <v/>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="14">
         <f>IF('Business Requirements'!B6="","",'Business Requirements'!B6)</f>
         <v/>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="14">
         <f>IF('Business Requirements'!C6="","",'Business Requirements'!C6)</f>
         <v/>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="14">
         <f>IF('Business Requirements'!D6="","",'Business Requirements'!D6)</f>
         <v/>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="14">
         <f>IF('Business Requirements'!E6="","",'Business Requirements'!E6)</f>
         <v/>
       </c>
@@ -1544,7 +1538,7 @@
         <f>IF('Business Requirements'!F6="","",'Business Requirements'!F6)</f>
         <v/>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="14">
         <f>IF('Business Requirements'!G6="","",'Business Requirements'!G6)</f>
         <v/>
       </c>
@@ -1580,23 +1574,23 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12">
+      <c r="A16" s="14">
         <f>IF('Business Requirements'!A8="","",'Business Requirements'!A8)</f>
         <v/>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="14">
         <f>IF('Business Requirements'!B8="","",'Business Requirements'!B8)</f>
         <v/>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="14">
         <f>IF('Business Requirements'!C8="","",'Business Requirements'!C8)</f>
         <v/>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="14">
         <f>IF('Business Requirements'!D8="","",'Business Requirements'!D8)</f>
         <v/>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="14">
         <f>IF('Business Requirements'!E8="","",'Business Requirements'!E8)</f>
         <v/>
       </c>
@@ -1604,7 +1598,7 @@
         <f>IF('Business Requirements'!F8="","",'Business Requirements'!F8)</f>
         <v/>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="14">
         <f>IF('Business Requirements'!G8="","",'Business Requirements'!G8)</f>
         <v/>
       </c>
@@ -1640,23 +1634,23 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="12">
+      <c r="A18" s="14">
         <f>IF('Business Requirements'!A10="","",'Business Requirements'!A10)</f>
         <v/>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="14">
         <f>IF('Business Requirements'!B10="","",'Business Requirements'!B10)</f>
         <v/>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="14">
         <f>IF('Business Requirements'!C10="","",'Business Requirements'!C10)</f>
         <v/>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="14">
         <f>IF('Business Requirements'!D10="","",'Business Requirements'!D10)</f>
         <v/>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="14">
         <f>IF('Business Requirements'!E10="","",'Business Requirements'!E10)</f>
         <v/>
       </c>
@@ -1664,7 +1658,7 @@
         <f>IF('Business Requirements'!F10="","",'Business Requirements'!F10)</f>
         <v/>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="14">
         <f>IF('Business Requirements'!G10="","",'Business Requirements'!G10)</f>
         <v/>
       </c>
@@ -1700,23 +1694,23 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12">
+      <c r="A20" s="14">
         <f>IF('Document Requirements'!A2="","",'Document Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="14">
         <f>IF('Document Requirements'!B2="","",'Document Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="14">
         <f>IF('Document Requirements'!C2="","",'Document Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="14">
         <f>IF('Document Requirements'!D2="","",'Document Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="14">
         <f>IF('Document Requirements'!E2="","",'Document Requirements'!E2)</f>
         <v/>
       </c>
@@ -1724,7 +1718,7 @@
         <f>IF('Document Requirements'!F2="","",'Document Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="14">
         <f>IF('Document Requirements'!G2="","",'Document Requirements'!G2)</f>
         <v/>
       </c>
@@ -1760,23 +1754,23 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12">
+      <c r="A22" s="14">
         <f>IF('Document Requirements'!A4="","",'Document Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="14">
         <f>IF('Document Requirements'!B4="","",'Document Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="14">
         <f>IF('Document Requirements'!C4="","",'Document Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="14">
         <f>IF('Document Requirements'!D4="","",'Document Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="14">
         <f>IF('Document Requirements'!E4="","",'Document Requirements'!E4)</f>
         <v/>
       </c>
@@ -1784,7 +1778,7 @@
         <f>IF('Document Requirements'!F4="","",'Document Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="14">
         <f>IF('Document Requirements'!G4="","",'Document Requirements'!G4)</f>
         <v/>
       </c>
@@ -1820,23 +1814,23 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="12">
+      <c r="A24" s="14">
         <f>IF('Document Requirements'!A6="","",'Document Requirements'!A6)</f>
         <v/>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="14">
         <f>IF('Document Requirements'!B6="","",'Document Requirements'!B6)</f>
         <v/>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="14">
         <f>IF('Document Requirements'!C6="","",'Document Requirements'!C6)</f>
         <v/>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="14">
         <f>IF('Document Requirements'!D6="","",'Document Requirements'!D6)</f>
         <v/>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="14">
         <f>IF('Document Requirements'!E6="","",'Document Requirements'!E6)</f>
         <v/>
       </c>
@@ -1844,7 +1838,7 @@
         <f>IF('Document Requirements'!F6="","",'Document Requirements'!F6)</f>
         <v/>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="14">
         <f>IF('Document Requirements'!G6="","",'Document Requirements'!G6)</f>
         <v/>
       </c>
@@ -1880,23 +1874,23 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="12">
+      <c r="A26" s="14">
         <f>IF('Technical Requirements'!A2="","",'Technical Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="14">
         <f>IF('Technical Requirements'!B2="","",'Technical Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="14">
         <f>IF('Technical Requirements'!C2="","",'Technical Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="14">
         <f>IF('Technical Requirements'!D2="","",'Technical Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="14">
         <f>IF('Technical Requirements'!E2="","",'Technical Requirements'!E2)</f>
         <v/>
       </c>
@@ -1904,7 +1898,7 @@
         <f>IF('Technical Requirements'!F2="","",'Technical Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="14">
         <f>IF('Technical Requirements'!G2="","",'Technical Requirements'!G2)</f>
         <v/>
       </c>
@@ -1940,23 +1934,23 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="12">
+      <c r="A28" s="14">
         <f>IF('Technical Requirements'!A4="","",'Technical Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="14">
         <f>IF('Technical Requirements'!B4="","",'Technical Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="14">
         <f>IF('Technical Requirements'!C4="","",'Technical Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="14">
         <f>IF('Technical Requirements'!D4="","",'Technical Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="14">
         <f>IF('Technical Requirements'!E4="","",'Technical Requirements'!E4)</f>
         <v/>
       </c>
@@ -1964,7 +1958,7 @@
         <f>IF('Technical Requirements'!F4="","",'Technical Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="14">
         <f>IF('Technical Requirements'!G4="","",'Technical Requirements'!G4)</f>
         <v/>
       </c>
@@ -2000,23 +1994,23 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="12">
+      <c r="A30" s="14">
         <f>IF('Technical Requirements'!A6="","",'Technical Requirements'!A6)</f>
         <v/>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="14">
         <f>IF('Technical Requirements'!B6="","",'Technical Requirements'!B6)</f>
         <v/>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="14">
         <f>IF('Technical Requirements'!C6="","",'Technical Requirements'!C6)</f>
         <v/>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="14">
         <f>IF('Technical Requirements'!D6="","",'Technical Requirements'!D6)</f>
         <v/>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="14">
         <f>IF('Technical Requirements'!E6="","",'Technical Requirements'!E6)</f>
         <v/>
       </c>
@@ -2024,7 +2018,7 @@
         <f>IF('Technical Requirements'!F6="","",'Technical Requirements'!F6)</f>
         <v/>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="14">
         <f>IF('Technical Requirements'!G6="","",'Technical Requirements'!G6)</f>
         <v/>
       </c>
@@ -2060,23 +2054,23 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12">
+      <c r="A32" s="14">
         <f>IF('Technical Requirements'!A8="","",'Technical Requirements'!A8)</f>
         <v/>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="14">
         <f>IF('Technical Requirements'!B8="","",'Technical Requirements'!B8)</f>
         <v/>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="14">
         <f>IF('Technical Requirements'!C8="","",'Technical Requirements'!C8)</f>
         <v/>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="14">
         <f>IF('Technical Requirements'!D8="","",'Technical Requirements'!D8)</f>
         <v/>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="14">
         <f>IF('Technical Requirements'!E8="","",'Technical Requirements'!E8)</f>
         <v/>
       </c>
@@ -2084,7 +2078,7 @@
         <f>IF('Technical Requirements'!F8="","",'Technical Requirements'!F8)</f>
         <v/>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="14">
         <f>IF('Technical Requirements'!G8="","",'Technical Requirements'!G8)</f>
         <v/>
       </c>
@@ -2120,23 +2114,23 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="12">
+      <c r="A34" s="14">
         <f>IF('Technical Requirements'!A10="","",'Technical Requirements'!A10)</f>
         <v/>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="14">
         <f>IF('Technical Requirements'!B10="","",'Technical Requirements'!B10)</f>
         <v/>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="14">
         <f>IF('Technical Requirements'!C10="","",'Technical Requirements'!C10)</f>
         <v/>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="14">
         <f>IF('Technical Requirements'!D10="","",'Technical Requirements'!D10)</f>
         <v/>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="14">
         <f>IF('Technical Requirements'!E10="","",'Technical Requirements'!E10)</f>
         <v/>
       </c>
@@ -2144,7 +2138,7 @@
         <f>IF('Technical Requirements'!F10="","",'Technical Requirements'!F10)</f>
         <v/>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="14">
         <f>IF('Technical Requirements'!G10="","",'Technical Requirements'!G10)</f>
         <v/>
       </c>
@@ -2180,23 +2174,23 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="12">
+      <c r="A36" s="14">
         <f>IF('Technical Requirements'!A12="","",'Technical Requirements'!A12)</f>
         <v/>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="14">
         <f>IF('Technical Requirements'!B12="","",'Technical Requirements'!B12)</f>
         <v/>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="14">
         <f>IF('Technical Requirements'!C12="","",'Technical Requirements'!C12)</f>
         <v/>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="14">
         <f>IF('Technical Requirements'!D12="","",'Technical Requirements'!D12)</f>
         <v/>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="14">
         <f>IF('Technical Requirements'!E12="","",'Technical Requirements'!E12)</f>
         <v/>
       </c>
@@ -2204,7 +2198,7 @@
         <f>IF('Technical Requirements'!F12="","",'Technical Requirements'!F12)</f>
         <v/>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="14">
         <f>IF('Technical Requirements'!G12="","",'Technical Requirements'!G12)</f>
         <v/>
       </c>
@@ -2240,23 +2234,23 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="12">
+      <c r="A38" s="14">
         <f>IF('Technical Requirements'!A14="","",'Technical Requirements'!A14)</f>
         <v/>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="14">
         <f>IF('Technical Requirements'!B14="","",'Technical Requirements'!B14)</f>
         <v/>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="14">
         <f>IF('Technical Requirements'!C14="","",'Technical Requirements'!C14)</f>
         <v/>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="14">
         <f>IF('Technical Requirements'!D14="","",'Technical Requirements'!D14)</f>
         <v/>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="14">
         <f>IF('Technical Requirements'!E14="","",'Technical Requirements'!E14)</f>
         <v/>
       </c>
@@ -2264,7 +2258,7 @@
         <f>IF('Technical Requirements'!F14="","",'Technical Requirements'!F14)</f>
         <v/>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="14">
         <f>IF('Technical Requirements'!G14="","",'Technical Requirements'!G14)</f>
         <v/>
       </c>
@@ -2300,23 +2294,23 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="12">
+      <c r="A40" s="14">
         <f>IF('AI-ML Requirements'!A3="","",'AI-ML Requirements'!A3)</f>
         <v/>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="14">
         <f>IF('AI-ML Requirements'!B3="","",'AI-ML Requirements'!B3)</f>
         <v/>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="14">
         <f>IF('AI-ML Requirements'!C3="","",'AI-ML Requirements'!C3)</f>
         <v/>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="14">
         <f>IF('AI-ML Requirements'!D3="","",'AI-ML Requirements'!D3)</f>
         <v/>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="14">
         <f>IF('AI-ML Requirements'!E3="","",'AI-ML Requirements'!E3)</f>
         <v/>
       </c>
@@ -2324,7 +2318,7 @@
         <f>IF('AI-ML Requirements'!F3="","",'AI-ML Requirements'!F3)</f>
         <v/>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="14">
         <f>IF('AI-ML Requirements'!G3="","",'AI-ML Requirements'!G3)</f>
         <v/>
       </c>
@@ -2360,23 +2354,23 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="12">
+      <c r="A42" s="14">
         <f>IF('AI-ML Requirements'!A5="","",'AI-ML Requirements'!A5)</f>
         <v/>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="14">
         <f>IF('AI-ML Requirements'!B5="","",'AI-ML Requirements'!B5)</f>
         <v/>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="14">
         <f>IF('AI-ML Requirements'!C5="","",'AI-ML Requirements'!C5)</f>
         <v/>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="14">
         <f>IF('AI-ML Requirements'!D5="","",'AI-ML Requirements'!D5)</f>
         <v/>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="14">
         <f>IF('AI-ML Requirements'!E5="","",'AI-ML Requirements'!E5)</f>
         <v/>
       </c>
@@ -2384,7 +2378,7 @@
         <f>IF('AI-ML Requirements'!F5="","",'AI-ML Requirements'!F5)</f>
         <v/>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="14">
         <f>IF('AI-ML Requirements'!G5="","",'AI-ML Requirements'!G5)</f>
         <v/>
       </c>
@@ -2420,23 +2414,23 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="12">
+      <c r="A44" s="14">
         <f>IF('Organizational'!A3="","",'Organizational'!A3)</f>
         <v/>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="14">
         <f>IF('Organizational'!B3="","",'Organizational'!B3)</f>
         <v/>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="14">
         <f>IF('Organizational'!C3="","",'Organizational'!C3)</f>
         <v/>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="14">
         <f>IF('Organizational'!D3="","",'Organizational'!D3)</f>
         <v/>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="14">
         <f>IF('Organizational'!E3="","",'Organizational'!E3)</f>
         <v/>
       </c>
@@ -2444,7 +2438,7 @@
         <f>IF('Organizational'!F3="","",'Organizational'!F3)</f>
         <v/>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="14">
         <f>IF('Organizational'!G3="","",'Organizational'!G3)</f>
         <v/>
       </c>
@@ -2480,23 +2474,23 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="12">
+      <c r="A46" s="14">
         <f>IF('Organizational'!A5="","",'Organizational'!A5)</f>
         <v/>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="14">
         <f>IF('Organizational'!B5="","",'Organizational'!B5)</f>
         <v/>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="14">
         <f>IF('Organizational'!C5="","",'Organizational'!C5)</f>
         <v/>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="14">
         <f>IF('Organizational'!D5="","",'Organizational'!D5)</f>
         <v/>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="14">
         <f>IF('Organizational'!E5="","",'Organizational'!E5)</f>
         <v/>
       </c>
@@ -2504,7 +2498,7 @@
         <f>IF('Organizational'!F5="","",'Organizational'!F5)</f>
         <v/>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="14">
         <f>IF('Organizational'!G5="","",'Organizational'!G5)</f>
         <v/>
       </c>
@@ -2540,23 +2534,23 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="12">
+      <c r="A48" s="14">
         <f>IF('Organizational'!A7="","",'Organizational'!A7)</f>
         <v/>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="14">
         <f>IF('Organizational'!B7="","",'Organizational'!B7)</f>
         <v/>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="14">
         <f>IF('Organizational'!C7="","",'Organizational'!C7)</f>
         <v/>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="14">
         <f>IF('Organizational'!D7="","",'Organizational'!D7)</f>
         <v/>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="14">
         <f>IF('Organizational'!E7="","",'Organizational'!E7)</f>
         <v/>
       </c>
@@ -2564,7 +2558,7 @@
         <f>IF('Organizational'!F7="","",'Organizational'!F7)</f>
         <v/>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="14">
         <f>IF('Organizational'!G7="","",'Organizational'!G7)</f>
         <v/>
       </c>
@@ -2600,23 +2594,23 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="12">
+      <c r="A50" s="14">
         <f>IF('Workflow Requirements'!A3="","",'Workflow Requirements'!A3)</f>
         <v/>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="14">
         <f>IF('Workflow Requirements'!B3="","",'Workflow Requirements'!B3)</f>
         <v/>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="14">
         <f>IF('Workflow Requirements'!C3="","",'Workflow Requirements'!C3)</f>
         <v/>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="14">
         <f>IF('Workflow Requirements'!D3="","",'Workflow Requirements'!D3)</f>
         <v/>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="14">
         <f>IF('Workflow Requirements'!E3="","",'Workflow Requirements'!E3)</f>
         <v/>
       </c>
@@ -2624,7 +2618,7 @@
         <f>IF('Workflow Requirements'!F3="","",'Workflow Requirements'!F3)</f>
         <v/>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="14">
         <f>IF('Workflow Requirements'!G3="","",'Workflow Requirements'!G3)</f>
         <v/>
       </c>
@@ -2660,23 +2654,23 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="12">
+      <c r="A52" s="14">
         <f>IF('Workflow Requirements'!A5="","",'Workflow Requirements'!A5)</f>
         <v/>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="14">
         <f>IF('Workflow Requirements'!B5="","",'Workflow Requirements'!B5)</f>
         <v/>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="14">
         <f>IF('Workflow Requirements'!C5="","",'Workflow Requirements'!C5)</f>
         <v/>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="14">
         <f>IF('Workflow Requirements'!D5="","",'Workflow Requirements'!D5)</f>
         <v/>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="14">
         <f>IF('Workflow Requirements'!E5="","",'Workflow Requirements'!E5)</f>
         <v/>
       </c>
@@ -2684,7 +2678,7 @@
         <f>IF('Workflow Requirements'!F5="","",'Workflow Requirements'!F5)</f>
         <v/>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="14">
         <f>IF('Workflow Requirements'!G5="","",'Workflow Requirements'!G5)</f>
         <v/>
       </c>
@@ -2720,23 +2714,23 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="12">
+      <c r="A54" s="14">
         <f>IF('Risk Assessment'!A3="","",'Risk Assessment'!A3)</f>
         <v/>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="14">
         <f>IF('Risk Assessment'!B3="","",'Risk Assessment'!B3)</f>
         <v/>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="14">
         <f>IF('Risk Assessment'!C3="","",'Risk Assessment'!C3)</f>
         <v/>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="14">
         <f>IF('Risk Assessment'!D3="","",'Risk Assessment'!D3)</f>
         <v/>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="14">
         <f>IF('Risk Assessment'!E3="","",'Risk Assessment'!E3)</f>
         <v/>
       </c>
@@ -2744,7 +2738,7 @@
         <f>IF('Risk Assessment'!F3="","",'Risk Assessment'!F3)</f>
         <v/>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="14">
         <f>IF('Risk Assessment'!G3="","",'Risk Assessment'!G3)</f>
         <v/>
       </c>
@@ -2780,23 +2774,23 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="12">
+      <c r="A56" s="14">
         <f>IF('Risk Assessment'!A5="","",'Risk Assessment'!A5)</f>
         <v/>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="14">
         <f>IF('Risk Assessment'!B5="","",'Risk Assessment'!B5)</f>
         <v/>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="14">
         <f>IF('Risk Assessment'!C5="","",'Risk Assessment'!C5)</f>
         <v/>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="14">
         <f>IF('Risk Assessment'!D5="","",'Risk Assessment'!D5)</f>
         <v/>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="14">
         <f>IF('Risk Assessment'!E5="","",'Risk Assessment'!E5)</f>
         <v/>
       </c>
@@ -2804,7 +2798,7 @@
         <f>IF('Risk Assessment'!F5="","",'Risk Assessment'!F5)</f>
         <v/>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="14">
         <f>IF('Risk Assessment'!G5="","",'Risk Assessment'!G5)</f>
         <v/>
       </c>
@@ -2840,23 +2834,23 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="12">
+      <c r="A58" s="14">
         <f>IF('Future State'!A3="","",'Future State'!A3)</f>
         <v/>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="14">
         <f>IF('Future State'!B3="","",'Future State'!B3)</f>
         <v/>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="14">
         <f>IF('Future State'!C3="","",'Future State'!C3)</f>
         <v/>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="14">
         <f>IF('Future State'!D3="","",'Future State'!D3)</f>
         <v/>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="14">
         <f>IF('Future State'!E3="","",'Future State'!E3)</f>
         <v/>
       </c>
@@ -2864,7 +2858,7 @@
         <f>IF('Future State'!F3="","",'Future State'!F3)</f>
         <v/>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="14">
         <f>IF('Future State'!G3="","",'Future State'!G3)</f>
         <v/>
       </c>
@@ -2900,23 +2894,23 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="12">
+      <c r="A60" s="14">
         <f>IF('Vendor Selection'!A2="","",'Vendor Selection'!A2)</f>
         <v/>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="14">
         <f>IF('Vendor Selection'!B2="","",'Vendor Selection'!B2)</f>
         <v/>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="14">
         <f>IF('Vendor Selection'!C2="","",'Vendor Selection'!C2)</f>
         <v/>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="14">
         <f>IF('Vendor Selection'!D2="","",'Vendor Selection'!D2)</f>
         <v/>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="14">
         <f>IF('Vendor Selection'!E2="","",'Vendor Selection'!E2)</f>
         <v/>
       </c>
@@ -2924,7 +2918,7 @@
         <f>IF('Vendor Selection'!F2="","",'Vendor Selection'!F2)</f>
         <v/>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="14">
         <f>IF('Vendor Selection'!G2="","",'Vendor Selection'!G2)</f>
         <v/>
       </c>
@@ -2989,67 +2983,67 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>PROJ-001</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>Basic Details</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>What is the name of your Intelligent Document Processing solution?</t>
         </is>
       </c>
-      <c r="E2" s="12" t="n"/>
+      <c r="E2" s="14" t="n"/>
       <c r="F2" s="15" t="n"/>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>Internal project reference</t>
         </is>
@@ -3085,29 +3079,29 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>PROJ-003</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>Basic Details</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>Who is the primary stakeholder for this IDP project?</t>
         </is>
       </c>
-      <c r="E4" s="12" t="n"/>
+      <c r="E4" s="14" t="n"/>
       <c r="F4" s="15" t="n"/>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="14" t="inlineStr">
         <is>
           <t>Main point of contact</t>
         </is>
@@ -3143,29 +3137,29 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>PROJ-005</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>Basic Details</t>
         </is>
       </c>
-      <c r="D6" s="12" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>What is today's date?</t>
         </is>
       </c>
-      <c r="E6" s="12" t="n"/>
+      <c r="E6" s="14" t="n"/>
       <c r="F6" s="15" t="n"/>
-      <c r="G6" s="12" t="inlineStr">
+      <c r="G6" s="14" t="inlineStr">
         <is>
           <t>Questionnaire completion date</t>
         </is>
@@ -3200,71 +3194,71 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>BUS-001</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>What document processing challenges are you trying to solve?</t>
         </is>
       </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="E2" s="14" t="inlineStr">
         <is>
           <t>Common challenges: Manual data entry, Document classification errors, Slow processing times, High operational costs, Compliance issues, Data accuracy problems</t>
         </is>
       </c>
       <c r="F2" s="15" t="n"/>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>Primary business driver for IDP</t>
         </is>
@@ -3300,33 +3294,33 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>BUS-003</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>What types of documents do you process regularly?</t>
         </is>
       </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>Common types: Invoices, Contracts, Insurance claims, Medical records, Tax documents, Legal documents, Forms, Letters</t>
         </is>
       </c>
       <c r="F4" s="15" t="n"/>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="14" t="inlineStr">
         <is>
           <t>Document type classification</t>
         </is>
@@ -3366,33 +3360,33 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>BUS-005</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D6" s="12" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>What document formats do you currently handle?</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
+      <c r="E6" s="14" t="inlineStr">
         <is>
           <t>Common formats: PDF, Word documents, Scanned images, Handwritten documents, Multi-page documents, Email attachments, Fax documents</t>
         </is>
       </c>
       <c r="F6" s="15" t="n"/>
-      <c r="G6" s="12" t="inlineStr">
+      <c r="G6" s="14" t="inlineStr">
         <is>
           <t>Input format requirements</t>
         </is>
@@ -3432,29 +3426,29 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="inlineStr">
+      <c r="A8" s="14" t="inlineStr">
         <is>
           <t>BUS-007</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C8" s="12" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>Objectives</t>
         </is>
       </c>
-      <c r="D8" s="12" t="inlineStr">
+      <c r="D8" s="14" t="inlineStr">
         <is>
           <t>What specific data do you need to extract from documents?</t>
         </is>
       </c>
-      <c r="E8" s="12" t="n"/>
+      <c r="E8" s="14" t="n"/>
       <c r="F8" s="15" t="n"/>
-      <c r="G8" s="12" t="inlineStr">
+      <c r="G8" s="14" t="inlineStr">
         <is>
           <t>Data extraction requirements</t>
         </is>
@@ -3494,33 +3488,33 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="inlineStr">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>BUS-009</t>
         </is>
       </c>
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C10" s="12" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>Budget</t>
         </is>
       </c>
-      <c r="D10" s="12" t="inlineStr">
+      <c r="D10" s="14" t="inlineStr">
         <is>
           <t>What is your approved budget range for this IDP solution?</t>
         </is>
       </c>
-      <c r="E10" s="12" t="inlineStr">
+      <c r="E10" s="14" t="inlineStr">
         <is>
           <t>Common ranges: $0-50K, $50K-250K, $250K-1M, $1M+</t>
         </is>
       </c>
       <c r="F10" s="15" t="n"/>
-      <c r="G10" s="12" t="inlineStr">
+      <c r="G10" s="14" t="inlineStr">
         <is>
           <t>Budget constraints</t>
         </is>
@@ -3584,67 +3578,67 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>DOC-001</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Document Requirements</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>Types</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>What specific document types need automated processing?</t>
         </is>
       </c>
-      <c r="E2" s="12" t="n"/>
+      <c r="E2" s="14" t="n"/>
       <c r="F2" s="15" t="n"/>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>Detailed document classification</t>
         </is>
@@ -3684,33 +3678,33 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>DOC-003</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>Document Requirements</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>Quality</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>What is the typical quality of your source documents?</t>
         </is>
       </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>Quality levels: High quality digital, Good quality scanned, Poor quality scanned, Handwritten, Mixed quality</t>
         </is>
       </c>
       <c r="F4" s="15" t="n"/>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="14" t="inlineStr">
         <is>
           <t>OCR accuracy expectations</t>
         </is>
@@ -3746,33 +3740,33 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>DOC-005</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>Document Requirements</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>Variations</t>
         </is>
       </c>
-      <c r="D6" s="12" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>How much variation exists within each document type?</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
+      <c r="E6" s="14" t="inlineStr">
         <is>
           <t>Variation levels: Highly standardized, Some variation, Significant variation, Completely variable</t>
         </is>
       </c>
       <c r="F6" s="15" t="n"/>
-      <c r="G6" s="12" t="inlineStr">
+      <c r="G6" s="14" t="inlineStr">
         <is>
           <t>Model training complexity</t>
         </is>
@@ -3836,71 +3830,71 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>TECH-001</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>AWS Environment</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>What AWS services are you currently using?</t>
         </is>
       </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="E2" s="14" t="inlineStr">
         <is>
           <t>AWS services: S3, Lambda, API Gateway, Textract, Comprehend, SageMaker, None, Other</t>
         </is>
       </c>
       <c r="F2" s="15" t="n"/>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>Current AWS footprint</t>
         </is>
@@ -3936,29 +3930,29 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>TECH-003</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>What systems need to integrate with the IDP solution?</t>
         </is>
       </c>
-      <c r="E4" s="12" t="n"/>
+      <c r="E4" s="14" t="n"/>
       <c r="F4" s="15" t="n"/>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="14" t="inlineStr">
         <is>
           <t>Integration requirements</t>
         </is>
@@ -3998,33 +3992,33 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>TECH-005</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>API Requirements</t>
         </is>
       </c>
-      <c r="D6" s="12" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>Do you need real-time or batch document processing?</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
+      <c r="E6" s="14" t="inlineStr">
         <is>
           <t>Options: Real-time processing, Batch processing, Both options</t>
         </is>
       </c>
       <c r="F6" s="15" t="n"/>
-      <c r="G6" s="12" t="inlineStr">
+      <c r="G6" s="14" t="inlineStr">
         <is>
           <t>Processing mode requirements</t>
         </is>
@@ -4064,29 +4058,29 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="inlineStr">
+      <c r="A8" s="14" t="inlineStr">
         <is>
           <t>TECH-007</t>
         </is>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C8" s="12" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="D8" s="12" t="inlineStr">
+      <c r="D8" s="14" t="inlineStr">
         <is>
           <t>What are your document processing speed requirements?</t>
         </is>
       </c>
-      <c r="E8" s="12" t="n"/>
+      <c r="E8" s="14" t="n"/>
       <c r="F8" s="15" t="n"/>
-      <c r="G8" s="12" t="inlineStr">
+      <c r="G8" s="14" t="inlineStr">
         <is>
           <t>Performance expectations</t>
         </is>
@@ -4126,33 +4120,33 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="inlineStr">
+      <c r="A10" s="14" t="inlineStr">
         <is>
           <t>TECH-009</t>
         </is>
       </c>
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C10" s="12" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="D10" s="12" t="inlineStr">
+      <c r="D10" s="14" t="inlineStr">
         <is>
           <t>What security requirements apply to document processing?</t>
         </is>
       </c>
-      <c r="E10" s="12" t="inlineStr">
+      <c r="E10" s="14" t="inlineStr">
         <is>
           <t>Common requirements: Encryption at rest, Encryption in transit, Access controls, Audit logging, Data masking</t>
         </is>
       </c>
       <c r="F10" s="15" t="n"/>
-      <c r="G10" s="12" t="inlineStr">
+      <c r="G10" s="14" t="inlineStr">
         <is>
           <t>Security controls needed</t>
         </is>
@@ -4192,33 +4186,33 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="inlineStr">
+      <c r="A12" s="14" t="inlineStr">
         <is>
           <t>TECH-011</t>
         </is>
       </c>
-      <c r="B12" s="12" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C12" s="12" t="inlineStr">
+      <c r="C12" s="14" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D12" s="12" t="inlineStr">
+      <c r="D12" s="14" t="inlineStr">
         <is>
           <t>What sensitive data types are present in your documents?</t>
         </is>
       </c>
-      <c r="E12" s="12" t="inlineStr">
+      <c r="E12" s="14" t="inlineStr">
         <is>
           <t>Sensitive data types: PII, PHI, Financial data, Credit card numbers, SSNs, Other sensitive data, No sensitive data</t>
         </is>
       </c>
       <c r="F12" s="15" t="n"/>
-      <c r="G12" s="12" t="inlineStr">
+      <c r="G12" s="14" t="inlineStr">
         <is>
           <t>Data protection requirements</t>
         </is>
@@ -4254,33 +4248,33 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="inlineStr">
+      <c r="A14" s="14" t="inlineStr">
         <is>
           <t>TECH-013</t>
         </is>
       </c>
-      <c r="B14" s="12" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C14" s="12" t="inlineStr">
+      <c r="C14" s="14" t="inlineStr">
         <is>
           <t>Availability</t>
         </is>
       </c>
-      <c r="D14" s="12" t="inlineStr">
+      <c r="D14" s="14" t="inlineStr">
         <is>
           <t>What uptime requirements do you have for document processing?</t>
         </is>
       </c>
-      <c r="E14" s="12" t="inlineStr">
+      <c r="E14" s="14" t="inlineStr">
         <is>
           <t>Common targets: 99%, 99.5%, 99.9%, 99.95%, 99.99%</t>
         </is>
       </c>
       <c r="F14" s="15" t="n"/>
-      <c r="G14" s="12" t="inlineStr">
+      <c r="G14" s="14" t="inlineStr">
         <is>
           <t>SLA requirements</t>
         </is>
@@ -4315,71 +4309,71 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>AI-001</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>AI/ML Requirements</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>Model Needs</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>Do you need custom ML models or will AWS pre-built services suffice?</t>
         </is>
       </c>
-      <c r="E2" s="12" t="inlineStr">
+      <c r="E2" s="14" t="inlineStr">
         <is>
           <t>Options: AWS Textract only, AWS Comprehend only, Custom classification models, Custom extraction models, Combination approach</t>
         </is>
       </c>
       <c r="F2" s="15" t="n"/>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>Model complexity requirements</t>
         </is>
@@ -4419,33 +4413,33 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>AI-003</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>AI/ML Requirements</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>Accuracy Improvement</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>How will you handle cases where extraction accuracy is low?</t>
         </is>
       </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>Options: Human review workflow (A2I), Confidence scoring, Automated rejection, Manual correction interface</t>
         </is>
       </c>
       <c r="F4" s="15" t="n"/>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="14" t="inlineStr">
         <is>
           <t>Quality assurance process</t>
         </is>
@@ -4513,67 +4507,67 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>ORG-001</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Organizational</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>Resources</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>Who will be the technical lead for this IDP project?</t>
         </is>
       </c>
-      <c r="E2" s="12" t="n"/>
+      <c r="E2" s="14" t="n"/>
       <c r="F2" s="15" t="n"/>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>Technical ownership</t>
         </is>
@@ -4609,33 +4603,33 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>ORG-003</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>Organizational</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>Resources</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>What is your team's experience with AWS AI/ML services?</t>
         </is>
       </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>Experience levels: No experience, Basic knowledge, Intermediate, Advanced, Expert</t>
         </is>
       </c>
       <c r="F4" s="15" t="n"/>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="14" t="inlineStr">
         <is>
           <t>Training needs assessment</t>
         </is>
@@ -4671,29 +4665,29 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="inlineStr">
+      <c r="A6" s="14" t="inlineStr">
         <is>
           <t>ORG-005</t>
         </is>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>Organizational</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
         <is>
           <t>Change Management</t>
         </is>
       </c>
-      <c r="D6" s="12" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
         <is>
           <t>What training will be needed for end users?</t>
         </is>
       </c>
-      <c r="E6" s="12" t="n"/>
+      <c r="E6" s="14" t="n"/>
       <c r="F6" s="15" t="n"/>
-      <c r="G6" s="12" t="inlineStr">
+      <c r="G6" s="14" t="inlineStr">
         <is>
           <t>Training requirements</t>
         </is>
@@ -4757,67 +4751,67 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="11" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="11" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>WORKFLOW-001</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>Workflow Requirements</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="14" t="inlineStr">
         <is>
           <t>Process Flow</t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
+      <c r="D2" s="14" t="inlineStr">
         <is>
           <t>What happens to documents after data extraction?</t>
         </is>
       </c>
-      <c r="E2" s="12" t="n"/>
+      <c r="E2" s="14" t="n"/>
       <c r="F2" s="15" t="n"/>
-      <c r="G2" s="12" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>Downstream processing requirements</t>
         </is>
@@ -4853,33 +4847,33 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>WORKFLOW-003</t>
         </is>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>Workflow Requirements</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
         <is>
           <t>Process Flow</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
         <is>
           <t>Do you need human-in-the-loop review capabilities?</t>
         </is>
       </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="E4" s="14" t="inlineStr">
         <is>
           <t>Options: Always required, Only for low confidence, Only for exceptions, Never needed</t>
         </is>
       </c>
       <c r="F4" s="15" t="n"/>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="14" t="inlineStr">
         <is>
           <t>Human review requirements (Amazon A2I)</t>
         </is>

--- a/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 13, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>

--- a/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
@@ -27,8 +27,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="10">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,54 +39,66 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
+      <color rgb="0095A5A6"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI Light"/>
+      <color rgb="002C3E50"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="005D6D7E"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
       <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="24"/>
+      <color rgb="005D6D7E"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="14"/>
+      <color rgb="002C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="0044546A"/>
+      <color rgb="005D6D7E"/>
       <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI Semibold"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="00000000"/>
+      <b val="1"/>
+      <color rgb="00CC0000"/>
       <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI Semibold"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI Semibold"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -93,26 +107,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
+        <fgColor rgb="00CC0000"/>
+        <bgColor rgb="00CC0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="002C3E50"/>
+        <bgColor rgb="002C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FAFB"/>
+        <bgColor rgb="00F8FAFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F4F8"/>
+        <bgColor rgb="00E8F4F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -127,14 +153,8 @@
         <bgColor rgb="00E8F5E9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E8F4F8"/>
-        <bgColor rgb="00E8F4F8"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,56 +163,108 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="00BDC3C7"/>
+      </left>
+      <right style="thin">
+        <color rgb="00BDC3C7"/>
+      </right>
+      <top style="thin">
+        <color rgb="00BDC3C7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="002C3E50"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -277,10 +349,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1143000" cy="285750"/>
+    <ext cx="1238250" cy="314325"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -593,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:C10"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,83 +673,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1"/>
-    <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1"/>
-    <row r="4" ht="30" customHeight="1">
-      <c r="B4" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>[VENDOR LOGO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1"/>
+    <row r="4" ht="40" customHeight="1">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Discovery Questionnaire</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="B5" s="2" t="inlineStr">
+    <row r="5" ht="25" customHeight="1">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Presales Document</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7">
-      <c r="B7" s="3" t="inlineStr">
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="18" customHeight="1">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>November 15, 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>November 18, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Intelligent Document Processing</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Customer Name:</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>[Customer Name]</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Version:</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1"/>
-    <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="10" customHeight="1"/>
-    <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="40" customHeight="1"/>
+    <row r="11" ht="18" customHeight="1">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>eoframework.org</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -709,153 +805,153 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>RISK-001</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>Risk Assessment</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Implementation</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>What are your main concerns about implementing IDP?</t>
         </is>
       </c>
-      <c r="E2" s="14" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="E2" s="10" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>Primary implementation concerns</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="23" t="inlineStr">
         <is>
           <t>RISK-002</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="23" t="inlineStr">
         <is>
           <t>Risk Assessment</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="23" t="inlineStr">
         <is>
           <t>Implementation</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="23" t="inlineStr">
         <is>
           <t>What could cause this IDP project to fail?</t>
         </is>
       </c>
-      <c r="E3" s="12" t="n"/>
-      <c r="F3" s="15" t="n"/>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Failure mode analysis</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>RISK-003</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Risk Assessment</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>What are your concerns about data accuracy and quality?</t>
         </is>
       </c>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="15" t="n"/>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="E4" s="10" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>Data quality risks</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="23" t="inlineStr">
         <is>
           <t>RISK-004</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="23" t="inlineStr">
         <is>
           <t>Risk Assessment</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="23" t="inlineStr">
         <is>
           <t>Technical</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="23" t="inlineStr">
         <is>
           <t>What technical risks worry you most about AI/ML implementation?</t>
         </is>
       </c>
-      <c r="E5" s="12" t="n"/>
-      <c r="F5" s="15" t="n"/>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="E5" s="23" t="n"/>
+      <c r="F5" s="25" t="n"/>
+      <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Technical risk factors</t>
         </is>
@@ -891,124 +987,124 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>FUTURE-001</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>Future State</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Vision</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>What is your long-term vision for document processing automation?</t>
         </is>
       </c>
-      <c r="E2" s="14" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="E2" s="10" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>Future roadmap</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="23" t="inlineStr">
         <is>
           <t>FUTURE-002</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="23" t="inlineStr">
         <is>
           <t>Future State</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="23" t="inlineStr">
         <is>
           <t>Growth</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="23" t="inlineStr">
         <is>
           <t>How do you expect document processing volumes to change?</t>
         </is>
       </c>
-      <c r="E3" s="12" t="n"/>
-      <c r="F3" s="15" t="n"/>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Scalability planning</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>FUTURE-003</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Future State</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>What future document types or sources might need processing?</t>
         </is>
       </c>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="15" t="n"/>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="E4" s="10" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>Future expansion needs</t>
         </is>
@@ -1044,95 +1140,95 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr">
-        <is>
-          <t>VENDOR-001</t>
-        </is>
-      </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>ORG-007</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>Vendor Selection</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Experience</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>What AWS AI/ML implementation experience do you expect from partners?</t>
         </is>
       </c>
-      <c r="E2" s="14" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="E2" s="10" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>Partner requirements</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>VENDOR-002</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="A3" s="23" t="inlineStr">
+        <is>
+          <t>ORG-008</t>
+        </is>
+      </c>
+      <c r="B3" s="23" t="inlineStr">
         <is>
           <t>Vendor Selection</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="23" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="23" t="inlineStr">
         <is>
           <t>What ongoing support do you expect for the IDP solution?</t>
         </is>
       </c>
-      <c r="E3" s="12" t="n"/>
-      <c r="F3" s="15" t="n"/>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Support expectations</t>
         </is>
@@ -1168,1787 +1264,1787 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>Total Questions</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
         <is>
           <t>Answered</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="19" t="inlineStr">
         <is>
           <t>Remaining</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="19" t="inlineStr">
         <is>
           <t>% Complete</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="20" t="n">
         <v>57</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="20">
         <f>SUMPRODUCT(--(LEN(F5:F61)&gt;0))</f>
         <v/>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="20">
         <f>A2-B2</f>
         <v/>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="21">
         <f>B2/A2</f>
         <v/>
       </c>
     </row>
     <row r="4" ht="32" customHeight="1">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="22" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="22" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D4" s="11" t="inlineStr">
+      <c r="D4" s="22" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
+      <c r="E4" s="22" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F4" s="22" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G4" s="11" t="inlineStr">
+      <c r="G4" s="22" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12">
+      <c r="A5" s="23">
         <f>IF('Project Information'!A2="","",'Project Information'!A2)</f>
         <v/>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="23">
         <f>IF('Project Information'!B2="","",'Project Information'!B2)</f>
         <v/>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="23">
         <f>IF('Project Information'!C2="","",'Project Information'!C2)</f>
         <v/>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="23">
         <f>IF('Project Information'!D2="","",'Project Information'!D2)</f>
         <v/>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="23">
         <f>IF('Project Information'!E2="","",'Project Information'!E2)</f>
         <v/>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="24">
         <f>IF('Project Information'!F2="","",'Project Information'!F2)</f>
         <v/>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="23">
         <f>IF('Project Information'!G2="","",'Project Information'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14">
+      <c r="A6" s="10">
         <f>IF('Project Information'!A3="","",'Project Information'!A3)</f>
         <v/>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="10">
         <f>IF('Project Information'!B3="","",'Project Information'!B3)</f>
         <v/>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <f>IF('Project Information'!C3="","",'Project Information'!C3)</f>
         <v/>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <f>IF('Project Information'!D3="","",'Project Information'!D3)</f>
         <v/>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <f>IF('Project Information'!E3="","",'Project Information'!E3)</f>
         <v/>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="24">
         <f>IF('Project Information'!F3="","",'Project Information'!F3)</f>
         <v/>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <f>IF('Project Information'!G3="","",'Project Information'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12">
+      <c r="A7" s="23">
         <f>IF('Project Information'!A4="","",'Project Information'!A4)</f>
         <v/>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="23">
         <f>IF('Project Information'!B4="","",'Project Information'!B4)</f>
         <v/>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="23">
         <f>IF('Project Information'!C4="","",'Project Information'!C4)</f>
         <v/>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="23">
         <f>IF('Project Information'!D4="","",'Project Information'!D4)</f>
         <v/>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="23">
         <f>IF('Project Information'!E4="","",'Project Information'!E4)</f>
         <v/>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="24">
         <f>IF('Project Information'!F4="","",'Project Information'!F4)</f>
         <v/>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="23">
         <f>IF('Project Information'!G4="","",'Project Information'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14">
+      <c r="A8" s="10">
         <f>IF('Project Information'!A5="","",'Project Information'!A5)</f>
         <v/>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="10">
         <f>IF('Project Information'!B5="","",'Project Information'!B5)</f>
         <v/>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <f>IF('Project Information'!C5="","",'Project Information'!C5)</f>
         <v/>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <f>IF('Project Information'!D5="","",'Project Information'!D5)</f>
         <v/>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <f>IF('Project Information'!E5="","",'Project Information'!E5)</f>
         <v/>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="24">
         <f>IF('Project Information'!F5="","",'Project Information'!F5)</f>
         <v/>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="10">
         <f>IF('Project Information'!G5="","",'Project Information'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12">
+      <c r="A9" s="23">
         <f>IF('Project Information'!A6="","",'Project Information'!A6)</f>
         <v/>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="23">
         <f>IF('Project Information'!B6="","",'Project Information'!B6)</f>
         <v/>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="23">
         <f>IF('Project Information'!C6="","",'Project Information'!C6)</f>
         <v/>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="23">
         <f>IF('Project Information'!D6="","",'Project Information'!D6)</f>
         <v/>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="23">
         <f>IF('Project Information'!E6="","",'Project Information'!E6)</f>
         <v/>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="24">
         <f>IF('Project Information'!F6="","",'Project Information'!F6)</f>
         <v/>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="23">
         <f>IF('Project Information'!G6="","",'Project Information'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14">
+      <c r="A10" s="10">
         <f>IF('Business Requirements'!A2="","",'Business Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="10">
         <f>IF('Business Requirements'!B2="","",'Business Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <f>IF('Business Requirements'!C2="","",'Business Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <f>IF('Business Requirements'!D2="","",'Business Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="10">
         <f>IF('Business Requirements'!E2="","",'Business Requirements'!E2)</f>
         <v/>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="24">
         <f>IF('Business Requirements'!F2="","",'Business Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <f>IF('Business Requirements'!G2="","",'Business Requirements'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12">
+      <c r="A11" s="23">
         <f>IF('Business Requirements'!A3="","",'Business Requirements'!A3)</f>
         <v/>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="23">
         <f>IF('Business Requirements'!B3="","",'Business Requirements'!B3)</f>
         <v/>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="23">
         <f>IF('Business Requirements'!C3="","",'Business Requirements'!C3)</f>
         <v/>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="23">
         <f>IF('Business Requirements'!D3="","",'Business Requirements'!D3)</f>
         <v/>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="23">
         <f>IF('Business Requirements'!E3="","",'Business Requirements'!E3)</f>
         <v/>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="24">
         <f>IF('Business Requirements'!F3="","",'Business Requirements'!F3)</f>
         <v/>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="23">
         <f>IF('Business Requirements'!G3="","",'Business Requirements'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14">
+      <c r="A12" s="10">
         <f>IF('Business Requirements'!A4="","",'Business Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="10">
         <f>IF('Business Requirements'!B4="","",'Business Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="10">
         <f>IF('Business Requirements'!C4="","",'Business Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <f>IF('Business Requirements'!D4="","",'Business Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="10">
         <f>IF('Business Requirements'!E4="","",'Business Requirements'!E4)</f>
         <v/>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="24">
         <f>IF('Business Requirements'!F4="","",'Business Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="10">
         <f>IF('Business Requirements'!G4="","",'Business Requirements'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12">
+      <c r="A13" s="23">
         <f>IF('Business Requirements'!A5="","",'Business Requirements'!A5)</f>
         <v/>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="23">
         <f>IF('Business Requirements'!B5="","",'Business Requirements'!B5)</f>
         <v/>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="23">
         <f>IF('Business Requirements'!C5="","",'Business Requirements'!C5)</f>
         <v/>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="23">
         <f>IF('Business Requirements'!D5="","",'Business Requirements'!D5)</f>
         <v/>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="23">
         <f>IF('Business Requirements'!E5="","",'Business Requirements'!E5)</f>
         <v/>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="24">
         <f>IF('Business Requirements'!F5="","",'Business Requirements'!F5)</f>
         <v/>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="23">
         <f>IF('Business Requirements'!G5="","",'Business Requirements'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14">
+      <c r="A14" s="10">
         <f>IF('Business Requirements'!A6="","",'Business Requirements'!A6)</f>
         <v/>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="10">
         <f>IF('Business Requirements'!B6="","",'Business Requirements'!B6)</f>
         <v/>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="10">
         <f>IF('Business Requirements'!C6="","",'Business Requirements'!C6)</f>
         <v/>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="10">
         <f>IF('Business Requirements'!D6="","",'Business Requirements'!D6)</f>
         <v/>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="10">
         <f>IF('Business Requirements'!E6="","",'Business Requirements'!E6)</f>
         <v/>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="24">
         <f>IF('Business Requirements'!F6="","",'Business Requirements'!F6)</f>
         <v/>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="10">
         <f>IF('Business Requirements'!G6="","",'Business Requirements'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12">
+      <c r="A15" s="23">
         <f>IF('Business Requirements'!A7="","",'Business Requirements'!A7)</f>
         <v/>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="23">
         <f>IF('Business Requirements'!B7="","",'Business Requirements'!B7)</f>
         <v/>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="23">
         <f>IF('Business Requirements'!C7="","",'Business Requirements'!C7)</f>
         <v/>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="23">
         <f>IF('Business Requirements'!D7="","",'Business Requirements'!D7)</f>
         <v/>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="23">
         <f>IF('Business Requirements'!E7="","",'Business Requirements'!E7)</f>
         <v/>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="24">
         <f>IF('Business Requirements'!F7="","",'Business Requirements'!F7)</f>
         <v/>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="23">
         <f>IF('Business Requirements'!G7="","",'Business Requirements'!G7)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14">
+      <c r="A16" s="10">
         <f>IF('Business Requirements'!A8="","",'Business Requirements'!A8)</f>
         <v/>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="10">
         <f>IF('Business Requirements'!B8="","",'Business Requirements'!B8)</f>
         <v/>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="10">
         <f>IF('Business Requirements'!C8="","",'Business Requirements'!C8)</f>
         <v/>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <f>IF('Business Requirements'!D8="","",'Business Requirements'!D8)</f>
         <v/>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="10">
         <f>IF('Business Requirements'!E8="","",'Business Requirements'!E8)</f>
         <v/>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="24">
         <f>IF('Business Requirements'!F8="","",'Business Requirements'!F8)</f>
         <v/>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="10">
         <f>IF('Business Requirements'!G8="","",'Business Requirements'!G8)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="12">
+      <c r="A17" s="23">
         <f>IF('Business Requirements'!A9="","",'Business Requirements'!A9)</f>
         <v/>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="23">
         <f>IF('Business Requirements'!B9="","",'Business Requirements'!B9)</f>
         <v/>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="23">
         <f>IF('Business Requirements'!C9="","",'Business Requirements'!C9)</f>
         <v/>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="23">
         <f>IF('Business Requirements'!D9="","",'Business Requirements'!D9)</f>
         <v/>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="23">
         <f>IF('Business Requirements'!E9="","",'Business Requirements'!E9)</f>
         <v/>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="24">
         <f>IF('Business Requirements'!F9="","",'Business Requirements'!F9)</f>
         <v/>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="23">
         <f>IF('Business Requirements'!G9="","",'Business Requirements'!G9)</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14">
+      <c r="A18" s="10">
         <f>IF('Business Requirements'!A10="","",'Business Requirements'!A10)</f>
         <v/>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="10">
         <f>IF('Business Requirements'!B10="","",'Business Requirements'!B10)</f>
         <v/>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="10">
         <f>IF('Business Requirements'!C10="","",'Business Requirements'!C10)</f>
         <v/>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <f>IF('Business Requirements'!D10="","",'Business Requirements'!D10)</f>
         <v/>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="10">
         <f>IF('Business Requirements'!E10="","",'Business Requirements'!E10)</f>
         <v/>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="24">
         <f>IF('Business Requirements'!F10="","",'Business Requirements'!F10)</f>
         <v/>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="10">
         <f>IF('Business Requirements'!G10="","",'Business Requirements'!G10)</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="12">
+      <c r="A19" s="23">
         <f>IF('Business Requirements'!A11="","",'Business Requirements'!A11)</f>
         <v/>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="23">
         <f>IF('Business Requirements'!B11="","",'Business Requirements'!B11)</f>
         <v/>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="23">
         <f>IF('Business Requirements'!C11="","",'Business Requirements'!C11)</f>
         <v/>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="23">
         <f>IF('Business Requirements'!D11="","",'Business Requirements'!D11)</f>
         <v/>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="23">
         <f>IF('Business Requirements'!E11="","",'Business Requirements'!E11)</f>
         <v/>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="24">
         <f>IF('Business Requirements'!F11="","",'Business Requirements'!F11)</f>
         <v/>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="23">
         <f>IF('Business Requirements'!G11="","",'Business Requirements'!G11)</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14">
+      <c r="A20" s="10">
         <f>IF('Document Requirements'!A2="","",'Document Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="10">
         <f>IF('Document Requirements'!B2="","",'Document Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="10">
         <f>IF('Document Requirements'!C2="","",'Document Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <f>IF('Document Requirements'!D2="","",'Document Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="10">
         <f>IF('Document Requirements'!E2="","",'Document Requirements'!E2)</f>
         <v/>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="24">
         <f>IF('Document Requirements'!F2="","",'Document Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="10">
         <f>IF('Document Requirements'!G2="","",'Document Requirements'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12">
+      <c r="A21" s="23">
         <f>IF('Document Requirements'!A3="","",'Document Requirements'!A3)</f>
         <v/>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="23">
         <f>IF('Document Requirements'!B3="","",'Document Requirements'!B3)</f>
         <v/>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="23">
         <f>IF('Document Requirements'!C3="","",'Document Requirements'!C3)</f>
         <v/>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="23">
         <f>IF('Document Requirements'!D3="","",'Document Requirements'!D3)</f>
         <v/>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="23">
         <f>IF('Document Requirements'!E3="","",'Document Requirements'!E3)</f>
         <v/>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="24">
         <f>IF('Document Requirements'!F3="","",'Document Requirements'!F3)</f>
         <v/>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="23">
         <f>IF('Document Requirements'!G3="","",'Document Requirements'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="14">
+      <c r="A22" s="10">
         <f>IF('Document Requirements'!A4="","",'Document Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="10">
         <f>IF('Document Requirements'!B4="","",'Document Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="10">
         <f>IF('Document Requirements'!C4="","",'Document Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="10">
         <f>IF('Document Requirements'!D4="","",'Document Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="10">
         <f>IF('Document Requirements'!E4="","",'Document Requirements'!E4)</f>
         <v/>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="24">
         <f>IF('Document Requirements'!F4="","",'Document Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="10">
         <f>IF('Document Requirements'!G4="","",'Document Requirements'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="12">
+      <c r="A23" s="23">
         <f>IF('Document Requirements'!A5="","",'Document Requirements'!A5)</f>
         <v/>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="23">
         <f>IF('Document Requirements'!B5="","",'Document Requirements'!B5)</f>
         <v/>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="23">
         <f>IF('Document Requirements'!C5="","",'Document Requirements'!C5)</f>
         <v/>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="23">
         <f>IF('Document Requirements'!D5="","",'Document Requirements'!D5)</f>
         <v/>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="23">
         <f>IF('Document Requirements'!E5="","",'Document Requirements'!E5)</f>
         <v/>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="24">
         <f>IF('Document Requirements'!F5="","",'Document Requirements'!F5)</f>
         <v/>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="23">
         <f>IF('Document Requirements'!G5="","",'Document Requirements'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="14">
+      <c r="A24" s="10">
         <f>IF('Document Requirements'!A6="","",'Document Requirements'!A6)</f>
         <v/>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="10">
         <f>IF('Document Requirements'!B6="","",'Document Requirements'!B6)</f>
         <v/>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="10">
         <f>IF('Document Requirements'!C6="","",'Document Requirements'!C6)</f>
         <v/>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="10">
         <f>IF('Document Requirements'!D6="","",'Document Requirements'!D6)</f>
         <v/>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="10">
         <f>IF('Document Requirements'!E6="","",'Document Requirements'!E6)</f>
         <v/>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="24">
         <f>IF('Document Requirements'!F6="","",'Document Requirements'!F6)</f>
         <v/>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="10">
         <f>IF('Document Requirements'!G6="","",'Document Requirements'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12">
+      <c r="A25" s="23">
         <f>IF('Document Requirements'!A7="","",'Document Requirements'!A7)</f>
         <v/>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="23">
         <f>IF('Document Requirements'!B7="","",'Document Requirements'!B7)</f>
         <v/>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="23">
         <f>IF('Document Requirements'!C7="","",'Document Requirements'!C7)</f>
         <v/>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="23">
         <f>IF('Document Requirements'!D7="","",'Document Requirements'!D7)</f>
         <v/>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="23">
         <f>IF('Document Requirements'!E7="","",'Document Requirements'!E7)</f>
         <v/>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="24">
         <f>IF('Document Requirements'!F7="","",'Document Requirements'!F7)</f>
         <v/>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="23">
         <f>IF('Document Requirements'!G7="","",'Document Requirements'!G7)</f>
         <v/>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="14">
+      <c r="A26" s="10">
         <f>IF('Technical Requirements'!A2="","",'Technical Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="10">
         <f>IF('Technical Requirements'!B2="","",'Technical Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="10">
         <f>IF('Technical Requirements'!C2="","",'Technical Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="10">
         <f>IF('Technical Requirements'!D2="","",'Technical Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="10">
         <f>IF('Technical Requirements'!E2="","",'Technical Requirements'!E2)</f>
         <v/>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="24">
         <f>IF('Technical Requirements'!F2="","",'Technical Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="10">
         <f>IF('Technical Requirements'!G2="","",'Technical Requirements'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12">
+      <c r="A27" s="23">
         <f>IF('Technical Requirements'!A3="","",'Technical Requirements'!A3)</f>
         <v/>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="23">
         <f>IF('Technical Requirements'!B3="","",'Technical Requirements'!B3)</f>
         <v/>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="23">
         <f>IF('Technical Requirements'!C3="","",'Technical Requirements'!C3)</f>
         <v/>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="23">
         <f>IF('Technical Requirements'!D3="","",'Technical Requirements'!D3)</f>
         <v/>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="23">
         <f>IF('Technical Requirements'!E3="","",'Technical Requirements'!E3)</f>
         <v/>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="24">
         <f>IF('Technical Requirements'!F3="","",'Technical Requirements'!F3)</f>
         <v/>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="23">
         <f>IF('Technical Requirements'!G3="","",'Technical Requirements'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="14">
+      <c r="A28" s="10">
         <f>IF('Technical Requirements'!A4="","",'Technical Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="10">
         <f>IF('Technical Requirements'!B4="","",'Technical Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="10">
         <f>IF('Technical Requirements'!C4="","",'Technical Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="10">
         <f>IF('Technical Requirements'!D4="","",'Technical Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="10">
         <f>IF('Technical Requirements'!E4="","",'Technical Requirements'!E4)</f>
         <v/>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="24">
         <f>IF('Technical Requirements'!F4="","",'Technical Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="10">
         <f>IF('Technical Requirements'!G4="","",'Technical Requirements'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="12">
+      <c r="A29" s="23">
         <f>IF('Technical Requirements'!A5="","",'Technical Requirements'!A5)</f>
         <v/>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="23">
         <f>IF('Technical Requirements'!B5="","",'Technical Requirements'!B5)</f>
         <v/>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="23">
         <f>IF('Technical Requirements'!C5="","",'Technical Requirements'!C5)</f>
         <v/>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="23">
         <f>IF('Technical Requirements'!D5="","",'Technical Requirements'!D5)</f>
         <v/>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="23">
         <f>IF('Technical Requirements'!E5="","",'Technical Requirements'!E5)</f>
         <v/>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="24">
         <f>IF('Technical Requirements'!F5="","",'Technical Requirements'!F5)</f>
         <v/>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="23">
         <f>IF('Technical Requirements'!G5="","",'Technical Requirements'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="14">
+      <c r="A30" s="10">
         <f>IF('Technical Requirements'!A6="","",'Technical Requirements'!A6)</f>
         <v/>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="10">
         <f>IF('Technical Requirements'!B6="","",'Technical Requirements'!B6)</f>
         <v/>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="10">
         <f>IF('Technical Requirements'!C6="","",'Technical Requirements'!C6)</f>
         <v/>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="10">
         <f>IF('Technical Requirements'!D6="","",'Technical Requirements'!D6)</f>
         <v/>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="10">
         <f>IF('Technical Requirements'!E6="","",'Technical Requirements'!E6)</f>
         <v/>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="24">
         <f>IF('Technical Requirements'!F6="","",'Technical Requirements'!F6)</f>
         <v/>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="10">
         <f>IF('Technical Requirements'!G6="","",'Technical Requirements'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12">
+      <c r="A31" s="23">
         <f>IF('Technical Requirements'!A7="","",'Technical Requirements'!A7)</f>
         <v/>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="23">
         <f>IF('Technical Requirements'!B7="","",'Technical Requirements'!B7)</f>
         <v/>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="23">
         <f>IF('Technical Requirements'!C7="","",'Technical Requirements'!C7)</f>
         <v/>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="23">
         <f>IF('Technical Requirements'!D7="","",'Technical Requirements'!D7)</f>
         <v/>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="23">
         <f>IF('Technical Requirements'!E7="","",'Technical Requirements'!E7)</f>
         <v/>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="24">
         <f>IF('Technical Requirements'!F7="","",'Technical Requirements'!F7)</f>
         <v/>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="23">
         <f>IF('Technical Requirements'!G7="","",'Technical Requirements'!G7)</f>
         <v/>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="14">
+      <c r="A32" s="10">
         <f>IF('Technical Requirements'!A8="","",'Technical Requirements'!A8)</f>
         <v/>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="10">
         <f>IF('Technical Requirements'!B8="","",'Technical Requirements'!B8)</f>
         <v/>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="10">
         <f>IF('Technical Requirements'!C8="","",'Technical Requirements'!C8)</f>
         <v/>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="10">
         <f>IF('Technical Requirements'!D8="","",'Technical Requirements'!D8)</f>
         <v/>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="10">
         <f>IF('Technical Requirements'!E8="","",'Technical Requirements'!E8)</f>
         <v/>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="24">
         <f>IF('Technical Requirements'!F8="","",'Technical Requirements'!F8)</f>
         <v/>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="10">
         <f>IF('Technical Requirements'!G8="","",'Technical Requirements'!G8)</f>
         <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12">
+      <c r="A33" s="23">
         <f>IF('Technical Requirements'!A9="","",'Technical Requirements'!A9)</f>
         <v/>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="23">
         <f>IF('Technical Requirements'!B9="","",'Technical Requirements'!B9)</f>
         <v/>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="23">
         <f>IF('Technical Requirements'!C9="","",'Technical Requirements'!C9)</f>
         <v/>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="23">
         <f>IF('Technical Requirements'!D9="","",'Technical Requirements'!D9)</f>
         <v/>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="23">
         <f>IF('Technical Requirements'!E9="","",'Technical Requirements'!E9)</f>
         <v/>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="24">
         <f>IF('Technical Requirements'!F9="","",'Technical Requirements'!F9)</f>
         <v/>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="23">
         <f>IF('Technical Requirements'!G9="","",'Technical Requirements'!G9)</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="14">
+      <c r="A34" s="10">
         <f>IF('Technical Requirements'!A10="","",'Technical Requirements'!A10)</f>
         <v/>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="10">
         <f>IF('Technical Requirements'!B10="","",'Technical Requirements'!B10)</f>
         <v/>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="10">
         <f>IF('Technical Requirements'!C10="","",'Technical Requirements'!C10)</f>
         <v/>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="10">
         <f>IF('Technical Requirements'!D10="","",'Technical Requirements'!D10)</f>
         <v/>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="10">
         <f>IF('Technical Requirements'!E10="","",'Technical Requirements'!E10)</f>
         <v/>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="24">
         <f>IF('Technical Requirements'!F10="","",'Technical Requirements'!F10)</f>
         <v/>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="10">
         <f>IF('Technical Requirements'!G10="","",'Technical Requirements'!G10)</f>
         <v/>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="12">
+      <c r="A35" s="23">
         <f>IF('Technical Requirements'!A11="","",'Technical Requirements'!A11)</f>
         <v/>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="23">
         <f>IF('Technical Requirements'!B11="","",'Technical Requirements'!B11)</f>
         <v/>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="23">
         <f>IF('Technical Requirements'!C11="","",'Technical Requirements'!C11)</f>
         <v/>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="23">
         <f>IF('Technical Requirements'!D11="","",'Technical Requirements'!D11)</f>
         <v/>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="23">
         <f>IF('Technical Requirements'!E11="","",'Technical Requirements'!E11)</f>
         <v/>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="24">
         <f>IF('Technical Requirements'!F11="","",'Technical Requirements'!F11)</f>
         <v/>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="23">
         <f>IF('Technical Requirements'!G11="","",'Technical Requirements'!G11)</f>
         <v/>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="14">
+      <c r="A36" s="10">
         <f>IF('Technical Requirements'!A12="","",'Technical Requirements'!A12)</f>
         <v/>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="10">
         <f>IF('Technical Requirements'!B12="","",'Technical Requirements'!B12)</f>
         <v/>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="10">
         <f>IF('Technical Requirements'!C12="","",'Technical Requirements'!C12)</f>
         <v/>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="10">
         <f>IF('Technical Requirements'!D12="","",'Technical Requirements'!D12)</f>
         <v/>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="10">
         <f>IF('Technical Requirements'!E12="","",'Technical Requirements'!E12)</f>
         <v/>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="24">
         <f>IF('Technical Requirements'!F12="","",'Technical Requirements'!F12)</f>
         <v/>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="10">
         <f>IF('Technical Requirements'!G12="","",'Technical Requirements'!G12)</f>
         <v/>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="12">
+      <c r="A37" s="23">
         <f>IF('Technical Requirements'!A13="","",'Technical Requirements'!A13)</f>
         <v/>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="23">
         <f>IF('Technical Requirements'!B13="","",'Technical Requirements'!B13)</f>
         <v/>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="23">
         <f>IF('Technical Requirements'!C13="","",'Technical Requirements'!C13)</f>
         <v/>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="23">
         <f>IF('Technical Requirements'!D13="","",'Technical Requirements'!D13)</f>
         <v/>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="23">
         <f>IF('Technical Requirements'!E13="","",'Technical Requirements'!E13)</f>
         <v/>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="24">
         <f>IF('Technical Requirements'!F13="","",'Technical Requirements'!F13)</f>
         <v/>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="23">
         <f>IF('Technical Requirements'!G13="","",'Technical Requirements'!G13)</f>
         <v/>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="14">
+      <c r="A38" s="10">
         <f>IF('Technical Requirements'!A14="","",'Technical Requirements'!A14)</f>
         <v/>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="10">
         <f>IF('Technical Requirements'!B14="","",'Technical Requirements'!B14)</f>
         <v/>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="10">
         <f>IF('Technical Requirements'!C14="","",'Technical Requirements'!C14)</f>
         <v/>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="10">
         <f>IF('Technical Requirements'!D14="","",'Technical Requirements'!D14)</f>
         <v/>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="10">
         <f>IF('Technical Requirements'!E14="","",'Technical Requirements'!E14)</f>
         <v/>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="24">
         <f>IF('Technical Requirements'!F14="","",'Technical Requirements'!F14)</f>
         <v/>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="10">
         <f>IF('Technical Requirements'!G14="","",'Technical Requirements'!G14)</f>
         <v/>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12">
+      <c r="A39" s="23">
         <f>IF('AI-ML Requirements'!A2="","",'AI-ML Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="23">
         <f>IF('AI-ML Requirements'!B2="","",'AI-ML Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="23">
         <f>IF('AI-ML Requirements'!C2="","",'AI-ML Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="23">
         <f>IF('AI-ML Requirements'!D2="","",'AI-ML Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="23">
         <f>IF('AI-ML Requirements'!E2="","",'AI-ML Requirements'!E2)</f>
         <v/>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="24">
         <f>IF('AI-ML Requirements'!F2="","",'AI-ML Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="23">
         <f>IF('AI-ML Requirements'!G2="","",'AI-ML Requirements'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="14">
+      <c r="A40" s="10">
         <f>IF('AI-ML Requirements'!A3="","",'AI-ML Requirements'!A3)</f>
         <v/>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="10">
         <f>IF('AI-ML Requirements'!B3="","",'AI-ML Requirements'!B3)</f>
         <v/>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="10">
         <f>IF('AI-ML Requirements'!C3="","",'AI-ML Requirements'!C3)</f>
         <v/>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="10">
         <f>IF('AI-ML Requirements'!D3="","",'AI-ML Requirements'!D3)</f>
         <v/>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="10">
         <f>IF('AI-ML Requirements'!E3="","",'AI-ML Requirements'!E3)</f>
         <v/>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="24">
         <f>IF('AI-ML Requirements'!F3="","",'AI-ML Requirements'!F3)</f>
         <v/>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="10">
         <f>IF('AI-ML Requirements'!G3="","",'AI-ML Requirements'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="12">
+      <c r="A41" s="23">
         <f>IF('AI-ML Requirements'!A4="","",'AI-ML Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="23">
         <f>IF('AI-ML Requirements'!B4="","",'AI-ML Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="23">
         <f>IF('AI-ML Requirements'!C4="","",'AI-ML Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="23">
         <f>IF('AI-ML Requirements'!D4="","",'AI-ML Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="23">
         <f>IF('AI-ML Requirements'!E4="","",'AI-ML Requirements'!E4)</f>
         <v/>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="24">
         <f>IF('AI-ML Requirements'!F4="","",'AI-ML Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="23">
         <f>IF('AI-ML Requirements'!G4="","",'AI-ML Requirements'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="14">
+      <c r="A42" s="10">
         <f>IF('AI-ML Requirements'!A5="","",'AI-ML Requirements'!A5)</f>
         <v/>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="10">
         <f>IF('AI-ML Requirements'!B5="","",'AI-ML Requirements'!B5)</f>
         <v/>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="10">
         <f>IF('AI-ML Requirements'!C5="","",'AI-ML Requirements'!C5)</f>
         <v/>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="10">
         <f>IF('AI-ML Requirements'!D5="","",'AI-ML Requirements'!D5)</f>
         <v/>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="10">
         <f>IF('AI-ML Requirements'!E5="","",'AI-ML Requirements'!E5)</f>
         <v/>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="24">
         <f>IF('AI-ML Requirements'!F5="","",'AI-ML Requirements'!F5)</f>
         <v/>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="10">
         <f>IF('AI-ML Requirements'!G5="","",'AI-ML Requirements'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="12">
+      <c r="A43" s="23">
         <f>IF('Organizational'!A2="","",'Organizational'!A2)</f>
         <v/>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="23">
         <f>IF('Organizational'!B2="","",'Organizational'!B2)</f>
         <v/>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="23">
         <f>IF('Organizational'!C2="","",'Organizational'!C2)</f>
         <v/>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="23">
         <f>IF('Organizational'!D2="","",'Organizational'!D2)</f>
         <v/>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="23">
         <f>IF('Organizational'!E2="","",'Organizational'!E2)</f>
         <v/>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="24">
         <f>IF('Organizational'!F2="","",'Organizational'!F2)</f>
         <v/>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="23">
         <f>IF('Organizational'!G2="","",'Organizational'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="14">
+      <c r="A44" s="10">
         <f>IF('Organizational'!A3="","",'Organizational'!A3)</f>
         <v/>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="10">
         <f>IF('Organizational'!B3="","",'Organizational'!B3)</f>
         <v/>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="10">
         <f>IF('Organizational'!C3="","",'Organizational'!C3)</f>
         <v/>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="10">
         <f>IF('Organizational'!D3="","",'Organizational'!D3)</f>
         <v/>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="10">
         <f>IF('Organizational'!E3="","",'Organizational'!E3)</f>
         <v/>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="24">
         <f>IF('Organizational'!F3="","",'Organizational'!F3)</f>
         <v/>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="10">
         <f>IF('Organizational'!G3="","",'Organizational'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="12">
+      <c r="A45" s="23">
         <f>IF('Organizational'!A4="","",'Organizational'!A4)</f>
         <v/>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="23">
         <f>IF('Organizational'!B4="","",'Organizational'!B4)</f>
         <v/>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="23">
         <f>IF('Organizational'!C4="","",'Organizational'!C4)</f>
         <v/>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="23">
         <f>IF('Organizational'!D4="","",'Organizational'!D4)</f>
         <v/>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="23">
         <f>IF('Organizational'!E4="","",'Organizational'!E4)</f>
         <v/>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="24">
         <f>IF('Organizational'!F4="","",'Organizational'!F4)</f>
         <v/>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="23">
         <f>IF('Organizational'!G4="","",'Organizational'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="14">
+      <c r="A46" s="10">
         <f>IF('Organizational'!A5="","",'Organizational'!A5)</f>
         <v/>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="10">
         <f>IF('Organizational'!B5="","",'Organizational'!B5)</f>
         <v/>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="10">
         <f>IF('Organizational'!C5="","",'Organizational'!C5)</f>
         <v/>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="10">
         <f>IF('Organizational'!D5="","",'Organizational'!D5)</f>
         <v/>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="10">
         <f>IF('Organizational'!E5="","",'Organizational'!E5)</f>
         <v/>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="24">
         <f>IF('Organizational'!F5="","",'Organizational'!F5)</f>
         <v/>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="10">
         <f>IF('Organizational'!G5="","",'Organizational'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="12">
+      <c r="A47" s="23">
         <f>IF('Organizational'!A6="","",'Organizational'!A6)</f>
         <v/>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="23">
         <f>IF('Organizational'!B6="","",'Organizational'!B6)</f>
         <v/>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="23">
         <f>IF('Organizational'!C6="","",'Organizational'!C6)</f>
         <v/>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="23">
         <f>IF('Organizational'!D6="","",'Organizational'!D6)</f>
         <v/>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="23">
         <f>IF('Organizational'!E6="","",'Organizational'!E6)</f>
         <v/>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="24">
         <f>IF('Organizational'!F6="","",'Organizational'!F6)</f>
         <v/>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="23">
         <f>IF('Organizational'!G6="","",'Organizational'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="14">
+      <c r="A48" s="10">
         <f>IF('Organizational'!A7="","",'Organizational'!A7)</f>
         <v/>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="10">
         <f>IF('Organizational'!B7="","",'Organizational'!B7)</f>
         <v/>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="10">
         <f>IF('Organizational'!C7="","",'Organizational'!C7)</f>
         <v/>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="10">
         <f>IF('Organizational'!D7="","",'Organizational'!D7)</f>
         <v/>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="10">
         <f>IF('Organizational'!E7="","",'Organizational'!E7)</f>
         <v/>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="24">
         <f>IF('Organizational'!F7="","",'Organizational'!F7)</f>
         <v/>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="10">
         <f>IF('Organizational'!G7="","",'Organizational'!G7)</f>
         <v/>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="12">
+      <c r="A49" s="23">
         <f>IF('Workflow Requirements'!A2="","",'Workflow Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="23">
         <f>IF('Workflow Requirements'!B2="","",'Workflow Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="23">
         <f>IF('Workflow Requirements'!C2="","",'Workflow Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="23">
         <f>IF('Workflow Requirements'!D2="","",'Workflow Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="23">
         <f>IF('Workflow Requirements'!E2="","",'Workflow Requirements'!E2)</f>
         <v/>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="24">
         <f>IF('Workflow Requirements'!F2="","",'Workflow Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="23">
         <f>IF('Workflow Requirements'!G2="","",'Workflow Requirements'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="14">
+      <c r="A50" s="10">
         <f>IF('Workflow Requirements'!A3="","",'Workflow Requirements'!A3)</f>
         <v/>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="10">
         <f>IF('Workflow Requirements'!B3="","",'Workflow Requirements'!B3)</f>
         <v/>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="10">
         <f>IF('Workflow Requirements'!C3="","",'Workflow Requirements'!C3)</f>
         <v/>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="10">
         <f>IF('Workflow Requirements'!D3="","",'Workflow Requirements'!D3)</f>
         <v/>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="10">
         <f>IF('Workflow Requirements'!E3="","",'Workflow Requirements'!E3)</f>
         <v/>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="24">
         <f>IF('Workflow Requirements'!F3="","",'Workflow Requirements'!F3)</f>
         <v/>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="10">
         <f>IF('Workflow Requirements'!G3="","",'Workflow Requirements'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="12">
+      <c r="A51" s="23">
         <f>IF('Workflow Requirements'!A4="","",'Workflow Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="23">
         <f>IF('Workflow Requirements'!B4="","",'Workflow Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="23">
         <f>IF('Workflow Requirements'!C4="","",'Workflow Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="23">
         <f>IF('Workflow Requirements'!D4="","",'Workflow Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="23">
         <f>IF('Workflow Requirements'!E4="","",'Workflow Requirements'!E4)</f>
         <v/>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="24">
         <f>IF('Workflow Requirements'!F4="","",'Workflow Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="23">
         <f>IF('Workflow Requirements'!G4="","",'Workflow Requirements'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="14">
+      <c r="A52" s="10">
         <f>IF('Workflow Requirements'!A5="","",'Workflow Requirements'!A5)</f>
         <v/>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="10">
         <f>IF('Workflow Requirements'!B5="","",'Workflow Requirements'!B5)</f>
         <v/>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="10">
         <f>IF('Workflow Requirements'!C5="","",'Workflow Requirements'!C5)</f>
         <v/>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="10">
         <f>IF('Workflow Requirements'!D5="","",'Workflow Requirements'!D5)</f>
         <v/>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="10">
         <f>IF('Workflow Requirements'!E5="","",'Workflow Requirements'!E5)</f>
         <v/>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="24">
         <f>IF('Workflow Requirements'!F5="","",'Workflow Requirements'!F5)</f>
         <v/>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="10">
         <f>IF('Workflow Requirements'!G5="","",'Workflow Requirements'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="12">
+      <c r="A53" s="23">
         <f>IF('Risk Assessment'!A2="","",'Risk Assessment'!A2)</f>
         <v/>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="23">
         <f>IF('Risk Assessment'!B2="","",'Risk Assessment'!B2)</f>
         <v/>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="23">
         <f>IF('Risk Assessment'!C2="","",'Risk Assessment'!C2)</f>
         <v/>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="23">
         <f>IF('Risk Assessment'!D2="","",'Risk Assessment'!D2)</f>
         <v/>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="23">
         <f>IF('Risk Assessment'!E2="","",'Risk Assessment'!E2)</f>
         <v/>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="24">
         <f>IF('Risk Assessment'!F2="","",'Risk Assessment'!F2)</f>
         <v/>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="23">
         <f>IF('Risk Assessment'!G2="","",'Risk Assessment'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="14">
+      <c r="A54" s="10">
         <f>IF('Risk Assessment'!A3="","",'Risk Assessment'!A3)</f>
         <v/>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="10">
         <f>IF('Risk Assessment'!B3="","",'Risk Assessment'!B3)</f>
         <v/>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="10">
         <f>IF('Risk Assessment'!C3="","",'Risk Assessment'!C3)</f>
         <v/>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="10">
         <f>IF('Risk Assessment'!D3="","",'Risk Assessment'!D3)</f>
         <v/>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="10">
         <f>IF('Risk Assessment'!E3="","",'Risk Assessment'!E3)</f>
         <v/>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="24">
         <f>IF('Risk Assessment'!F3="","",'Risk Assessment'!F3)</f>
         <v/>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="10">
         <f>IF('Risk Assessment'!G3="","",'Risk Assessment'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="12">
+      <c r="A55" s="23">
         <f>IF('Risk Assessment'!A4="","",'Risk Assessment'!A4)</f>
         <v/>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="23">
         <f>IF('Risk Assessment'!B4="","",'Risk Assessment'!B4)</f>
         <v/>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="23">
         <f>IF('Risk Assessment'!C4="","",'Risk Assessment'!C4)</f>
         <v/>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="23">
         <f>IF('Risk Assessment'!D4="","",'Risk Assessment'!D4)</f>
         <v/>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="23">
         <f>IF('Risk Assessment'!E4="","",'Risk Assessment'!E4)</f>
         <v/>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="24">
         <f>IF('Risk Assessment'!F4="","",'Risk Assessment'!F4)</f>
         <v/>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="23">
         <f>IF('Risk Assessment'!G4="","",'Risk Assessment'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="14">
+      <c r="A56" s="10">
         <f>IF('Risk Assessment'!A5="","",'Risk Assessment'!A5)</f>
         <v/>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="10">
         <f>IF('Risk Assessment'!B5="","",'Risk Assessment'!B5)</f>
         <v/>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="10">
         <f>IF('Risk Assessment'!C5="","",'Risk Assessment'!C5)</f>
         <v/>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="10">
         <f>IF('Risk Assessment'!D5="","",'Risk Assessment'!D5)</f>
         <v/>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="10">
         <f>IF('Risk Assessment'!E5="","",'Risk Assessment'!E5)</f>
         <v/>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="24">
         <f>IF('Risk Assessment'!F5="","",'Risk Assessment'!F5)</f>
         <v/>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="10">
         <f>IF('Risk Assessment'!G5="","",'Risk Assessment'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="12">
+      <c r="A57" s="23">
         <f>IF('Future State'!A2="","",'Future State'!A2)</f>
         <v/>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="23">
         <f>IF('Future State'!B2="","",'Future State'!B2)</f>
         <v/>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="23">
         <f>IF('Future State'!C2="","",'Future State'!C2)</f>
         <v/>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="23">
         <f>IF('Future State'!D2="","",'Future State'!D2)</f>
         <v/>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="23">
         <f>IF('Future State'!E2="","",'Future State'!E2)</f>
         <v/>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="24">
         <f>IF('Future State'!F2="","",'Future State'!F2)</f>
         <v/>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="23">
         <f>IF('Future State'!G2="","",'Future State'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="14">
+      <c r="A58" s="10">
         <f>IF('Future State'!A3="","",'Future State'!A3)</f>
         <v/>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="10">
         <f>IF('Future State'!B3="","",'Future State'!B3)</f>
         <v/>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="10">
         <f>IF('Future State'!C3="","",'Future State'!C3)</f>
         <v/>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="10">
         <f>IF('Future State'!D3="","",'Future State'!D3)</f>
         <v/>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="10">
         <f>IF('Future State'!E3="","",'Future State'!E3)</f>
         <v/>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="24">
         <f>IF('Future State'!F3="","",'Future State'!F3)</f>
         <v/>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="10">
         <f>IF('Future State'!G3="","",'Future State'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="12">
+      <c r="A59" s="23">
         <f>IF('Future State'!A4="","",'Future State'!A4)</f>
         <v/>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="23">
         <f>IF('Future State'!B4="","",'Future State'!B4)</f>
         <v/>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="23">
         <f>IF('Future State'!C4="","",'Future State'!C4)</f>
         <v/>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="23">
         <f>IF('Future State'!D4="","",'Future State'!D4)</f>
         <v/>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="23">
         <f>IF('Future State'!E4="","",'Future State'!E4)</f>
         <v/>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="24">
         <f>IF('Future State'!F4="","",'Future State'!F4)</f>
         <v/>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="23">
         <f>IF('Future State'!G4="","",'Future State'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="14">
+      <c r="A60" s="10">
         <f>IF('Vendor Selection'!A2="","",'Vendor Selection'!A2)</f>
         <v/>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="10">
         <f>IF('Vendor Selection'!B2="","",'Vendor Selection'!B2)</f>
         <v/>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="10">
         <f>IF('Vendor Selection'!C2="","",'Vendor Selection'!C2)</f>
         <v/>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="10">
         <f>IF('Vendor Selection'!D2="","",'Vendor Selection'!D2)</f>
         <v/>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="10">
         <f>IF('Vendor Selection'!E2="","",'Vendor Selection'!E2)</f>
         <v/>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="24">
         <f>IF('Vendor Selection'!F2="","",'Vendor Selection'!F2)</f>
         <v/>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="10">
         <f>IF('Vendor Selection'!G2="","",'Vendor Selection'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="12">
+      <c r="A61" s="23">
         <f>IF('Vendor Selection'!A3="","",'Vendor Selection'!A3)</f>
         <v/>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="23">
         <f>IF('Vendor Selection'!B3="","",'Vendor Selection'!B3)</f>
         <v/>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="23">
         <f>IF('Vendor Selection'!C3="","",'Vendor Selection'!C3)</f>
         <v/>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="23">
         <f>IF('Vendor Selection'!D3="","",'Vendor Selection'!D3)</f>
         <v/>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="23">
         <f>IF('Vendor Selection'!E3="","",'Vendor Selection'!E3)</f>
         <v/>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="24">
         <f>IF('Vendor Selection'!F3="","",'Vendor Selection'!F3)</f>
         <v/>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="23">
         <f>IF('Vendor Selection'!G3="","",'Vendor Selection'!G3)</f>
         <v/>
       </c>
@@ -2984,182 +3080,182 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>PROJ-001</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Basic Details</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>What is the name of your Intelligent Document Processing solution?</t>
         </is>
       </c>
-      <c r="E2" s="14" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="E2" s="10" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>Internal project reference</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="23" t="inlineStr">
         <is>
           <t>PROJ-002</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="23" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="23" t="inlineStr">
         <is>
           <t>Basic Details</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="23" t="inlineStr">
         <is>
           <t>What is your company name?</t>
         </is>
       </c>
-      <c r="E3" s="12" t="n"/>
-      <c r="F3" s="15" t="n"/>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Client identification</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>PROJ-003</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>Basic Details</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>Who is the primary stakeholder for this IDP project?</t>
         </is>
       </c>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="15" t="n"/>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="E4" s="10" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>Main point of contact</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="23" t="inlineStr">
         <is>
           <t>PROJ-004</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="23" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="23" t="inlineStr">
         <is>
           <t>Basic Details</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="23" t="inlineStr">
         <is>
           <t>What is the stakeholder's role and decision-making authority?</t>
         </is>
       </c>
-      <c r="E5" s="12" t="n"/>
-      <c r="F5" s="15" t="n"/>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="E5" s="23" t="n"/>
+      <c r="F5" s="25" t="n"/>
+      <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Decision-making authority</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="inlineStr">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>PROJ-005</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>Basic Details</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>What is today's date?</t>
         </is>
       </c>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="14" t="inlineStr">
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="25" t="n"/>
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>Questionnaire completion date</t>
         </is>
@@ -3195,355 +3291,355 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>BUS-001</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>What document processing challenges are you trying to solve?</t>
         </is>
       </c>
-      <c r="E2" s="14" t="inlineStr">
+      <c r="E2" s="10" t="inlineStr">
         <is>
           <t>Common challenges: Manual data entry, Document classification errors, Slow processing times, High operational costs, Compliance issues, Data accuracy problems</t>
         </is>
       </c>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>Primary business driver for IDP</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="23" t="inlineStr">
         <is>
           <t>BUS-002</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="23" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="23" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="23" t="inlineStr">
         <is>
           <t>What is your current document processing workflow?</t>
         </is>
       </c>
-      <c r="E3" s="12" t="n"/>
-      <c r="F3" s="15" t="n"/>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Current state assessment</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>BUS-003</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>What types of documents do you process regularly?</t>
         </is>
       </c>
-      <c r="E4" s="14" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>Common types: Invoices, Contracts, Insurance claims, Medical records, Tax documents, Legal documents, Forms, Letters</t>
         </is>
       </c>
-      <c r="F4" s="15" t="n"/>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>Document type classification</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="23" t="inlineStr">
         <is>
           <t>BUS-004</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="23" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="23" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="23" t="inlineStr">
         <is>
           <t>What volume of documents do you process monthly?</t>
         </is>
       </c>
-      <c r="E5" s="12" t="inlineStr">
+      <c r="E5" s="23" t="inlineStr">
         <is>
           <t>Typical ranges: 1-100, 101-1000, 1001-10000, 10000+</t>
         </is>
       </c>
-      <c r="F5" s="15" t="n"/>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="F5" s="25" t="n"/>
+      <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Processing volume requirements</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="inlineStr">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>BUS-005</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>What document formats do you currently handle?</t>
         </is>
       </c>
-      <c r="E6" s="14" t="inlineStr">
+      <c r="E6" s="10" t="inlineStr">
         <is>
           <t>Common formats: PDF, Word documents, Scanned images, Handwritten documents, Multi-page documents, Email attachments, Fax documents</t>
         </is>
       </c>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="14" t="inlineStr">
+      <c r="F6" s="25" t="n"/>
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>Input format requirements</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="inlineStr">
+      <c r="A7" s="23" t="inlineStr">
         <is>
           <t>BUS-006</t>
         </is>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="23" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr">
+      <c r="C7" s="23" t="inlineStr">
         <is>
           <t>Objectives</t>
         </is>
       </c>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D7" s="23" t="inlineStr">
         <is>
           <t>What are your primary goals for implementing IDP?</t>
         </is>
       </c>
-      <c r="E7" s="12" t="inlineStr">
+      <c r="E7" s="23" t="inlineStr">
         <is>
           <t>Common goals: Reduce manual data entry, Improve processing speed, Increase accuracy, Lower operational costs, Ensure compliance, Enable scalability</t>
         </is>
       </c>
-      <c r="F7" s="15" t="n"/>
-      <c r="G7" s="12" t="inlineStr">
+      <c r="F7" s="25" t="n"/>
+      <c r="G7" s="23" t="inlineStr">
         <is>
           <t>Business objectives</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="inlineStr">
+      <c r="A8" s="10" t="inlineStr">
         <is>
           <t>BUS-007</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C8" s="14" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>Objectives</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
         <is>
           <t>What specific data do you need to extract from documents?</t>
         </is>
       </c>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="15" t="n"/>
-      <c r="G8" s="14" t="inlineStr">
+      <c r="E8" s="10" t="n"/>
+      <c r="F8" s="25" t="n"/>
+      <c r="G8" s="10" t="inlineStr">
         <is>
           <t>Data extraction requirements</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="inlineStr">
+      <c r="A9" s="23" t="inlineStr">
         <is>
           <t>BUS-008</t>
         </is>
       </c>
-      <c r="B9" s="12" t="inlineStr">
+      <c r="B9" s="23" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C9" s="12" t="inlineStr">
+      <c r="C9" s="23" t="inlineStr">
         <is>
           <t>Timeline</t>
         </is>
       </c>
-      <c r="D9" s="12" t="inlineStr">
+      <c r="D9" s="23" t="inlineStr">
         <is>
           <t>What is your expected timeline for IDP implementation?</t>
         </is>
       </c>
-      <c r="E9" s="12" t="inlineStr">
+      <c r="E9" s="23" t="inlineStr">
         <is>
           <t>Typical ranges: 0-3 months, 3-6 months, 6-12 months, 12+ months</t>
         </is>
       </c>
-      <c r="F9" s="15" t="n"/>
-      <c r="G9" s="12" t="inlineStr">
+      <c r="F9" s="25" t="n"/>
+      <c r="G9" s="23" t="inlineStr">
         <is>
           <t>Project timeline expectations</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>BUS-009</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C10" s="14" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>Budget</t>
         </is>
       </c>
-      <c r="D10" s="14" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>What is your approved budget range for this IDP solution?</t>
         </is>
       </c>
-      <c r="E10" s="14" t="inlineStr">
+      <c r="E10" s="10" t="inlineStr">
         <is>
           <t>Common ranges: $0-50K, $50K-250K, $250K-1M, $1M+</t>
         </is>
       </c>
-      <c r="F10" s="15" t="n"/>
-      <c r="G10" s="14" t="inlineStr">
+      <c r="F10" s="25" t="n"/>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Budget constraints</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="inlineStr">
+      <c r="A11" s="23" t="inlineStr">
         <is>
           <t>BUS-010</t>
         </is>
       </c>
-      <c r="B11" s="12" t="inlineStr">
+      <c r="B11" s="23" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C11" s="12" t="inlineStr">
+      <c r="C11" s="23" t="inlineStr">
         <is>
           <t>Success Metrics</t>
         </is>
       </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="D11" s="23" t="inlineStr">
         <is>
           <t>How will you measure IDP success? (accuracy speed cost reduction)</t>
         </is>
       </c>
-      <c r="E11" s="12" t="n"/>
-      <c r="F11" s="15" t="n"/>
-      <c r="G11" s="12" t="inlineStr">
+      <c r="E11" s="23" t="n"/>
+      <c r="F11" s="25" t="n"/>
+      <c r="G11" s="23" t="inlineStr">
         <is>
           <t>KPI definition for document processing</t>
         </is>
@@ -3579,223 +3675,223 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>DOC-001</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>Document Requirements</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Types</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>What specific document types need automated processing?</t>
         </is>
       </c>
-      <c r="E2" s="14" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="E2" s="10" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>Detailed document classification</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="23" t="inlineStr">
         <is>
           <t>DOC-002</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="23" t="inlineStr">
         <is>
           <t>Document Requirements</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="23" t="inlineStr">
         <is>
           <t>Structure</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="23" t="inlineStr">
         <is>
           <t>Are your documents structured semi-structured or unstructured?</t>
         </is>
       </c>
-      <c r="E3" s="12" t="inlineStr">
+      <c r="E3" s="23" t="inlineStr">
         <is>
           <t>Types: Structured forms, Semi-structured invoices, Unstructured letters, Mixed types</t>
         </is>
       </c>
-      <c r="F3" s="15" t="n"/>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Document structure analysis</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>DOC-003</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Document Requirements</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>Quality</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>What is the typical quality of your source documents?</t>
         </is>
       </c>
-      <c r="E4" s="14" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>Quality levels: High quality digital, Good quality scanned, Poor quality scanned, Handwritten, Mixed quality</t>
         </is>
       </c>
-      <c r="F4" s="15" t="n"/>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>OCR accuracy expectations</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="23" t="inlineStr">
         <is>
           <t>DOC-004</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="23" t="inlineStr">
         <is>
           <t>Document Requirements</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="23" t="inlineStr">
         <is>
           <t>Languages</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="23" t="inlineStr">
         <is>
           <t>What languages appear in your documents?</t>
         </is>
       </c>
-      <c r="E5" s="12" t="n"/>
-      <c r="F5" s="15" t="n"/>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="E5" s="23" t="n"/>
+      <c r="F5" s="25" t="n"/>
+      <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Multi-language processing needs</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="inlineStr">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>DOC-005</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>Document Requirements</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>Variations</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>How much variation exists within each document type?</t>
         </is>
       </c>
-      <c r="E6" s="14" t="inlineStr">
+      <c r="E6" s="10" t="inlineStr">
         <is>
           <t>Variation levels: Highly standardized, Some variation, Significant variation, Completely variable</t>
         </is>
       </c>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="14" t="inlineStr">
+      <c r="F6" s="25" t="n"/>
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>Model training complexity</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="inlineStr">
+      <c r="A7" s="23" t="inlineStr">
         <is>
           <t>DOC-006</t>
         </is>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="23" t="inlineStr">
         <is>
           <t>Document Requirements</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr">
+      <c r="C7" s="23" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D7" s="23" t="inlineStr">
         <is>
           <t>Where do documents originate? (email upload fax etc)</t>
         </is>
       </c>
-      <c r="E7" s="12" t="n"/>
-      <c r="F7" s="15" t="n"/>
-      <c r="G7" s="12" t="inlineStr">
+      <c r="E7" s="23" t="n"/>
+      <c r="F7" s="25" t="n"/>
+      <c r="G7" s="23" t="inlineStr">
         <is>
           <t>Input channel requirements</t>
         </is>
@@ -3831,450 +3927,450 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>TECH-001</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>AWS Environment</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>What AWS services are you currently using?</t>
         </is>
       </c>
-      <c r="E2" s="14" t="inlineStr">
+      <c r="E2" s="10" t="inlineStr">
         <is>
           <t>AWS services: S3, Lambda, API Gateway, Textract, Comprehend, SageMaker, None, Other</t>
         </is>
       </c>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>Current AWS footprint</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="23" t="inlineStr">
         <is>
           <t>TECH-002</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="23" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="23" t="inlineStr">
         <is>
           <t>AWS Environment</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="23" t="inlineStr">
         <is>
           <t>What AWS region(s) do you prefer for data processing?</t>
         </is>
       </c>
-      <c r="E3" s="12" t="n"/>
-      <c r="F3" s="15" t="n"/>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Data residency requirements</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>TECH-003</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>What systems need to integrate with the IDP solution?</t>
         </is>
       </c>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="15" t="n"/>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="E4" s="10" t="n"/>
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>Integration requirements</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="23" t="inlineStr">
         <is>
           <t>TECH-004</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="23" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="23" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="23" t="inlineStr">
         <is>
           <t>What document storage systems do you currently use?</t>
         </is>
       </c>
-      <c r="E5" s="12" t="inlineStr">
+      <c r="E5" s="23" t="inlineStr">
         <is>
           <t>Common systems: AWS S3, SharePoint, Google Drive, Box, On-premises file servers, Email systems</t>
         </is>
       </c>
-      <c r="F5" s="15" t="n"/>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="F5" s="25" t="n"/>
+      <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Storage integration needs</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="inlineStr">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>TECH-005</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>API Requirements</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>Do you need real-time or batch document processing?</t>
         </is>
       </c>
-      <c r="E6" s="14" t="inlineStr">
+      <c r="E6" s="10" t="inlineStr">
         <is>
           <t>Options: Real-time processing, Batch processing, Both options</t>
         </is>
       </c>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="14" t="inlineStr">
+      <c r="F6" s="25" t="n"/>
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>Processing mode requirements</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="inlineStr">
+      <c r="A7" s="23" t="inlineStr">
         <is>
           <t>TECH-006</t>
         </is>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="23" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr">
+      <c r="C7" s="23" t="inlineStr">
         <is>
           <t>API Requirements</t>
         </is>
       </c>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D7" s="23" t="inlineStr">
         <is>
           <t>What API integration capabilities do you need?</t>
         </is>
       </c>
-      <c r="E7" s="12" t="inlineStr">
+      <c r="E7" s="23" t="inlineStr">
         <is>
           <t>Common integrations: REST APIs, Webhooks, File upload endpoints, Email integration, FTP integration</t>
         </is>
       </c>
-      <c r="F7" s="15" t="n"/>
-      <c r="G7" s="12" t="inlineStr">
+      <c r="F7" s="25" t="n"/>
+      <c r="G7" s="23" t="inlineStr">
         <is>
           <t>API integration needs</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="inlineStr">
+      <c r="A8" s="10" t="inlineStr">
         <is>
           <t>TECH-007</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C8" s="14" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
+      <c r="D8" s="10" t="inlineStr">
         <is>
           <t>What are your document processing speed requirements?</t>
         </is>
       </c>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="15" t="n"/>
-      <c r="G8" s="14" t="inlineStr">
+      <c r="E8" s="10" t="n"/>
+      <c r="F8" s="25" t="n"/>
+      <c r="G8" s="10" t="inlineStr">
         <is>
           <t>Performance expectations</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="inlineStr">
+      <c r="A9" s="23" t="inlineStr">
         <is>
           <t>TECH-008</t>
         </is>
       </c>
-      <c r="B9" s="12" t="inlineStr">
+      <c r="B9" s="23" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C9" s="12" t="inlineStr">
+      <c r="C9" s="23" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="D9" s="12" t="inlineStr">
+      <c r="D9" s="23" t="inlineStr">
         <is>
           <t>What accuracy level do you require for data extraction?</t>
         </is>
       </c>
-      <c r="E9" s="12" t="inlineStr">
+      <c r="E9" s="23" t="inlineStr">
         <is>
           <t>Common targets: 95%+, 98%+, 99%+, 99.5%+</t>
         </is>
       </c>
-      <c r="F9" s="15" t="n"/>
-      <c r="G9" s="12" t="inlineStr">
+      <c r="F9" s="25" t="n"/>
+      <c r="G9" s="23" t="inlineStr">
         <is>
           <t>Accuracy requirements</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="inlineStr">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>TECH-009</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C10" s="14" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="D10" s="14" t="inlineStr">
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>What security requirements apply to document processing?</t>
         </is>
       </c>
-      <c r="E10" s="14" t="inlineStr">
+      <c r="E10" s="10" t="inlineStr">
         <is>
           <t>Common requirements: Encryption at rest, Encryption in transit, Access controls, Audit logging, Data masking</t>
         </is>
       </c>
-      <c r="F10" s="15" t="n"/>
-      <c r="G10" s="14" t="inlineStr">
+      <c r="F10" s="25" t="n"/>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Security controls needed</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="inlineStr">
+      <c r="A11" s="23" t="inlineStr">
         <is>
           <t>TECH-010</t>
         </is>
       </c>
-      <c r="B11" s="12" t="inlineStr">
+      <c r="B11" s="23" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C11" s="12" t="inlineStr">
+      <c r="C11" s="23" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="D11" s="23" t="inlineStr">
         <is>
           <t>What compliance standards must the IDP solution meet?</t>
         </is>
       </c>
-      <c r="E11" s="12" t="inlineStr">
+      <c r="E11" s="23" t="inlineStr">
         <is>
           <t>Common standards: SOC 2, ISO 27001, HIPAA, PCI DSS, GDPR, FedRAMP, None</t>
         </is>
       </c>
-      <c r="F11" s="15" t="n"/>
-      <c r="G11" s="12" t="inlineStr">
+      <c r="F11" s="25" t="n"/>
+      <c r="G11" s="23" t="inlineStr">
         <is>
           <t>Compliance requirements</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="inlineStr">
+      <c r="A12" s="10" t="inlineStr">
         <is>
           <t>TECH-011</t>
         </is>
       </c>
-      <c r="B12" s="14" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C12" s="14" t="inlineStr">
+      <c r="C12" s="10" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D12" s="14" t="inlineStr">
+      <c r="D12" s="10" t="inlineStr">
         <is>
           <t>What sensitive data types are present in your documents?</t>
         </is>
       </c>
-      <c r="E12" s="14" t="inlineStr">
+      <c r="E12" s="10" t="inlineStr">
         <is>
           <t>Sensitive data types: PII, PHI, Financial data, Credit card numbers, SSNs, Other sensitive data, No sensitive data</t>
         </is>
       </c>
-      <c r="F12" s="15" t="n"/>
-      <c r="G12" s="14" t="inlineStr">
+      <c r="F12" s="25" t="n"/>
+      <c r="G12" s="10" t="inlineStr">
         <is>
           <t>Data protection requirements</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="inlineStr">
+      <c r="A13" s="23" t="inlineStr">
         <is>
           <t>TECH-012</t>
         </is>
       </c>
-      <c r="B13" s="12" t="inlineStr">
+      <c r="B13" s="23" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C13" s="12" t="inlineStr">
+      <c r="C13" s="23" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D13" s="12" t="inlineStr">
+      <c r="D13" s="23" t="inlineStr">
         <is>
           <t>What are your data retention and deletion requirements?</t>
         </is>
       </c>
-      <c r="E13" s="12" t="n"/>
-      <c r="F13" s="15" t="n"/>
-      <c r="G13" s="12" t="inlineStr">
+      <c r="E13" s="23" t="n"/>
+      <c r="F13" s="25" t="n"/>
+      <c r="G13" s="23" t="inlineStr">
         <is>
           <t>Data lifecycle management</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="inlineStr">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>TECH-013</t>
         </is>
       </c>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C14" s="14" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>Availability</t>
         </is>
       </c>
-      <c r="D14" s="14" t="inlineStr">
+      <c r="D14" s="10" t="inlineStr">
         <is>
           <t>What uptime requirements do you have for document processing?</t>
         </is>
       </c>
-      <c r="E14" s="14" t="inlineStr">
+      <c r="E14" s="10" t="inlineStr">
         <is>
           <t>Common targets: 99%, 99.5%, 99.9%, 99.95%, 99.99%</t>
         </is>
       </c>
-      <c r="F14" s="15" t="n"/>
-      <c r="G14" s="14" t="inlineStr">
+      <c r="F14" s="25" t="n"/>
+      <c r="G14" s="10" t="inlineStr">
         <is>
           <t>SLA requirements</t>
         </is>
@@ -4310,169 +4406,169 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>AI-001</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>AI/ML Requirements</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Model Needs</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>Do you need custom ML models or will AWS pre-built services suffice?</t>
         </is>
       </c>
-      <c r="E2" s="14" t="inlineStr">
+      <c r="E2" s="10" t="inlineStr">
         <is>
           <t>Options: AWS Textract only, AWS Comprehend only, Custom classification models, Custom extraction models, Combination approach</t>
         </is>
       </c>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>Model complexity requirements</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="23" t="inlineStr">
         <is>
           <t>AI-002</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="23" t="inlineStr">
         <is>
           <t>AI/ML Requirements</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="23" t="inlineStr">
         <is>
           <t>Training Data</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="23" t="inlineStr">
         <is>
           <t>Do you have labeled training data for custom models?</t>
         </is>
       </c>
-      <c r="E3" s="12" t="inlineStr">
+      <c r="E3" s="23" t="inlineStr">
         <is>
           <t>Options: Yes - substantial dataset, Yes - limited dataset, No - need data labeling, Unsure</t>
         </is>
       </c>
-      <c r="F3" s="15" t="n"/>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Training data availability</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>AI-003</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>AI/ML Requirements</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>Accuracy Improvement</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>How will you handle cases where extraction accuracy is low?</t>
         </is>
       </c>
-      <c r="E4" s="14" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>Options: Human review workflow (A2I), Confidence scoring, Automated rejection, Manual correction interface</t>
         </is>
       </c>
-      <c r="F4" s="15" t="n"/>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>Quality assurance process</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="23" t="inlineStr">
         <is>
           <t>AI-004</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="23" t="inlineStr">
         <is>
           <t>AI/ML Requirements</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="23" t="inlineStr">
         <is>
           <t>Model Updates</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="23" t="inlineStr">
         <is>
           <t>How often do you expect to retrain or update models?</t>
         </is>
       </c>
-      <c r="E5" s="12" t="inlineStr">
+      <c r="E5" s="23" t="inlineStr">
         <is>
           <t>Options: Never, Quarterly, Monthly, As needed, Continuously</t>
         </is>
       </c>
-      <c r="F5" s="15" t="n"/>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="F5" s="25" t="n"/>
+      <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Model maintenance expectations</t>
         </is>
@@ -4508,215 +4604,215 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>ORG-001</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>Organizational</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Resources</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>Who will be the technical lead for this IDP project?</t>
         </is>
       </c>
-      <c r="E2" s="14" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="E2" s="10" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>Technical ownership</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="23" t="inlineStr">
         <is>
           <t>ORG-002</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="23" t="inlineStr">
         <is>
           <t>Organizational</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="23" t="inlineStr">
         <is>
           <t>Resources</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="23" t="inlineStr">
         <is>
           <t>What internal resources are available for IDP implementation?</t>
         </is>
       </c>
-      <c r="E3" s="12" t="n"/>
-      <c r="F3" s="15" t="n"/>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Team availability</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>ORG-003</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Organizational</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>Resources</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>What is your team's experience with AWS AI/ML services?</t>
         </is>
       </c>
-      <c r="E4" s="14" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>Experience levels: No experience, Basic knowledge, Intermediate, Advanced, Expert</t>
         </is>
       </c>
-      <c r="F4" s="15" t="n"/>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>Training needs assessment</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="23" t="inlineStr">
         <is>
           <t>ORG-004</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="23" t="inlineStr">
         <is>
           <t>Organizational</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="23" t="inlineStr">
         <is>
           <t>Change Management</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="23" t="inlineStr">
         <is>
           <t>How will you handle the transition from manual to automated processing?</t>
         </is>
       </c>
-      <c r="E5" s="12" t="n"/>
-      <c r="F5" s="15" t="n"/>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="E5" s="23" t="n"/>
+      <c r="F5" s="25" t="n"/>
+      <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Change management approach</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="inlineStr">
+      <c r="A6" s="10" t="inlineStr">
         <is>
           <t>ORG-005</t>
         </is>
       </c>
-      <c r="B6" s="14" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>Organizational</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>Change Management</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="D6" s="10" t="inlineStr">
         <is>
           <t>What training will be needed for end users?</t>
         </is>
       </c>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="14" t="inlineStr">
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="25" t="n"/>
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>Training requirements</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="inlineStr">
+      <c r="A7" s="23" t="inlineStr">
         <is>
           <t>ORG-006</t>
         </is>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="23" t="inlineStr">
         <is>
           <t>Organizational</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr">
+      <c r="C7" s="23" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D7" s="23" t="inlineStr">
         <is>
           <t>What approval processes are required for document processing changes?</t>
         </is>
       </c>
-      <c r="E7" s="12" t="n"/>
-      <c r="F7" s="15" t="n"/>
-      <c r="G7" s="12" t="inlineStr">
+      <c r="E7" s="23" t="n"/>
+      <c r="F7" s="25" t="n"/>
+      <c r="G7" s="23" t="inlineStr">
         <is>
           <t>Change approval process</t>
         </is>
@@ -4752,157 +4848,157 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>WORKFLOW-001</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>Workflow Requirements</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Process Flow</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>What happens to documents after data extraction?</t>
         </is>
       </c>
-      <c r="E2" s="14" t="n"/>
-      <c r="F2" s="15" t="n"/>
-      <c r="G2" s="14" t="inlineStr">
+      <c r="E2" s="10" t="n"/>
+      <c r="F2" s="25" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>Downstream processing requirements</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="23" t="inlineStr">
         <is>
           <t>WORKFLOW-002</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="23" t="inlineStr">
         <is>
           <t>Workflow Requirements</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="23" t="inlineStr">
         <is>
           <t>Process Flow</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" s="23" t="inlineStr">
         <is>
           <t>How should processing errors and exceptions be handled?</t>
         </is>
       </c>
-      <c r="E3" s="12" t="n"/>
-      <c r="F3" s="15" t="n"/>
-      <c r="G3" s="12" t="inlineStr">
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="25" t="n"/>
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Error handling requirements</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>WORKFLOW-003</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Workflow Requirements</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>Process Flow</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>Do you need human-in-the-loop review capabilities?</t>
         </is>
       </c>
-      <c r="E4" s="14" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>Options: Always required, Only for low confidence, Only for exceptions, Never needed</t>
         </is>
       </c>
-      <c r="F4" s="15" t="n"/>
-      <c r="G4" s="14" t="inlineStr">
+      <c r="F4" s="25" t="n"/>
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>Human review requirements (Amazon A2I)</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="inlineStr">
+      <c r="A5" s="23" t="inlineStr">
         <is>
           <t>WORKFLOW-004</t>
         </is>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="23" t="inlineStr">
         <is>
           <t>Workflow Requirements</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="23" t="inlineStr">
         <is>
           <t>Process Flow</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="23" t="inlineStr">
         <is>
           <t>What notifications or alerts do you need during processing?</t>
         </is>
       </c>
-      <c r="E5" s="12" t="n"/>
-      <c r="F5" s="15" t="n"/>
-      <c r="G5" s="12" t="inlineStr">
+      <c r="E5" s="23" t="n"/>
+      <c r="F5" s="25" t="n"/>
+      <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Notification requirements</t>
         </is>

--- a/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
@@ -30,7 +30,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -88,17 +88,27 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="Segoe UI Semibold"/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="Segoe UI Semibold"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -131,6 +141,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="002F5496"/>
+        <bgColor rgb="002F5496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFF2CC"/>
         <bgColor rgb="00FFF2CC"/>
       </patternFill>
@@ -154,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -190,11 +212,17 @@
         <color rgb="00DEE2E6"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -246,26 +274,29 @@
     <xf numFmtId="164" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="11" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,7 +745,7 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>November 18, 2025</t>
+          <t>November 19, 2025</t>
         </is>
       </c>
     </row>
@@ -804,7 +835,7 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
@@ -842,29 +873,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>RISK-001</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Risk Assessment</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>Implementation</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>What are your main concerns about implementing IDP?</t>
         </is>
       </c>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>Primary implementation concerns</t>
         </is>
@@ -892,7 +923,7 @@
         </is>
       </c>
       <c r="E3" s="23" t="n"/>
-      <c r="F3" s="25" t="n"/>
+      <c r="F3" s="26" t="n"/>
       <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Failure mode analysis</t>
@@ -900,29 +931,29 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>RISK-003</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Risk Assessment</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="25" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="25" t="inlineStr">
         <is>
           <t>What are your concerns about data accuracy and quality?</t>
         </is>
       </c>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="25" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>Data quality risks</t>
         </is>
@@ -950,7 +981,7 @@
         </is>
       </c>
       <c r="E5" s="23" t="n"/>
-      <c r="F5" s="25" t="n"/>
+      <c r="F5" s="26" t="n"/>
       <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Technical risk factors</t>
@@ -986,7 +1017,7 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
@@ -1024,29 +1055,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>FUTURE-001</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Future State</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>Vision</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>What is your long-term vision for document processing automation?</t>
         </is>
       </c>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>Future roadmap</t>
         </is>
@@ -1074,7 +1105,7 @@
         </is>
       </c>
       <c r="E3" s="23" t="n"/>
-      <c r="F3" s="25" t="n"/>
+      <c r="F3" s="26" t="n"/>
       <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Scalability planning</t>
@@ -1082,29 +1113,29 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>FUTURE-003</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Future State</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="25" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="25" t="inlineStr">
         <is>
           <t>What future document types or sources might need processing?</t>
         </is>
       </c>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="25" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>Future expansion needs</t>
         </is>
@@ -1139,7 +1170,7 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
@@ -1177,29 +1208,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>ORG-007</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Vendor Selection</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>Experience</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>What AWS AI/ML implementation experience do you expect from partners?</t>
         </is>
       </c>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>Partner requirements</t>
         </is>
@@ -1227,7 +1258,7 @@
         </is>
       </c>
       <c r="E3" s="23" t="n"/>
-      <c r="F3" s="25" t="n"/>
+      <c r="F3" s="26" t="n"/>
       <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Support expectations</t>
@@ -1302,7 +1333,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" ht="32" customHeight="1">
+    <row r="4" ht="30" customHeight="1">
       <c r="A4" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
@@ -1370,23 +1401,23 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10">
+      <c r="A6" s="25">
         <f>IF('Project Information'!A3="","",'Project Information'!A3)</f>
         <v/>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="25">
         <f>IF('Project Information'!B3="","",'Project Information'!B3)</f>
         <v/>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="25">
         <f>IF('Project Information'!C3="","",'Project Information'!C3)</f>
         <v/>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="25">
         <f>IF('Project Information'!D3="","",'Project Information'!D3)</f>
         <v/>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="25">
         <f>IF('Project Information'!E3="","",'Project Information'!E3)</f>
         <v/>
       </c>
@@ -1394,7 +1425,7 @@
         <f>IF('Project Information'!F3="","",'Project Information'!F3)</f>
         <v/>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="25">
         <f>IF('Project Information'!G3="","",'Project Information'!G3)</f>
         <v/>
       </c>
@@ -1430,23 +1461,23 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10">
+      <c r="A8" s="25">
         <f>IF('Project Information'!A5="","",'Project Information'!A5)</f>
         <v/>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="25">
         <f>IF('Project Information'!B5="","",'Project Information'!B5)</f>
         <v/>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="25">
         <f>IF('Project Information'!C5="","",'Project Information'!C5)</f>
         <v/>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="25">
         <f>IF('Project Information'!D5="","",'Project Information'!D5)</f>
         <v/>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="25">
         <f>IF('Project Information'!E5="","",'Project Information'!E5)</f>
         <v/>
       </c>
@@ -1454,7 +1485,7 @@
         <f>IF('Project Information'!F5="","",'Project Information'!F5)</f>
         <v/>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="25">
         <f>IF('Project Information'!G5="","",'Project Information'!G5)</f>
         <v/>
       </c>
@@ -1490,23 +1521,23 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10">
+      <c r="A10" s="25">
         <f>IF('Business Requirements'!A2="","",'Business Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="25">
         <f>IF('Business Requirements'!B2="","",'Business Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="25">
         <f>IF('Business Requirements'!C2="","",'Business Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="25">
         <f>IF('Business Requirements'!D2="","",'Business Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="25">
         <f>IF('Business Requirements'!E2="","",'Business Requirements'!E2)</f>
         <v/>
       </c>
@@ -1514,7 +1545,7 @@
         <f>IF('Business Requirements'!F2="","",'Business Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="25">
         <f>IF('Business Requirements'!G2="","",'Business Requirements'!G2)</f>
         <v/>
       </c>
@@ -1550,23 +1581,23 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10">
+      <c r="A12" s="25">
         <f>IF('Business Requirements'!A4="","",'Business Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="25">
         <f>IF('Business Requirements'!B4="","",'Business Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="25">
         <f>IF('Business Requirements'!C4="","",'Business Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="25">
         <f>IF('Business Requirements'!D4="","",'Business Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="25">
         <f>IF('Business Requirements'!E4="","",'Business Requirements'!E4)</f>
         <v/>
       </c>
@@ -1574,7 +1605,7 @@
         <f>IF('Business Requirements'!F4="","",'Business Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="25">
         <f>IF('Business Requirements'!G4="","",'Business Requirements'!G4)</f>
         <v/>
       </c>
@@ -1610,23 +1641,23 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10">
+      <c r="A14" s="25">
         <f>IF('Business Requirements'!A6="","",'Business Requirements'!A6)</f>
         <v/>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="25">
         <f>IF('Business Requirements'!B6="","",'Business Requirements'!B6)</f>
         <v/>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="25">
         <f>IF('Business Requirements'!C6="","",'Business Requirements'!C6)</f>
         <v/>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="25">
         <f>IF('Business Requirements'!D6="","",'Business Requirements'!D6)</f>
         <v/>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="25">
         <f>IF('Business Requirements'!E6="","",'Business Requirements'!E6)</f>
         <v/>
       </c>
@@ -1634,7 +1665,7 @@
         <f>IF('Business Requirements'!F6="","",'Business Requirements'!F6)</f>
         <v/>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="25">
         <f>IF('Business Requirements'!G6="","",'Business Requirements'!G6)</f>
         <v/>
       </c>
@@ -1670,23 +1701,23 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10">
+      <c r="A16" s="25">
         <f>IF('Business Requirements'!A8="","",'Business Requirements'!A8)</f>
         <v/>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="25">
         <f>IF('Business Requirements'!B8="","",'Business Requirements'!B8)</f>
         <v/>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="25">
         <f>IF('Business Requirements'!C8="","",'Business Requirements'!C8)</f>
         <v/>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="25">
         <f>IF('Business Requirements'!D8="","",'Business Requirements'!D8)</f>
         <v/>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="25">
         <f>IF('Business Requirements'!E8="","",'Business Requirements'!E8)</f>
         <v/>
       </c>
@@ -1694,7 +1725,7 @@
         <f>IF('Business Requirements'!F8="","",'Business Requirements'!F8)</f>
         <v/>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="25">
         <f>IF('Business Requirements'!G8="","",'Business Requirements'!G8)</f>
         <v/>
       </c>
@@ -1730,23 +1761,23 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10">
+      <c r="A18" s="25">
         <f>IF('Business Requirements'!A10="","",'Business Requirements'!A10)</f>
         <v/>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="25">
         <f>IF('Business Requirements'!B10="","",'Business Requirements'!B10)</f>
         <v/>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="25">
         <f>IF('Business Requirements'!C10="","",'Business Requirements'!C10)</f>
         <v/>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="25">
         <f>IF('Business Requirements'!D10="","",'Business Requirements'!D10)</f>
         <v/>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="25">
         <f>IF('Business Requirements'!E10="","",'Business Requirements'!E10)</f>
         <v/>
       </c>
@@ -1754,7 +1785,7 @@
         <f>IF('Business Requirements'!F10="","",'Business Requirements'!F10)</f>
         <v/>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="25">
         <f>IF('Business Requirements'!G10="","",'Business Requirements'!G10)</f>
         <v/>
       </c>
@@ -1790,23 +1821,23 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10">
+      <c r="A20" s="25">
         <f>IF('Document Requirements'!A2="","",'Document Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="25">
         <f>IF('Document Requirements'!B2="","",'Document Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="25">
         <f>IF('Document Requirements'!C2="","",'Document Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="25">
         <f>IF('Document Requirements'!D2="","",'Document Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="25">
         <f>IF('Document Requirements'!E2="","",'Document Requirements'!E2)</f>
         <v/>
       </c>
@@ -1814,7 +1845,7 @@
         <f>IF('Document Requirements'!F2="","",'Document Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="25">
         <f>IF('Document Requirements'!G2="","",'Document Requirements'!G2)</f>
         <v/>
       </c>
@@ -1850,23 +1881,23 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10">
+      <c r="A22" s="25">
         <f>IF('Document Requirements'!A4="","",'Document Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="25">
         <f>IF('Document Requirements'!B4="","",'Document Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="25">
         <f>IF('Document Requirements'!C4="","",'Document Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="25">
         <f>IF('Document Requirements'!D4="","",'Document Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="25">
         <f>IF('Document Requirements'!E4="","",'Document Requirements'!E4)</f>
         <v/>
       </c>
@@ -1874,7 +1905,7 @@
         <f>IF('Document Requirements'!F4="","",'Document Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="25">
         <f>IF('Document Requirements'!G4="","",'Document Requirements'!G4)</f>
         <v/>
       </c>
@@ -1910,23 +1941,23 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10">
+      <c r="A24" s="25">
         <f>IF('Document Requirements'!A6="","",'Document Requirements'!A6)</f>
         <v/>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="25">
         <f>IF('Document Requirements'!B6="","",'Document Requirements'!B6)</f>
         <v/>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="25">
         <f>IF('Document Requirements'!C6="","",'Document Requirements'!C6)</f>
         <v/>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="25">
         <f>IF('Document Requirements'!D6="","",'Document Requirements'!D6)</f>
         <v/>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="25">
         <f>IF('Document Requirements'!E6="","",'Document Requirements'!E6)</f>
         <v/>
       </c>
@@ -1934,7 +1965,7 @@
         <f>IF('Document Requirements'!F6="","",'Document Requirements'!F6)</f>
         <v/>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="25">
         <f>IF('Document Requirements'!G6="","",'Document Requirements'!G6)</f>
         <v/>
       </c>
@@ -1970,23 +2001,23 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="10">
+      <c r="A26" s="25">
         <f>IF('Technical Requirements'!A2="","",'Technical Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="25">
         <f>IF('Technical Requirements'!B2="","",'Technical Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="25">
         <f>IF('Technical Requirements'!C2="","",'Technical Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="25">
         <f>IF('Technical Requirements'!D2="","",'Technical Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="25">
         <f>IF('Technical Requirements'!E2="","",'Technical Requirements'!E2)</f>
         <v/>
       </c>
@@ -1994,7 +2025,7 @@
         <f>IF('Technical Requirements'!F2="","",'Technical Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="25">
         <f>IF('Technical Requirements'!G2="","",'Technical Requirements'!G2)</f>
         <v/>
       </c>
@@ -2030,23 +2061,23 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="10">
+      <c r="A28" s="25">
         <f>IF('Technical Requirements'!A4="","",'Technical Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="25">
         <f>IF('Technical Requirements'!B4="","",'Technical Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="25">
         <f>IF('Technical Requirements'!C4="","",'Technical Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="25">
         <f>IF('Technical Requirements'!D4="","",'Technical Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="25">
         <f>IF('Technical Requirements'!E4="","",'Technical Requirements'!E4)</f>
         <v/>
       </c>
@@ -2054,7 +2085,7 @@
         <f>IF('Technical Requirements'!F4="","",'Technical Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="25">
         <f>IF('Technical Requirements'!G4="","",'Technical Requirements'!G4)</f>
         <v/>
       </c>
@@ -2090,23 +2121,23 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="10">
+      <c r="A30" s="25">
         <f>IF('Technical Requirements'!A6="","",'Technical Requirements'!A6)</f>
         <v/>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="25">
         <f>IF('Technical Requirements'!B6="","",'Technical Requirements'!B6)</f>
         <v/>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="25">
         <f>IF('Technical Requirements'!C6="","",'Technical Requirements'!C6)</f>
         <v/>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="25">
         <f>IF('Technical Requirements'!D6="","",'Technical Requirements'!D6)</f>
         <v/>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="25">
         <f>IF('Technical Requirements'!E6="","",'Technical Requirements'!E6)</f>
         <v/>
       </c>
@@ -2114,7 +2145,7 @@
         <f>IF('Technical Requirements'!F6="","",'Technical Requirements'!F6)</f>
         <v/>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="25">
         <f>IF('Technical Requirements'!G6="","",'Technical Requirements'!G6)</f>
         <v/>
       </c>
@@ -2150,23 +2181,23 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="10">
+      <c r="A32" s="25">
         <f>IF('Technical Requirements'!A8="","",'Technical Requirements'!A8)</f>
         <v/>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="25">
         <f>IF('Technical Requirements'!B8="","",'Technical Requirements'!B8)</f>
         <v/>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="25">
         <f>IF('Technical Requirements'!C8="","",'Technical Requirements'!C8)</f>
         <v/>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="25">
         <f>IF('Technical Requirements'!D8="","",'Technical Requirements'!D8)</f>
         <v/>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="25">
         <f>IF('Technical Requirements'!E8="","",'Technical Requirements'!E8)</f>
         <v/>
       </c>
@@ -2174,7 +2205,7 @@
         <f>IF('Technical Requirements'!F8="","",'Technical Requirements'!F8)</f>
         <v/>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="25">
         <f>IF('Technical Requirements'!G8="","",'Technical Requirements'!G8)</f>
         <v/>
       </c>
@@ -2210,23 +2241,23 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="10">
+      <c r="A34" s="25">
         <f>IF('Technical Requirements'!A10="","",'Technical Requirements'!A10)</f>
         <v/>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="25">
         <f>IF('Technical Requirements'!B10="","",'Technical Requirements'!B10)</f>
         <v/>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="25">
         <f>IF('Technical Requirements'!C10="","",'Technical Requirements'!C10)</f>
         <v/>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="25">
         <f>IF('Technical Requirements'!D10="","",'Technical Requirements'!D10)</f>
         <v/>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="25">
         <f>IF('Technical Requirements'!E10="","",'Technical Requirements'!E10)</f>
         <v/>
       </c>
@@ -2234,7 +2265,7 @@
         <f>IF('Technical Requirements'!F10="","",'Technical Requirements'!F10)</f>
         <v/>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="25">
         <f>IF('Technical Requirements'!G10="","",'Technical Requirements'!G10)</f>
         <v/>
       </c>
@@ -2270,23 +2301,23 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="10">
+      <c r="A36" s="25">
         <f>IF('Technical Requirements'!A12="","",'Technical Requirements'!A12)</f>
         <v/>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="25">
         <f>IF('Technical Requirements'!B12="","",'Technical Requirements'!B12)</f>
         <v/>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="25">
         <f>IF('Technical Requirements'!C12="","",'Technical Requirements'!C12)</f>
         <v/>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="25">
         <f>IF('Technical Requirements'!D12="","",'Technical Requirements'!D12)</f>
         <v/>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="25">
         <f>IF('Technical Requirements'!E12="","",'Technical Requirements'!E12)</f>
         <v/>
       </c>
@@ -2294,7 +2325,7 @@
         <f>IF('Technical Requirements'!F12="","",'Technical Requirements'!F12)</f>
         <v/>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="25">
         <f>IF('Technical Requirements'!G12="","",'Technical Requirements'!G12)</f>
         <v/>
       </c>
@@ -2330,23 +2361,23 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="10">
+      <c r="A38" s="25">
         <f>IF('Technical Requirements'!A14="","",'Technical Requirements'!A14)</f>
         <v/>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="25">
         <f>IF('Technical Requirements'!B14="","",'Technical Requirements'!B14)</f>
         <v/>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="25">
         <f>IF('Technical Requirements'!C14="","",'Technical Requirements'!C14)</f>
         <v/>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="25">
         <f>IF('Technical Requirements'!D14="","",'Technical Requirements'!D14)</f>
         <v/>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="25">
         <f>IF('Technical Requirements'!E14="","",'Technical Requirements'!E14)</f>
         <v/>
       </c>
@@ -2354,7 +2385,7 @@
         <f>IF('Technical Requirements'!F14="","",'Technical Requirements'!F14)</f>
         <v/>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="25">
         <f>IF('Technical Requirements'!G14="","",'Technical Requirements'!G14)</f>
         <v/>
       </c>
@@ -2390,23 +2421,23 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="10">
+      <c r="A40" s="25">
         <f>IF('AI-ML Requirements'!A3="","",'AI-ML Requirements'!A3)</f>
         <v/>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="25">
         <f>IF('AI-ML Requirements'!B3="","",'AI-ML Requirements'!B3)</f>
         <v/>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="25">
         <f>IF('AI-ML Requirements'!C3="","",'AI-ML Requirements'!C3)</f>
         <v/>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="25">
         <f>IF('AI-ML Requirements'!D3="","",'AI-ML Requirements'!D3)</f>
         <v/>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="25">
         <f>IF('AI-ML Requirements'!E3="","",'AI-ML Requirements'!E3)</f>
         <v/>
       </c>
@@ -2414,7 +2445,7 @@
         <f>IF('AI-ML Requirements'!F3="","",'AI-ML Requirements'!F3)</f>
         <v/>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="25">
         <f>IF('AI-ML Requirements'!G3="","",'AI-ML Requirements'!G3)</f>
         <v/>
       </c>
@@ -2450,23 +2481,23 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="10">
+      <c r="A42" s="25">
         <f>IF('AI-ML Requirements'!A5="","",'AI-ML Requirements'!A5)</f>
         <v/>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="25">
         <f>IF('AI-ML Requirements'!B5="","",'AI-ML Requirements'!B5)</f>
         <v/>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="25">
         <f>IF('AI-ML Requirements'!C5="","",'AI-ML Requirements'!C5)</f>
         <v/>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="25">
         <f>IF('AI-ML Requirements'!D5="","",'AI-ML Requirements'!D5)</f>
         <v/>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="25">
         <f>IF('AI-ML Requirements'!E5="","",'AI-ML Requirements'!E5)</f>
         <v/>
       </c>
@@ -2474,7 +2505,7 @@
         <f>IF('AI-ML Requirements'!F5="","",'AI-ML Requirements'!F5)</f>
         <v/>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="25">
         <f>IF('AI-ML Requirements'!G5="","",'AI-ML Requirements'!G5)</f>
         <v/>
       </c>
@@ -2510,23 +2541,23 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="10">
+      <c r="A44" s="25">
         <f>IF('Organizational'!A3="","",'Organizational'!A3)</f>
         <v/>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="25">
         <f>IF('Organizational'!B3="","",'Organizational'!B3)</f>
         <v/>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="25">
         <f>IF('Organizational'!C3="","",'Organizational'!C3)</f>
         <v/>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="25">
         <f>IF('Organizational'!D3="","",'Organizational'!D3)</f>
         <v/>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="25">
         <f>IF('Organizational'!E3="","",'Organizational'!E3)</f>
         <v/>
       </c>
@@ -2534,7 +2565,7 @@
         <f>IF('Organizational'!F3="","",'Organizational'!F3)</f>
         <v/>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="25">
         <f>IF('Organizational'!G3="","",'Organizational'!G3)</f>
         <v/>
       </c>
@@ -2570,23 +2601,23 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="10">
+      <c r="A46" s="25">
         <f>IF('Organizational'!A5="","",'Organizational'!A5)</f>
         <v/>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="25">
         <f>IF('Organizational'!B5="","",'Organizational'!B5)</f>
         <v/>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="25">
         <f>IF('Organizational'!C5="","",'Organizational'!C5)</f>
         <v/>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="25">
         <f>IF('Organizational'!D5="","",'Organizational'!D5)</f>
         <v/>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="25">
         <f>IF('Organizational'!E5="","",'Organizational'!E5)</f>
         <v/>
       </c>
@@ -2594,7 +2625,7 @@
         <f>IF('Organizational'!F5="","",'Organizational'!F5)</f>
         <v/>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="25">
         <f>IF('Organizational'!G5="","",'Organizational'!G5)</f>
         <v/>
       </c>
@@ -2630,23 +2661,23 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="10">
+      <c r="A48" s="25">
         <f>IF('Organizational'!A7="","",'Organizational'!A7)</f>
         <v/>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="25">
         <f>IF('Organizational'!B7="","",'Organizational'!B7)</f>
         <v/>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="25">
         <f>IF('Organizational'!C7="","",'Organizational'!C7)</f>
         <v/>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="25">
         <f>IF('Organizational'!D7="","",'Organizational'!D7)</f>
         <v/>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="25">
         <f>IF('Organizational'!E7="","",'Organizational'!E7)</f>
         <v/>
       </c>
@@ -2654,7 +2685,7 @@
         <f>IF('Organizational'!F7="","",'Organizational'!F7)</f>
         <v/>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="25">
         <f>IF('Organizational'!G7="","",'Organizational'!G7)</f>
         <v/>
       </c>
@@ -2690,23 +2721,23 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="10">
+      <c r="A50" s="25">
         <f>IF('Workflow Requirements'!A3="","",'Workflow Requirements'!A3)</f>
         <v/>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="25">
         <f>IF('Workflow Requirements'!B3="","",'Workflow Requirements'!B3)</f>
         <v/>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="25">
         <f>IF('Workflow Requirements'!C3="","",'Workflow Requirements'!C3)</f>
         <v/>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="25">
         <f>IF('Workflow Requirements'!D3="","",'Workflow Requirements'!D3)</f>
         <v/>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="25">
         <f>IF('Workflow Requirements'!E3="","",'Workflow Requirements'!E3)</f>
         <v/>
       </c>
@@ -2714,7 +2745,7 @@
         <f>IF('Workflow Requirements'!F3="","",'Workflow Requirements'!F3)</f>
         <v/>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="25">
         <f>IF('Workflow Requirements'!G3="","",'Workflow Requirements'!G3)</f>
         <v/>
       </c>
@@ -2750,23 +2781,23 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="10">
+      <c r="A52" s="25">
         <f>IF('Workflow Requirements'!A5="","",'Workflow Requirements'!A5)</f>
         <v/>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="25">
         <f>IF('Workflow Requirements'!B5="","",'Workflow Requirements'!B5)</f>
         <v/>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="25">
         <f>IF('Workflow Requirements'!C5="","",'Workflow Requirements'!C5)</f>
         <v/>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="25">
         <f>IF('Workflow Requirements'!D5="","",'Workflow Requirements'!D5)</f>
         <v/>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="25">
         <f>IF('Workflow Requirements'!E5="","",'Workflow Requirements'!E5)</f>
         <v/>
       </c>
@@ -2774,7 +2805,7 @@
         <f>IF('Workflow Requirements'!F5="","",'Workflow Requirements'!F5)</f>
         <v/>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="25">
         <f>IF('Workflow Requirements'!G5="","",'Workflow Requirements'!G5)</f>
         <v/>
       </c>
@@ -2810,23 +2841,23 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="10">
+      <c r="A54" s="25">
         <f>IF('Risk Assessment'!A3="","",'Risk Assessment'!A3)</f>
         <v/>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="25">
         <f>IF('Risk Assessment'!B3="","",'Risk Assessment'!B3)</f>
         <v/>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="25">
         <f>IF('Risk Assessment'!C3="","",'Risk Assessment'!C3)</f>
         <v/>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="25">
         <f>IF('Risk Assessment'!D3="","",'Risk Assessment'!D3)</f>
         <v/>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="25">
         <f>IF('Risk Assessment'!E3="","",'Risk Assessment'!E3)</f>
         <v/>
       </c>
@@ -2834,7 +2865,7 @@
         <f>IF('Risk Assessment'!F3="","",'Risk Assessment'!F3)</f>
         <v/>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="25">
         <f>IF('Risk Assessment'!G3="","",'Risk Assessment'!G3)</f>
         <v/>
       </c>
@@ -2870,23 +2901,23 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="10">
+      <c r="A56" s="25">
         <f>IF('Risk Assessment'!A5="","",'Risk Assessment'!A5)</f>
         <v/>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="25">
         <f>IF('Risk Assessment'!B5="","",'Risk Assessment'!B5)</f>
         <v/>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="25">
         <f>IF('Risk Assessment'!C5="","",'Risk Assessment'!C5)</f>
         <v/>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="25">
         <f>IF('Risk Assessment'!D5="","",'Risk Assessment'!D5)</f>
         <v/>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="25">
         <f>IF('Risk Assessment'!E5="","",'Risk Assessment'!E5)</f>
         <v/>
       </c>
@@ -2894,7 +2925,7 @@
         <f>IF('Risk Assessment'!F5="","",'Risk Assessment'!F5)</f>
         <v/>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="25">
         <f>IF('Risk Assessment'!G5="","",'Risk Assessment'!G5)</f>
         <v/>
       </c>
@@ -2930,23 +2961,23 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="10">
+      <c r="A58" s="25">
         <f>IF('Future State'!A3="","",'Future State'!A3)</f>
         <v/>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="25">
         <f>IF('Future State'!B3="","",'Future State'!B3)</f>
         <v/>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="25">
         <f>IF('Future State'!C3="","",'Future State'!C3)</f>
         <v/>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="25">
         <f>IF('Future State'!D3="","",'Future State'!D3)</f>
         <v/>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="25">
         <f>IF('Future State'!E3="","",'Future State'!E3)</f>
         <v/>
       </c>
@@ -2954,7 +2985,7 @@
         <f>IF('Future State'!F3="","",'Future State'!F3)</f>
         <v/>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="25">
         <f>IF('Future State'!G3="","",'Future State'!G3)</f>
         <v/>
       </c>
@@ -2990,23 +3021,23 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="10">
+      <c r="A60" s="25">
         <f>IF('Vendor Selection'!A2="","",'Vendor Selection'!A2)</f>
         <v/>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="25">
         <f>IF('Vendor Selection'!B2="","",'Vendor Selection'!B2)</f>
         <v/>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="25">
         <f>IF('Vendor Selection'!C2="","",'Vendor Selection'!C2)</f>
         <v/>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="25">
         <f>IF('Vendor Selection'!D2="","",'Vendor Selection'!D2)</f>
         <v/>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="25">
         <f>IF('Vendor Selection'!E2="","",'Vendor Selection'!E2)</f>
         <v/>
       </c>
@@ -3014,7 +3045,7 @@
         <f>IF('Vendor Selection'!F2="","",'Vendor Selection'!F2)</f>
         <v/>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="25">
         <f>IF('Vendor Selection'!G2="","",'Vendor Selection'!G2)</f>
         <v/>
       </c>
@@ -3079,7 +3110,7 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
@@ -3117,29 +3148,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>PROJ-001</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>Basic Details</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>What is the name of your Intelligent Document Processing solution?</t>
         </is>
       </c>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>Internal project reference</t>
         </is>
@@ -3167,7 +3198,7 @@
         </is>
       </c>
       <c r="E3" s="23" t="n"/>
-      <c r="F3" s="25" t="n"/>
+      <c r="F3" s="26" t="n"/>
       <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Client identification</t>
@@ -3175,29 +3206,29 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>PROJ-003</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="25" t="inlineStr">
         <is>
           <t>Basic Details</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="25" t="inlineStr">
         <is>
           <t>Who is the primary stakeholder for this IDP project?</t>
         </is>
       </c>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="25" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>Main point of contact</t>
         </is>
@@ -3225,7 +3256,7 @@
         </is>
       </c>
       <c r="E5" s="23" t="n"/>
-      <c r="F5" s="25" t="n"/>
+      <c r="F5" s="26" t="n"/>
       <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Decision-making authority</t>
@@ -3233,29 +3264,29 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="25" t="inlineStr">
         <is>
           <t>PROJ-005</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="25" t="inlineStr">
         <is>
           <t>Basic Details</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="25" t="inlineStr">
         <is>
           <t>What is today's date?</t>
         </is>
       </c>
-      <c r="E6" s="10" t="n"/>
-      <c r="F6" s="25" t="n"/>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="E6" s="25" t="n"/>
+      <c r="F6" s="26" t="n"/>
+      <c r="G6" s="25" t="inlineStr">
         <is>
           <t>Questionnaire completion date</t>
         </is>
@@ -3290,7 +3321,7 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
@@ -3328,33 +3359,33 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>BUS-001</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>What document processing challenges are you trying to solve?</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
+      <c r="E2" s="25" t="inlineStr">
         <is>
           <t>Common challenges: Manual data entry, Document classification errors, Slow processing times, High operational costs, Compliance issues, Data accuracy problems</t>
         </is>
       </c>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>Primary business driver for IDP</t>
         </is>
@@ -3382,7 +3413,7 @@
         </is>
       </c>
       <c r="E3" s="23" t="n"/>
-      <c r="F3" s="25" t="n"/>
+      <c r="F3" s="26" t="n"/>
       <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Current state assessment</t>
@@ -3390,33 +3421,33 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>BUS-003</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="25" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="25" t="inlineStr">
         <is>
           <t>What types of documents do you process regularly?</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
+      <c r="E4" s="25" t="inlineStr">
         <is>
           <t>Common types: Invoices, Contracts, Insurance claims, Medical records, Tax documents, Legal documents, Forms, Letters</t>
         </is>
       </c>
-      <c r="F4" s="25" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>Document type classification</t>
         </is>
@@ -3448,7 +3479,7 @@
           <t>Typical ranges: 1-100, 101-1000, 1001-10000, 10000+</t>
         </is>
       </c>
-      <c r="F5" s="25" t="n"/>
+      <c r="F5" s="26" t="n"/>
       <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Processing volume requirements</t>
@@ -3456,33 +3487,33 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="25" t="inlineStr">
         <is>
           <t>BUS-005</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="25" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="25" t="inlineStr">
         <is>
           <t>What document formats do you currently handle?</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
+      <c r="E6" s="25" t="inlineStr">
         <is>
           <t>Common formats: PDF, Word documents, Scanned images, Handwritten documents, Multi-page documents, Email attachments, Fax documents</t>
         </is>
       </c>
-      <c r="F6" s="25" t="n"/>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="F6" s="26" t="n"/>
+      <c r="G6" s="25" t="inlineStr">
         <is>
           <t>Input format requirements</t>
         </is>
@@ -3514,7 +3545,7 @@
           <t>Common goals: Reduce manual data entry, Improve processing speed, Increase accuracy, Lower operational costs, Ensure compliance, Enable scalability</t>
         </is>
       </c>
-      <c r="F7" s="25" t="n"/>
+      <c r="F7" s="26" t="n"/>
       <c r="G7" s="23" t="inlineStr">
         <is>
           <t>Business objectives</t>
@@ -3522,29 +3553,29 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="inlineStr">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>BUS-007</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="25" t="inlineStr">
         <is>
           <t>Objectives</t>
         </is>
       </c>
-      <c r="D8" s="10" t="inlineStr">
+      <c r="D8" s="25" t="inlineStr">
         <is>
           <t>What specific data do you need to extract from documents?</t>
         </is>
       </c>
-      <c r="E8" s="10" t="n"/>
-      <c r="F8" s="25" t="n"/>
-      <c r="G8" s="10" t="inlineStr">
+      <c r="E8" s="25" t="n"/>
+      <c r="F8" s="26" t="n"/>
+      <c r="G8" s="25" t="inlineStr">
         <is>
           <t>Data extraction requirements</t>
         </is>
@@ -3576,7 +3607,7 @@
           <t>Typical ranges: 0-3 months, 3-6 months, 6-12 months, 12+ months</t>
         </is>
       </c>
-      <c r="F9" s="25" t="n"/>
+      <c r="F9" s="26" t="n"/>
       <c r="G9" s="23" t="inlineStr">
         <is>
           <t>Project timeline expectations</t>
@@ -3584,33 +3615,33 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="inlineStr">
+      <c r="A10" s="25" t="inlineStr">
         <is>
           <t>BUS-009</t>
         </is>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C10" s="25" t="inlineStr">
         <is>
           <t>Budget</t>
         </is>
       </c>
-      <c r="D10" s="10" t="inlineStr">
+      <c r="D10" s="25" t="inlineStr">
         <is>
           <t>What is your approved budget range for this IDP solution?</t>
         </is>
       </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="E10" s="25" t="inlineStr">
         <is>
           <t>Common ranges: $0-50K, $50K-250K, $250K-1M, $1M+</t>
         </is>
       </c>
-      <c r="F10" s="25" t="n"/>
-      <c r="G10" s="10" t="inlineStr">
+      <c r="F10" s="26" t="n"/>
+      <c r="G10" s="25" t="inlineStr">
         <is>
           <t>Budget constraints</t>
         </is>
@@ -3638,7 +3669,7 @@
         </is>
       </c>
       <c r="E11" s="23" t="n"/>
-      <c r="F11" s="25" t="n"/>
+      <c r="F11" s="26" t="n"/>
       <c r="G11" s="23" t="inlineStr">
         <is>
           <t>KPI definition for document processing</t>
@@ -3674,7 +3705,7 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
@@ -3712,29 +3743,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>DOC-001</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Document Requirements</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>Types</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>What specific document types need automated processing?</t>
         </is>
       </c>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>Detailed document classification</t>
         </is>
@@ -3766,7 +3797,7 @@
           <t>Types: Structured forms, Semi-structured invoices, Unstructured letters, Mixed types</t>
         </is>
       </c>
-      <c r="F3" s="25" t="n"/>
+      <c r="F3" s="26" t="n"/>
       <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Document structure analysis</t>
@@ -3774,33 +3805,33 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>DOC-003</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Document Requirements</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="25" t="inlineStr">
         <is>
           <t>Quality</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="25" t="inlineStr">
         <is>
           <t>What is the typical quality of your source documents?</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
+      <c r="E4" s="25" t="inlineStr">
         <is>
           <t>Quality levels: High quality digital, Good quality scanned, Poor quality scanned, Handwritten, Mixed quality</t>
         </is>
       </c>
-      <c r="F4" s="25" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>OCR accuracy expectations</t>
         </is>
@@ -3828,7 +3859,7 @@
         </is>
       </c>
       <c r="E5" s="23" t="n"/>
-      <c r="F5" s="25" t="n"/>
+      <c r="F5" s="26" t="n"/>
       <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Multi-language processing needs</t>
@@ -3836,33 +3867,33 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="25" t="inlineStr">
         <is>
           <t>DOC-005</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>Document Requirements</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="25" t="inlineStr">
         <is>
           <t>Variations</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="25" t="inlineStr">
         <is>
           <t>How much variation exists within each document type?</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
+      <c r="E6" s="25" t="inlineStr">
         <is>
           <t>Variation levels: Highly standardized, Some variation, Significant variation, Completely variable</t>
         </is>
       </c>
-      <c r="F6" s="25" t="n"/>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="F6" s="26" t="n"/>
+      <c r="G6" s="25" t="inlineStr">
         <is>
           <t>Model training complexity</t>
         </is>
@@ -3890,7 +3921,7 @@
         </is>
       </c>
       <c r="E7" s="23" t="n"/>
-      <c r="F7" s="25" t="n"/>
+      <c r="F7" s="26" t="n"/>
       <c r="G7" s="23" t="inlineStr">
         <is>
           <t>Input channel requirements</t>
@@ -3926,7 +3957,7 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
@@ -3964,33 +3995,33 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>TECH-001</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>AWS Environment</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>What AWS services are you currently using?</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
+      <c r="E2" s="25" t="inlineStr">
         <is>
           <t>AWS services: S3, Lambda, API Gateway, Textract, Comprehend, SageMaker, None, Other</t>
         </is>
       </c>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>Current AWS footprint</t>
         </is>
@@ -4018,7 +4049,7 @@
         </is>
       </c>
       <c r="E3" s="23" t="n"/>
-      <c r="F3" s="25" t="n"/>
+      <c r="F3" s="26" t="n"/>
       <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Data residency requirements</t>
@@ -4026,29 +4057,29 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>TECH-003</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="25" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="25" t="inlineStr">
         <is>
           <t>What systems need to integrate with the IDP solution?</t>
         </is>
       </c>
-      <c r="E4" s="10" t="n"/>
-      <c r="F4" s="25" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="E4" s="25" t="n"/>
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>Integration requirements</t>
         </is>
@@ -4080,7 +4111,7 @@
           <t>Common systems: AWS S3, SharePoint, Google Drive, Box, On-premises file servers, Email systems</t>
         </is>
       </c>
-      <c r="F5" s="25" t="n"/>
+      <c r="F5" s="26" t="n"/>
       <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Storage integration needs</t>
@@ -4088,33 +4119,33 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="25" t="inlineStr">
         <is>
           <t>TECH-005</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="25" t="inlineStr">
         <is>
           <t>API Requirements</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="25" t="inlineStr">
         <is>
           <t>Do you need real-time or batch document processing?</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
+      <c r="E6" s="25" t="inlineStr">
         <is>
           <t>Options: Real-time processing, Batch processing, Both options</t>
         </is>
       </c>
-      <c r="F6" s="25" t="n"/>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="F6" s="26" t="n"/>
+      <c r="G6" s="25" t="inlineStr">
         <is>
           <t>Processing mode requirements</t>
         </is>
@@ -4146,7 +4177,7 @@
           <t>Common integrations: REST APIs, Webhooks, File upload endpoints, Email integration, FTP integration</t>
         </is>
       </c>
-      <c r="F7" s="25" t="n"/>
+      <c r="F7" s="26" t="n"/>
       <c r="G7" s="23" t="inlineStr">
         <is>
           <t>API integration needs</t>
@@ -4154,29 +4185,29 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="inlineStr">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>TECH-007</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="25" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="D8" s="10" t="inlineStr">
+      <c r="D8" s="25" t="inlineStr">
         <is>
           <t>What are your document processing speed requirements?</t>
         </is>
       </c>
-      <c r="E8" s="10" t="n"/>
-      <c r="F8" s="25" t="n"/>
-      <c r="G8" s="10" t="inlineStr">
+      <c r="E8" s="25" t="n"/>
+      <c r="F8" s="26" t="n"/>
+      <c r="G8" s="25" t="inlineStr">
         <is>
           <t>Performance expectations</t>
         </is>
@@ -4208,7 +4239,7 @@
           <t>Common targets: 95%+, 98%+, 99%+, 99.5%+</t>
         </is>
       </c>
-      <c r="F9" s="25" t="n"/>
+      <c r="F9" s="26" t="n"/>
       <c r="G9" s="23" t="inlineStr">
         <is>
           <t>Accuracy requirements</t>
@@ -4216,33 +4247,33 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10" t="inlineStr">
+      <c r="A10" s="25" t="inlineStr">
         <is>
           <t>TECH-009</t>
         </is>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C10" s="25" t="inlineStr">
         <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="D10" s="10" t="inlineStr">
+      <c r="D10" s="25" t="inlineStr">
         <is>
           <t>What security requirements apply to document processing?</t>
         </is>
       </c>
-      <c r="E10" s="10" t="inlineStr">
+      <c r="E10" s="25" t="inlineStr">
         <is>
           <t>Common requirements: Encryption at rest, Encryption in transit, Access controls, Audit logging, Data masking</t>
         </is>
       </c>
-      <c r="F10" s="25" t="n"/>
-      <c r="G10" s="10" t="inlineStr">
+      <c r="F10" s="26" t="n"/>
+      <c r="G10" s="25" t="inlineStr">
         <is>
           <t>Security controls needed</t>
         </is>
@@ -4274,7 +4305,7 @@
           <t>Common standards: SOC 2, ISO 27001, HIPAA, PCI DSS, GDPR, FedRAMP, None</t>
         </is>
       </c>
-      <c r="F11" s="25" t="n"/>
+      <c r="F11" s="26" t="n"/>
       <c r="G11" s="23" t="inlineStr">
         <is>
           <t>Compliance requirements</t>
@@ -4282,33 +4313,33 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="inlineStr">
+      <c r="A12" s="25" t="inlineStr">
         <is>
           <t>TECH-011</t>
         </is>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="25" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C12" s="25" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D12" s="10" t="inlineStr">
+      <c r="D12" s="25" t="inlineStr">
         <is>
           <t>What sensitive data types are present in your documents?</t>
         </is>
       </c>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="E12" s="25" t="inlineStr">
         <is>
           <t>Sensitive data types: PII, PHI, Financial data, Credit card numbers, SSNs, Other sensitive data, No sensitive data</t>
         </is>
       </c>
-      <c r="F12" s="25" t="n"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="F12" s="26" t="n"/>
+      <c r="G12" s="25" t="inlineStr">
         <is>
           <t>Data protection requirements</t>
         </is>
@@ -4336,7 +4367,7 @@
         </is>
       </c>
       <c r="E13" s="23" t="n"/>
-      <c r="F13" s="25" t="n"/>
+      <c r="F13" s="26" t="n"/>
       <c r="G13" s="23" t="inlineStr">
         <is>
           <t>Data lifecycle management</t>
@@ -4344,33 +4375,33 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="inlineStr">
+      <c r="A14" s="25" t="inlineStr">
         <is>
           <t>TECH-013</t>
         </is>
       </c>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="25" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
+      <c r="C14" s="25" t="inlineStr">
         <is>
           <t>Availability</t>
         </is>
       </c>
-      <c r="D14" s="10" t="inlineStr">
+      <c r="D14" s="25" t="inlineStr">
         <is>
           <t>What uptime requirements do you have for document processing?</t>
         </is>
       </c>
-      <c r="E14" s="10" t="inlineStr">
+      <c r="E14" s="25" t="inlineStr">
         <is>
           <t>Common targets: 99%, 99.5%, 99.9%, 99.95%, 99.99%</t>
         </is>
       </c>
-      <c r="F14" s="25" t="n"/>
-      <c r="G14" s="10" t="inlineStr">
+      <c r="F14" s="26" t="n"/>
+      <c r="G14" s="25" t="inlineStr">
         <is>
           <t>SLA requirements</t>
         </is>
@@ -4405,7 +4436,7 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
@@ -4443,33 +4474,33 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>AI-001</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>AI/ML Requirements</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>Model Needs</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>Do you need custom ML models or will AWS pre-built services suffice?</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
+      <c r="E2" s="25" t="inlineStr">
         <is>
           <t>Options: AWS Textract only, AWS Comprehend only, Custom classification models, Custom extraction models, Combination approach</t>
         </is>
       </c>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>Model complexity requirements</t>
         </is>
@@ -4501,7 +4532,7 @@
           <t>Options: Yes - substantial dataset, Yes - limited dataset, No - need data labeling, Unsure</t>
         </is>
       </c>
-      <c r="F3" s="25" t="n"/>
+      <c r="F3" s="26" t="n"/>
       <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Training data availability</t>
@@ -4509,33 +4540,33 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>AI-003</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>AI/ML Requirements</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="25" t="inlineStr">
         <is>
           <t>Accuracy Improvement</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="25" t="inlineStr">
         <is>
           <t>How will you handle cases where extraction accuracy is low?</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
+      <c r="E4" s="25" t="inlineStr">
         <is>
           <t>Options: Human review workflow (A2I), Confidence scoring, Automated rejection, Manual correction interface</t>
         </is>
       </c>
-      <c r="F4" s="25" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>Quality assurance process</t>
         </is>
@@ -4567,7 +4598,7 @@
           <t>Options: Never, Quarterly, Monthly, As needed, Continuously</t>
         </is>
       </c>
-      <c r="F5" s="25" t="n"/>
+      <c r="F5" s="26" t="n"/>
       <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Model maintenance expectations</t>
@@ -4603,7 +4634,7 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
@@ -4641,29 +4672,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>ORG-001</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Organizational</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>Resources</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>Who will be the technical lead for this IDP project?</t>
         </is>
       </c>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>Technical ownership</t>
         </is>
@@ -4691,7 +4722,7 @@
         </is>
       </c>
       <c r="E3" s="23" t="n"/>
-      <c r="F3" s="25" t="n"/>
+      <c r="F3" s="26" t="n"/>
       <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Team availability</t>
@@ -4699,33 +4730,33 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>ORG-003</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Organizational</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="25" t="inlineStr">
         <is>
           <t>Resources</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="25" t="inlineStr">
         <is>
           <t>What is your team's experience with AWS AI/ML services?</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
+      <c r="E4" s="25" t="inlineStr">
         <is>
           <t>Experience levels: No experience, Basic knowledge, Intermediate, Advanced, Expert</t>
         </is>
       </c>
-      <c r="F4" s="25" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>Training needs assessment</t>
         </is>
@@ -4753,7 +4784,7 @@
         </is>
       </c>
       <c r="E5" s="23" t="n"/>
-      <c r="F5" s="25" t="n"/>
+      <c r="F5" s="26" t="n"/>
       <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Change management approach</t>
@@ -4761,29 +4792,29 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="25" t="inlineStr">
         <is>
           <t>ORG-005</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>Organizational</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="25" t="inlineStr">
         <is>
           <t>Change Management</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
+      <c r="D6" s="25" t="inlineStr">
         <is>
           <t>What training will be needed for end users?</t>
         </is>
       </c>
-      <c r="E6" s="10" t="n"/>
-      <c r="F6" s="25" t="n"/>
-      <c r="G6" s="10" t="inlineStr">
+      <c r="E6" s="25" t="n"/>
+      <c r="F6" s="26" t="n"/>
+      <c r="G6" s="25" t="inlineStr">
         <is>
           <t>Training requirements</t>
         </is>
@@ -4811,7 +4842,7 @@
         </is>
       </c>
       <c r="E7" s="23" t="n"/>
-      <c r="F7" s="25" t="n"/>
+      <c r="F7" s="26" t="n"/>
       <c r="G7" s="23" t="inlineStr">
         <is>
           <t>Change approval process</t>
@@ -4847,7 +4878,7 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Question ID</t>
@@ -4885,29 +4916,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>WORKFLOW-001</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Workflow Requirements</t>
         </is>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="25" t="inlineStr">
         <is>
           <t>Process Flow</t>
         </is>
       </c>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>What happens to documents after data extraction?</t>
         </is>
       </c>
-      <c r="E2" s="10" t="n"/>
-      <c r="F2" s="25" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="E2" s="25" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="25" t="inlineStr">
         <is>
           <t>Downstream processing requirements</t>
         </is>
@@ -4935,7 +4966,7 @@
         </is>
       </c>
       <c r="E3" s="23" t="n"/>
-      <c r="F3" s="25" t="n"/>
+      <c r="F3" s="26" t="n"/>
       <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Error handling requirements</t>
@@ -4943,33 +4974,33 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="25" t="inlineStr">
         <is>
           <t>WORKFLOW-003</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Workflow Requirements</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="25" t="inlineStr">
         <is>
           <t>Process Flow</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="25" t="inlineStr">
         <is>
           <t>Do you need human-in-the-loop review capabilities?</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
+      <c r="E4" s="25" t="inlineStr">
         <is>
           <t>Options: Always required, Only for low confidence, Only for exceptions, Never needed</t>
         </is>
       </c>
-      <c r="F4" s="25" t="n"/>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t>Human review requirements (Amazon A2I)</t>
         </is>
@@ -4997,7 +5028,7 @@
         </is>
       </c>
       <c r="E5" s="23" t="n"/>
-      <c r="F5" s="25" t="n"/>
+      <c r="F5" s="26" t="n"/>
       <c r="G5" s="23" t="inlineStr">
         <is>
           <t>Notification requirements</t>

--- a/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -100,6 +100,24 @@
       <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFCC0000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -254,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -287,9 +305,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -303,9 +318,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,29 +327,71 @@
     <xf numFmtId="9" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,14 +746,14 @@
     </row>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="40" customHeight="1">
-      <c r="B3" s="17" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>[DOCUMENT TITLE]</t>
         </is>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1">
-      <c r="B4" s="16" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>Discovery Questionnaire</t>
         </is>
@@ -732,7 +786,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 19, 2025</t>
+          <t>November 21, 2025</t>
         </is>
       </c>
     </row>
@@ -811,2027 +865,2027 @@
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1">
-      <c r="A1" s="23" t="inlineStr">
+      <c r="A1" s="35" t="inlineStr">
         <is>
           <t>Total Questions</t>
         </is>
       </c>
-      <c r="B1" s="23" t="inlineStr">
+      <c r="B1" s="35" t="inlineStr">
         <is>
           <t>Answered</t>
         </is>
       </c>
-      <c r="C1" s="23" t="inlineStr">
+      <c r="C1" s="35" t="inlineStr">
         <is>
           <t>Remaining</t>
         </is>
       </c>
-      <c r="D1" s="23" t="inlineStr">
+      <c r="D1" s="35" t="inlineStr">
         <is>
           <t>% Complete</t>
         </is>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1">
-      <c r="A2" s="24" t="n">
+      <c r="A2" s="36" t="n">
         <v>65</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="36">
         <f>SUMPRODUCT(--(LEN(F5:F69)&gt;0))</f>
         <v/>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="36">
         <f>A2-B2</f>
         <v/>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="37">
         <f>B2/A2</f>
         <v/>
       </c>
     </row>
     <row r="4" ht="32" customHeight="1">
-      <c r="A4" s="26" t="inlineStr">
+      <c r="A4" s="38" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B4" s="26" t="inlineStr">
+      <c r="B4" s="38" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C4" s="26" t="inlineStr">
+      <c r="C4" s="38" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D4" s="26" t="inlineStr">
+      <c r="D4" s="38" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E4" s="26" t="inlineStr">
+      <c r="E4" s="38" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F4" s="26" t="inlineStr">
+      <c r="F4" s="38" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G4" s="26" t="inlineStr">
+      <c r="G4" s="38" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27">
+      <c r="A5" s="39">
         <f>IF('Business Requirements'!A2="","",'Business Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="39">
         <f>IF('Business Requirements'!B2="","",'Business Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="39">
         <f>IF('Business Requirements'!C2="","",'Business Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="39">
         <f>IF('Business Requirements'!D2="","",'Business Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="39">
         <f>IF('Business Requirements'!E2="","",'Business Requirements'!E2)</f>
         <v/>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="40">
         <f>IF('Business Requirements'!F2="","",'Business Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="39">
         <f>IF('Business Requirements'!G2="","",'Business Requirements'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29">
+      <c r="A6" s="41">
         <f>IF('Business Requirements'!A3="","",'Business Requirements'!A3)</f>
         <v/>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="41">
         <f>IF('Business Requirements'!B3="","",'Business Requirements'!B3)</f>
         <v/>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="41">
         <f>IF('Business Requirements'!C3="","",'Business Requirements'!C3)</f>
         <v/>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="41">
         <f>IF('Business Requirements'!D3="","",'Business Requirements'!D3)</f>
         <v/>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="41">
         <f>IF('Business Requirements'!E3="","",'Business Requirements'!E3)</f>
         <v/>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="40">
         <f>IF('Business Requirements'!F3="","",'Business Requirements'!F3)</f>
         <v/>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="41">
         <f>IF('Business Requirements'!G3="","",'Business Requirements'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27">
+      <c r="A7" s="39">
         <f>IF('Business Requirements'!A4="","",'Business Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="39">
         <f>IF('Business Requirements'!B4="","",'Business Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="39">
         <f>IF('Business Requirements'!C4="","",'Business Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="39">
         <f>IF('Business Requirements'!D4="","",'Business Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="39">
         <f>IF('Business Requirements'!E4="","",'Business Requirements'!E4)</f>
         <v/>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="40">
         <f>IF('Business Requirements'!F4="","",'Business Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="39">
         <f>IF('Business Requirements'!G4="","",'Business Requirements'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29">
+      <c r="A8" s="41">
         <f>IF('Business Requirements'!A5="","",'Business Requirements'!A5)</f>
         <v/>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="41">
         <f>IF('Business Requirements'!B5="","",'Business Requirements'!B5)</f>
         <v/>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="41">
         <f>IF('Business Requirements'!C5="","",'Business Requirements'!C5)</f>
         <v/>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="41">
         <f>IF('Business Requirements'!D5="","",'Business Requirements'!D5)</f>
         <v/>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="41">
         <f>IF('Business Requirements'!E5="","",'Business Requirements'!E5)</f>
         <v/>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="40">
         <f>IF('Business Requirements'!F5="","",'Business Requirements'!F5)</f>
         <v/>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="41">
         <f>IF('Business Requirements'!G5="","",'Business Requirements'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27">
+      <c r="A9" s="39">
         <f>IF('Business Requirements'!A6="","",'Business Requirements'!A6)</f>
         <v/>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="39">
         <f>IF('Business Requirements'!B6="","",'Business Requirements'!B6)</f>
         <v/>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="39">
         <f>IF('Business Requirements'!C6="","",'Business Requirements'!C6)</f>
         <v/>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="39">
         <f>IF('Business Requirements'!D6="","",'Business Requirements'!D6)</f>
         <v/>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="39">
         <f>IF('Business Requirements'!E6="","",'Business Requirements'!E6)</f>
         <v/>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="40">
         <f>IF('Business Requirements'!F6="","",'Business Requirements'!F6)</f>
         <v/>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="39">
         <f>IF('Business Requirements'!G6="","",'Business Requirements'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29">
+      <c r="A10" s="41">
         <f>IF('Business Requirements'!A7="","",'Business Requirements'!A7)</f>
         <v/>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="41">
         <f>IF('Business Requirements'!B7="","",'Business Requirements'!B7)</f>
         <v/>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="41">
         <f>IF('Business Requirements'!C7="","",'Business Requirements'!C7)</f>
         <v/>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="41">
         <f>IF('Business Requirements'!D7="","",'Business Requirements'!D7)</f>
         <v/>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="41">
         <f>IF('Business Requirements'!E7="","",'Business Requirements'!E7)</f>
         <v/>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="40">
         <f>IF('Business Requirements'!F7="","",'Business Requirements'!F7)</f>
         <v/>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="41">
         <f>IF('Business Requirements'!G7="","",'Business Requirements'!G7)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27">
+      <c r="A11" s="39">
         <f>IF('Business Requirements'!A8="","",'Business Requirements'!A8)</f>
         <v/>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="39">
         <f>IF('Business Requirements'!B8="","",'Business Requirements'!B8)</f>
         <v/>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="39">
         <f>IF('Business Requirements'!C8="","",'Business Requirements'!C8)</f>
         <v/>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="39">
         <f>IF('Business Requirements'!D8="","",'Business Requirements'!D8)</f>
         <v/>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="39">
         <f>IF('Business Requirements'!E8="","",'Business Requirements'!E8)</f>
         <v/>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="40">
         <f>IF('Business Requirements'!F8="","",'Business Requirements'!F8)</f>
         <v/>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="39">
         <f>IF('Business Requirements'!G8="","",'Business Requirements'!G8)</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29">
+      <c r="A12" s="41">
         <f>IF('Business Requirements'!A9="","",'Business Requirements'!A9)</f>
         <v/>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="41">
         <f>IF('Business Requirements'!B9="","",'Business Requirements'!B9)</f>
         <v/>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="41">
         <f>IF('Business Requirements'!C9="","",'Business Requirements'!C9)</f>
         <v/>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="41">
         <f>IF('Business Requirements'!D9="","",'Business Requirements'!D9)</f>
         <v/>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="41">
         <f>IF('Business Requirements'!E9="","",'Business Requirements'!E9)</f>
         <v/>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="40">
         <f>IF('Business Requirements'!F9="","",'Business Requirements'!F9)</f>
         <v/>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="41">
         <f>IF('Business Requirements'!G9="","",'Business Requirements'!G9)</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="27">
+      <c r="A13" s="39">
         <f>IF('Business Requirements'!A10="","",'Business Requirements'!A10)</f>
         <v/>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="39">
         <f>IF('Business Requirements'!B10="","",'Business Requirements'!B10)</f>
         <v/>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="39">
         <f>IF('Business Requirements'!C10="","",'Business Requirements'!C10)</f>
         <v/>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="39">
         <f>IF('Business Requirements'!D10="","",'Business Requirements'!D10)</f>
         <v/>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="39">
         <f>IF('Business Requirements'!E10="","",'Business Requirements'!E10)</f>
         <v/>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="40">
         <f>IF('Business Requirements'!F10="","",'Business Requirements'!F10)</f>
         <v/>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="39">
         <f>IF('Business Requirements'!G10="","",'Business Requirements'!G10)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29">
+      <c r="A14" s="41">
         <f>IF('Business Requirements'!A11="","",'Business Requirements'!A11)</f>
         <v/>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="41">
         <f>IF('Business Requirements'!B11="","",'Business Requirements'!B11)</f>
         <v/>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="41">
         <f>IF('Business Requirements'!C11="","",'Business Requirements'!C11)</f>
         <v/>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="41">
         <f>IF('Business Requirements'!D11="","",'Business Requirements'!D11)</f>
         <v/>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="41">
         <f>IF('Business Requirements'!E11="","",'Business Requirements'!E11)</f>
         <v/>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="40">
         <f>IF('Business Requirements'!F11="","",'Business Requirements'!F11)</f>
         <v/>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="41">
         <f>IF('Business Requirements'!G11="","",'Business Requirements'!G11)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="27">
+      <c r="A15" s="39">
         <f>IF('Business Requirements'!A12="","",'Business Requirements'!A12)</f>
         <v/>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="39">
         <f>IF('Business Requirements'!B12="","",'Business Requirements'!B12)</f>
         <v/>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="39">
         <f>IF('Business Requirements'!C12="","",'Business Requirements'!C12)</f>
         <v/>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="39">
         <f>IF('Business Requirements'!D12="","",'Business Requirements'!D12)</f>
         <v/>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="39">
         <f>IF('Business Requirements'!E12="","",'Business Requirements'!E12)</f>
         <v/>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="40">
         <f>IF('Business Requirements'!F12="","",'Business Requirements'!F12)</f>
         <v/>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="39">
         <f>IF('Business Requirements'!G12="","",'Business Requirements'!G12)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="29">
+      <c r="A16" s="41">
         <f>IF('Business Requirements'!A13="","",'Business Requirements'!A13)</f>
         <v/>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="41">
         <f>IF('Business Requirements'!B13="","",'Business Requirements'!B13)</f>
         <v/>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="41">
         <f>IF('Business Requirements'!C13="","",'Business Requirements'!C13)</f>
         <v/>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="41">
         <f>IF('Business Requirements'!D13="","",'Business Requirements'!D13)</f>
         <v/>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="41">
         <f>IF('Business Requirements'!E13="","",'Business Requirements'!E13)</f>
         <v/>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="40">
         <f>IF('Business Requirements'!F13="","",'Business Requirements'!F13)</f>
         <v/>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="41">
         <f>IF('Business Requirements'!G13="","",'Business Requirements'!G13)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="27">
+      <c r="A17" s="39">
         <f>IF('Technical Requirements'!A2="","",'Technical Requirements'!A2)</f>
         <v/>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="39">
         <f>IF('Technical Requirements'!B2="","",'Technical Requirements'!B2)</f>
         <v/>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="39">
         <f>IF('Technical Requirements'!C2="","",'Technical Requirements'!C2)</f>
         <v/>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="39">
         <f>IF('Technical Requirements'!D2="","",'Technical Requirements'!D2)</f>
         <v/>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="39">
         <f>IF('Technical Requirements'!E2="","",'Technical Requirements'!E2)</f>
         <v/>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="40">
         <f>IF('Technical Requirements'!F2="","",'Technical Requirements'!F2)</f>
         <v/>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="39">
         <f>IF('Technical Requirements'!G2="","",'Technical Requirements'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="29">
+      <c r="A18" s="41">
         <f>IF('Technical Requirements'!A3="","",'Technical Requirements'!A3)</f>
         <v/>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="41">
         <f>IF('Technical Requirements'!B3="","",'Technical Requirements'!B3)</f>
         <v/>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="41">
         <f>IF('Technical Requirements'!C3="","",'Technical Requirements'!C3)</f>
         <v/>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="41">
         <f>IF('Technical Requirements'!D3="","",'Technical Requirements'!D3)</f>
         <v/>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="41">
         <f>IF('Technical Requirements'!E3="","",'Technical Requirements'!E3)</f>
         <v/>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="40">
         <f>IF('Technical Requirements'!F3="","",'Technical Requirements'!F3)</f>
         <v/>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="41">
         <f>IF('Technical Requirements'!G3="","",'Technical Requirements'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="27">
+      <c r="A19" s="39">
         <f>IF('Technical Requirements'!A4="","",'Technical Requirements'!A4)</f>
         <v/>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="39">
         <f>IF('Technical Requirements'!B4="","",'Technical Requirements'!B4)</f>
         <v/>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="39">
         <f>IF('Technical Requirements'!C4="","",'Technical Requirements'!C4)</f>
         <v/>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="39">
         <f>IF('Technical Requirements'!D4="","",'Technical Requirements'!D4)</f>
         <v/>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="39">
         <f>IF('Technical Requirements'!E4="","",'Technical Requirements'!E4)</f>
         <v/>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="40">
         <f>IF('Technical Requirements'!F4="","",'Technical Requirements'!F4)</f>
         <v/>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="39">
         <f>IF('Technical Requirements'!G4="","",'Technical Requirements'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="29">
+      <c r="A20" s="41">
         <f>IF('Technical Requirements'!A5="","",'Technical Requirements'!A5)</f>
         <v/>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="41">
         <f>IF('Technical Requirements'!B5="","",'Technical Requirements'!B5)</f>
         <v/>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="41">
         <f>IF('Technical Requirements'!C5="","",'Technical Requirements'!C5)</f>
         <v/>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="41">
         <f>IF('Technical Requirements'!D5="","",'Technical Requirements'!D5)</f>
         <v/>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="41">
         <f>IF('Technical Requirements'!E5="","",'Technical Requirements'!E5)</f>
         <v/>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="40">
         <f>IF('Technical Requirements'!F5="","",'Technical Requirements'!F5)</f>
         <v/>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="41">
         <f>IF('Technical Requirements'!G5="","",'Technical Requirements'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="27">
+      <c r="A21" s="39">
         <f>IF('Technical Requirements'!A6="","",'Technical Requirements'!A6)</f>
         <v/>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="39">
         <f>IF('Technical Requirements'!B6="","",'Technical Requirements'!B6)</f>
         <v/>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="39">
         <f>IF('Technical Requirements'!C6="","",'Technical Requirements'!C6)</f>
         <v/>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="39">
         <f>IF('Technical Requirements'!D6="","",'Technical Requirements'!D6)</f>
         <v/>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="39">
         <f>IF('Technical Requirements'!E6="","",'Technical Requirements'!E6)</f>
         <v/>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="40">
         <f>IF('Technical Requirements'!F6="","",'Technical Requirements'!F6)</f>
         <v/>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="39">
         <f>IF('Technical Requirements'!G6="","",'Technical Requirements'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="29">
+      <c r="A22" s="41">
         <f>IF('Technical Requirements'!A7="","",'Technical Requirements'!A7)</f>
         <v/>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="41">
         <f>IF('Technical Requirements'!B7="","",'Technical Requirements'!B7)</f>
         <v/>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="41">
         <f>IF('Technical Requirements'!C7="","",'Technical Requirements'!C7)</f>
         <v/>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="41">
         <f>IF('Technical Requirements'!D7="","",'Technical Requirements'!D7)</f>
         <v/>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="41">
         <f>IF('Technical Requirements'!E7="","",'Technical Requirements'!E7)</f>
         <v/>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="40">
         <f>IF('Technical Requirements'!F7="","",'Technical Requirements'!F7)</f>
         <v/>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="41">
         <f>IF('Technical Requirements'!G7="","",'Technical Requirements'!G7)</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="27">
+      <c r="A23" s="39">
         <f>IF('Technical Requirements'!A8="","",'Technical Requirements'!A8)</f>
         <v/>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="39">
         <f>IF('Technical Requirements'!B8="","",'Technical Requirements'!B8)</f>
         <v/>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="39">
         <f>IF('Technical Requirements'!C8="","",'Technical Requirements'!C8)</f>
         <v/>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="39">
         <f>IF('Technical Requirements'!D8="","",'Technical Requirements'!D8)</f>
         <v/>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="39">
         <f>IF('Technical Requirements'!E8="","",'Technical Requirements'!E8)</f>
         <v/>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="40">
         <f>IF('Technical Requirements'!F8="","",'Technical Requirements'!F8)</f>
         <v/>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="39">
         <f>IF('Technical Requirements'!G8="","",'Technical Requirements'!G8)</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="29">
+      <c r="A24" s="41">
         <f>IF('Technical Requirements'!A9="","",'Technical Requirements'!A9)</f>
         <v/>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="41">
         <f>IF('Technical Requirements'!B9="","",'Technical Requirements'!B9)</f>
         <v/>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="41">
         <f>IF('Technical Requirements'!C9="","",'Technical Requirements'!C9)</f>
         <v/>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="41">
         <f>IF('Technical Requirements'!D9="","",'Technical Requirements'!D9)</f>
         <v/>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="41">
         <f>IF('Technical Requirements'!E9="","",'Technical Requirements'!E9)</f>
         <v/>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="40">
         <f>IF('Technical Requirements'!F9="","",'Technical Requirements'!F9)</f>
         <v/>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="41">
         <f>IF('Technical Requirements'!G9="","",'Technical Requirements'!G9)</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="27">
+      <c r="A25" s="39">
         <f>IF('Technical Requirements'!A10="","",'Technical Requirements'!A10)</f>
         <v/>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="39">
         <f>IF('Technical Requirements'!B10="","",'Technical Requirements'!B10)</f>
         <v/>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="39">
         <f>IF('Technical Requirements'!C10="","",'Technical Requirements'!C10)</f>
         <v/>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="39">
         <f>IF('Technical Requirements'!D10="","",'Technical Requirements'!D10)</f>
         <v/>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="39">
         <f>IF('Technical Requirements'!E10="","",'Technical Requirements'!E10)</f>
         <v/>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="40">
         <f>IF('Technical Requirements'!F10="","",'Technical Requirements'!F10)</f>
         <v/>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="39">
         <f>IF('Technical Requirements'!G10="","",'Technical Requirements'!G10)</f>
         <v/>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="29">
+      <c r="A26" s="41">
         <f>IF('Technical Requirements'!A11="","",'Technical Requirements'!A11)</f>
         <v/>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="41">
         <f>IF('Technical Requirements'!B11="","",'Technical Requirements'!B11)</f>
         <v/>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="41">
         <f>IF('Technical Requirements'!C11="","",'Technical Requirements'!C11)</f>
         <v/>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="41">
         <f>IF('Technical Requirements'!D11="","",'Technical Requirements'!D11)</f>
         <v/>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="41">
         <f>IF('Technical Requirements'!E11="","",'Technical Requirements'!E11)</f>
         <v/>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="40">
         <f>IF('Technical Requirements'!F11="","",'Technical Requirements'!F11)</f>
         <v/>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="41">
         <f>IF('Technical Requirements'!G11="","",'Technical Requirements'!G11)</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="27">
+      <c r="A27" s="39">
         <f>IF('Technical Requirements'!A12="","",'Technical Requirements'!A12)</f>
         <v/>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="39">
         <f>IF('Technical Requirements'!B12="","",'Technical Requirements'!B12)</f>
         <v/>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="39">
         <f>IF('Technical Requirements'!C12="","",'Technical Requirements'!C12)</f>
         <v/>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="39">
         <f>IF('Technical Requirements'!D12="","",'Technical Requirements'!D12)</f>
         <v/>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="39">
         <f>IF('Technical Requirements'!E12="","",'Technical Requirements'!E12)</f>
         <v/>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="40">
         <f>IF('Technical Requirements'!F12="","",'Technical Requirements'!F12)</f>
         <v/>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="39">
         <f>IF('Technical Requirements'!G12="","",'Technical Requirements'!G12)</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="29">
+      <c r="A28" s="41">
         <f>IF('Technical Requirements'!A13="","",'Technical Requirements'!A13)</f>
         <v/>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="41">
         <f>IF('Technical Requirements'!B13="","",'Technical Requirements'!B13)</f>
         <v/>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="41">
         <f>IF('Technical Requirements'!C13="","",'Technical Requirements'!C13)</f>
         <v/>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="41">
         <f>IF('Technical Requirements'!D13="","",'Technical Requirements'!D13)</f>
         <v/>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="41">
         <f>IF('Technical Requirements'!E13="","",'Technical Requirements'!E13)</f>
         <v/>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="40">
         <f>IF('Technical Requirements'!F13="","",'Technical Requirements'!F13)</f>
         <v/>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="41">
         <f>IF('Technical Requirements'!G13="","",'Technical Requirements'!G13)</f>
         <v/>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="27">
+      <c r="A29" s="39">
         <f>IF('Technical Requirements'!A14="","",'Technical Requirements'!A14)</f>
         <v/>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="39">
         <f>IF('Technical Requirements'!B14="","",'Technical Requirements'!B14)</f>
         <v/>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="39">
         <f>IF('Technical Requirements'!C14="","",'Technical Requirements'!C14)</f>
         <v/>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="39">
         <f>IF('Technical Requirements'!D14="","",'Technical Requirements'!D14)</f>
         <v/>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="39">
         <f>IF('Technical Requirements'!E14="","",'Technical Requirements'!E14)</f>
         <v/>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="40">
         <f>IF('Technical Requirements'!F14="","",'Technical Requirements'!F14)</f>
         <v/>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="39">
         <f>IF('Technical Requirements'!G14="","",'Technical Requirements'!G14)</f>
         <v/>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="29">
+      <c r="A30" s="41">
         <f>IF('Technical Requirements'!A15="","",'Technical Requirements'!A15)</f>
         <v/>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="41">
         <f>IF('Technical Requirements'!B15="","",'Technical Requirements'!B15)</f>
         <v/>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="41">
         <f>IF('Technical Requirements'!C15="","",'Technical Requirements'!C15)</f>
         <v/>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="41">
         <f>IF('Technical Requirements'!D15="","",'Technical Requirements'!D15)</f>
         <v/>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="41">
         <f>IF('Technical Requirements'!E15="","",'Technical Requirements'!E15)</f>
         <v/>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="40">
         <f>IF('Technical Requirements'!F15="","",'Technical Requirements'!F15)</f>
         <v/>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="41">
         <f>IF('Technical Requirements'!G15="","",'Technical Requirements'!G15)</f>
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="27">
+      <c r="A31" s="39">
         <f>IF('Technical Requirements'!A16="","",'Technical Requirements'!A16)</f>
         <v/>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="39">
         <f>IF('Technical Requirements'!B16="","",'Technical Requirements'!B16)</f>
         <v/>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="39">
         <f>IF('Technical Requirements'!C16="","",'Technical Requirements'!C16)</f>
         <v/>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="39">
         <f>IF('Technical Requirements'!D16="","",'Technical Requirements'!D16)</f>
         <v/>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="39">
         <f>IF('Technical Requirements'!E16="","",'Technical Requirements'!E16)</f>
         <v/>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="40">
         <f>IF('Technical Requirements'!F16="","",'Technical Requirements'!F16)</f>
         <v/>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="39">
         <f>IF('Technical Requirements'!G16="","",'Technical Requirements'!G16)</f>
         <v/>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="29">
+      <c r="A32" s="41">
         <f>IF('Technical Requirements'!A17="","",'Technical Requirements'!A17)</f>
         <v/>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="41">
         <f>IF('Technical Requirements'!B17="","",'Technical Requirements'!B17)</f>
         <v/>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="41">
         <f>IF('Technical Requirements'!C17="","",'Technical Requirements'!C17)</f>
         <v/>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="41">
         <f>IF('Technical Requirements'!D17="","",'Technical Requirements'!D17)</f>
         <v/>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="41">
         <f>IF('Technical Requirements'!E17="","",'Technical Requirements'!E17)</f>
         <v/>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="40">
         <f>IF('Technical Requirements'!F17="","",'Technical Requirements'!F17)</f>
         <v/>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="41">
         <f>IF('Technical Requirements'!G17="","",'Technical Requirements'!G17)</f>
         <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="27">
+      <c r="A33" s="39">
         <f>IF('Technical Requirements'!A18="","",'Technical Requirements'!A18)</f>
         <v/>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="39">
         <f>IF('Technical Requirements'!B18="","",'Technical Requirements'!B18)</f>
         <v/>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="39">
         <f>IF('Technical Requirements'!C18="","",'Technical Requirements'!C18)</f>
         <v/>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="39">
         <f>IF('Technical Requirements'!D18="","",'Technical Requirements'!D18)</f>
         <v/>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="39">
         <f>IF('Technical Requirements'!E18="","",'Technical Requirements'!E18)</f>
         <v/>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="40">
         <f>IF('Technical Requirements'!F18="","",'Technical Requirements'!F18)</f>
         <v/>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="39">
         <f>IF('Technical Requirements'!G18="","",'Technical Requirements'!G18)</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="29">
+      <c r="A34" s="41">
         <f>IF('Technical Requirements'!A19="","",'Technical Requirements'!A19)</f>
         <v/>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="41">
         <f>IF('Technical Requirements'!B19="","",'Technical Requirements'!B19)</f>
         <v/>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="41">
         <f>IF('Technical Requirements'!C19="","",'Technical Requirements'!C19)</f>
         <v/>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="41">
         <f>IF('Technical Requirements'!D19="","",'Technical Requirements'!D19)</f>
         <v/>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="41">
         <f>IF('Technical Requirements'!E19="","",'Technical Requirements'!E19)</f>
         <v/>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="40">
         <f>IF('Technical Requirements'!F19="","",'Technical Requirements'!F19)</f>
         <v/>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="41">
         <f>IF('Technical Requirements'!G19="","",'Technical Requirements'!G19)</f>
         <v/>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="27">
+      <c r="A35" s="39">
         <f>IF('Technical Requirements'!A20="","",'Technical Requirements'!A20)</f>
         <v/>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="39">
         <f>IF('Technical Requirements'!B20="","",'Technical Requirements'!B20)</f>
         <v/>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="39">
         <f>IF('Technical Requirements'!C20="","",'Technical Requirements'!C20)</f>
         <v/>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="39">
         <f>IF('Technical Requirements'!D20="","",'Technical Requirements'!D20)</f>
         <v/>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="39">
         <f>IF('Technical Requirements'!E20="","",'Technical Requirements'!E20)</f>
         <v/>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="40">
         <f>IF('Technical Requirements'!F20="","",'Technical Requirements'!F20)</f>
         <v/>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="39">
         <f>IF('Technical Requirements'!G20="","",'Technical Requirements'!G20)</f>
         <v/>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="29">
+      <c r="A36" s="41">
         <f>IF('Security &amp; Compliance'!A2="","",'Security &amp; Compliance'!A2)</f>
         <v/>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="41">
         <f>IF('Security &amp; Compliance'!B2="","",'Security &amp; Compliance'!B2)</f>
         <v/>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="41">
         <f>IF('Security &amp; Compliance'!C2="","",'Security &amp; Compliance'!C2)</f>
         <v/>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="41">
         <f>IF('Security &amp; Compliance'!D2="","",'Security &amp; Compliance'!D2)</f>
         <v/>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="41">
         <f>IF('Security &amp; Compliance'!E2="","",'Security &amp; Compliance'!E2)</f>
         <v/>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="40">
         <f>IF('Security &amp; Compliance'!F2="","",'Security &amp; Compliance'!F2)</f>
         <v/>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="41">
         <f>IF('Security &amp; Compliance'!G2="","",'Security &amp; Compliance'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="27">
+      <c r="A37" s="39">
         <f>IF('Security &amp; Compliance'!A3="","",'Security &amp; Compliance'!A3)</f>
         <v/>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="39">
         <f>IF('Security &amp; Compliance'!B3="","",'Security &amp; Compliance'!B3)</f>
         <v/>
       </c>
-      <c r="C37" s="27">
+      <c r="C37" s="39">
         <f>IF('Security &amp; Compliance'!C3="","",'Security &amp; Compliance'!C3)</f>
         <v/>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="39">
         <f>IF('Security &amp; Compliance'!D3="","",'Security &amp; Compliance'!D3)</f>
         <v/>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="39">
         <f>IF('Security &amp; Compliance'!E3="","",'Security &amp; Compliance'!E3)</f>
         <v/>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="40">
         <f>IF('Security &amp; Compliance'!F3="","",'Security &amp; Compliance'!F3)</f>
         <v/>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="39">
         <f>IF('Security &amp; Compliance'!G3="","",'Security &amp; Compliance'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="29">
+      <c r="A38" s="41">
         <f>IF('Security &amp; Compliance'!A4="","",'Security &amp; Compliance'!A4)</f>
         <v/>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="41">
         <f>IF('Security &amp; Compliance'!B4="","",'Security &amp; Compliance'!B4)</f>
         <v/>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="41">
         <f>IF('Security &amp; Compliance'!C4="","",'Security &amp; Compliance'!C4)</f>
         <v/>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="41">
         <f>IF('Security &amp; Compliance'!D4="","",'Security &amp; Compliance'!D4)</f>
         <v/>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="41">
         <f>IF('Security &amp; Compliance'!E4="","",'Security &amp; Compliance'!E4)</f>
         <v/>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="40">
         <f>IF('Security &amp; Compliance'!F4="","",'Security &amp; Compliance'!F4)</f>
         <v/>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="41">
         <f>IF('Security &amp; Compliance'!G4="","",'Security &amp; Compliance'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="27">
+      <c r="A39" s="39">
         <f>IF('Security &amp; Compliance'!A5="","",'Security &amp; Compliance'!A5)</f>
         <v/>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="39">
         <f>IF('Security &amp; Compliance'!B5="","",'Security &amp; Compliance'!B5)</f>
         <v/>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="39">
         <f>IF('Security &amp; Compliance'!C5="","",'Security &amp; Compliance'!C5)</f>
         <v/>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="39">
         <f>IF('Security &amp; Compliance'!D5="","",'Security &amp; Compliance'!D5)</f>
         <v/>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="39">
         <f>IF('Security &amp; Compliance'!E5="","",'Security &amp; Compliance'!E5)</f>
         <v/>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="40">
         <f>IF('Security &amp; Compliance'!F5="","",'Security &amp; Compliance'!F5)</f>
         <v/>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="39">
         <f>IF('Security &amp; Compliance'!G5="","",'Security &amp; Compliance'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="29">
+      <c r="A40" s="41">
         <f>IF('Security &amp; Compliance'!A6="","",'Security &amp; Compliance'!A6)</f>
         <v/>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="41">
         <f>IF('Security &amp; Compliance'!B6="","",'Security &amp; Compliance'!B6)</f>
         <v/>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="41">
         <f>IF('Security &amp; Compliance'!C6="","",'Security &amp; Compliance'!C6)</f>
         <v/>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="41">
         <f>IF('Security &amp; Compliance'!D6="","",'Security &amp; Compliance'!D6)</f>
         <v/>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="41">
         <f>IF('Security &amp; Compliance'!E6="","",'Security &amp; Compliance'!E6)</f>
         <v/>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="40">
         <f>IF('Security &amp; Compliance'!F6="","",'Security &amp; Compliance'!F6)</f>
         <v/>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="41">
         <f>IF('Security &amp; Compliance'!G6="","",'Security &amp; Compliance'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="27">
+      <c r="A41" s="39">
         <f>IF('Security &amp; Compliance'!A7="","",'Security &amp; Compliance'!A7)</f>
         <v/>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="39">
         <f>IF('Security &amp; Compliance'!B7="","",'Security &amp; Compliance'!B7)</f>
         <v/>
       </c>
-      <c r="C41" s="27">
+      <c r="C41" s="39">
         <f>IF('Security &amp; Compliance'!C7="","",'Security &amp; Compliance'!C7)</f>
         <v/>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="39">
         <f>IF('Security &amp; Compliance'!D7="","",'Security &amp; Compliance'!D7)</f>
         <v/>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="39">
         <f>IF('Security &amp; Compliance'!E7="","",'Security &amp; Compliance'!E7)</f>
         <v/>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="40">
         <f>IF('Security &amp; Compliance'!F7="","",'Security &amp; Compliance'!F7)</f>
         <v/>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="39">
         <f>IF('Security &amp; Compliance'!G7="","",'Security &amp; Compliance'!G7)</f>
         <v/>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="29">
+      <c r="A42" s="41">
         <f>IF('Security &amp; Compliance'!A8="","",'Security &amp; Compliance'!A8)</f>
         <v/>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="41">
         <f>IF('Security &amp; Compliance'!B8="","",'Security &amp; Compliance'!B8)</f>
         <v/>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="41">
         <f>IF('Security &amp; Compliance'!C8="","",'Security &amp; Compliance'!C8)</f>
         <v/>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="41">
         <f>IF('Security &amp; Compliance'!D8="","",'Security &amp; Compliance'!D8)</f>
         <v/>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="41">
         <f>IF('Security &amp; Compliance'!E8="","",'Security &amp; Compliance'!E8)</f>
         <v/>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="40">
         <f>IF('Security &amp; Compliance'!F8="","",'Security &amp; Compliance'!F8)</f>
         <v/>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="41">
         <f>IF('Security &amp; Compliance'!G8="","",'Security &amp; Compliance'!G8)</f>
         <v/>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="27">
+      <c r="A43" s="39">
         <f>IF('Security &amp; Compliance'!A9="","",'Security &amp; Compliance'!A9)</f>
         <v/>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="39">
         <f>IF('Security &amp; Compliance'!B9="","",'Security &amp; Compliance'!B9)</f>
         <v/>
       </c>
-      <c r="C43" s="27">
+      <c r="C43" s="39">
         <f>IF('Security &amp; Compliance'!C9="","",'Security &amp; Compliance'!C9)</f>
         <v/>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="39">
         <f>IF('Security &amp; Compliance'!D9="","",'Security &amp; Compliance'!D9)</f>
         <v/>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="39">
         <f>IF('Security &amp; Compliance'!E9="","",'Security &amp; Compliance'!E9)</f>
         <v/>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="40">
         <f>IF('Security &amp; Compliance'!F9="","",'Security &amp; Compliance'!F9)</f>
         <v/>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="39">
         <f>IF('Security &amp; Compliance'!G9="","",'Security &amp; Compliance'!G9)</f>
         <v/>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="29">
+      <c r="A44" s="41">
         <f>IF('Operations &amp; Support'!A2="","",'Operations &amp; Support'!A2)</f>
         <v/>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="41">
         <f>IF('Operations &amp; Support'!B2="","",'Operations &amp; Support'!B2)</f>
         <v/>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="41">
         <f>IF('Operations &amp; Support'!C2="","",'Operations &amp; Support'!C2)</f>
         <v/>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="41">
         <f>IF('Operations &amp; Support'!D2="","",'Operations &amp; Support'!D2)</f>
         <v/>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="41">
         <f>IF('Operations &amp; Support'!E2="","",'Operations &amp; Support'!E2)</f>
         <v/>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="40">
         <f>IF('Operations &amp; Support'!F2="","",'Operations &amp; Support'!F2)</f>
         <v/>
       </c>
-      <c r="G44" s="29">
+      <c r="G44" s="41">
         <f>IF('Operations &amp; Support'!G2="","",'Operations &amp; Support'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="27">
+      <c r="A45" s="39">
         <f>IF('Operations &amp; Support'!A3="","",'Operations &amp; Support'!A3)</f>
         <v/>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="39">
         <f>IF('Operations &amp; Support'!B3="","",'Operations &amp; Support'!B3)</f>
         <v/>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="39">
         <f>IF('Operations &amp; Support'!C3="","",'Operations &amp; Support'!C3)</f>
         <v/>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="39">
         <f>IF('Operations &amp; Support'!D3="","",'Operations &amp; Support'!D3)</f>
         <v/>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="39">
         <f>IF('Operations &amp; Support'!E3="","",'Operations &amp; Support'!E3)</f>
         <v/>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="40">
         <f>IF('Operations &amp; Support'!F3="","",'Operations &amp; Support'!F3)</f>
         <v/>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="39">
         <f>IF('Operations &amp; Support'!G3="","",'Operations &amp; Support'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="29">
+      <c r="A46" s="41">
         <f>IF('Operations &amp; Support'!A4="","",'Operations &amp; Support'!A4)</f>
         <v/>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="41">
         <f>IF('Operations &amp; Support'!B4="","",'Operations &amp; Support'!B4)</f>
         <v/>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="41">
         <f>IF('Operations &amp; Support'!C4="","",'Operations &amp; Support'!C4)</f>
         <v/>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="41">
         <f>IF('Operations &amp; Support'!D4="","",'Operations &amp; Support'!D4)</f>
         <v/>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="41">
         <f>IF('Operations &amp; Support'!E4="","",'Operations &amp; Support'!E4)</f>
         <v/>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="40">
         <f>IF('Operations &amp; Support'!F4="","",'Operations &amp; Support'!F4)</f>
         <v/>
       </c>
-      <c r="G46" s="29">
+      <c r="G46" s="41">
         <f>IF('Operations &amp; Support'!G4="","",'Operations &amp; Support'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="27">
+      <c r="A47" s="39">
         <f>IF('Operations &amp; Support'!A5="","",'Operations &amp; Support'!A5)</f>
         <v/>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="39">
         <f>IF('Operations &amp; Support'!B5="","",'Operations &amp; Support'!B5)</f>
         <v/>
       </c>
-      <c r="C47" s="27">
+      <c r="C47" s="39">
         <f>IF('Operations &amp; Support'!C5="","",'Operations &amp; Support'!C5)</f>
         <v/>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="39">
         <f>IF('Operations &amp; Support'!D5="","",'Operations &amp; Support'!D5)</f>
         <v/>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="39">
         <f>IF('Operations &amp; Support'!E5="","",'Operations &amp; Support'!E5)</f>
         <v/>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="40">
         <f>IF('Operations &amp; Support'!F5="","",'Operations &amp; Support'!F5)</f>
         <v/>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="39">
         <f>IF('Operations &amp; Support'!G5="","",'Operations &amp; Support'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="29">
+      <c r="A48" s="41">
         <f>IF('Operations &amp; Support'!A6="","",'Operations &amp; Support'!A6)</f>
         <v/>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="41">
         <f>IF('Operations &amp; Support'!B6="","",'Operations &amp; Support'!B6)</f>
         <v/>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="41">
         <f>IF('Operations &amp; Support'!C6="","",'Operations &amp; Support'!C6)</f>
         <v/>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="41">
         <f>IF('Operations &amp; Support'!D6="","",'Operations &amp; Support'!D6)</f>
         <v/>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="41">
         <f>IF('Operations &amp; Support'!E6="","",'Operations &amp; Support'!E6)</f>
         <v/>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="40">
         <f>IF('Operations &amp; Support'!F6="","",'Operations &amp; Support'!F6)</f>
         <v/>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="41">
         <f>IF('Operations &amp; Support'!G6="","",'Operations &amp; Support'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="27">
+      <c r="A49" s="39">
         <f>IF('Operations &amp; Support'!A7="","",'Operations &amp; Support'!A7)</f>
         <v/>
       </c>
-      <c r="B49" s="27">
+      <c r="B49" s="39">
         <f>IF('Operations &amp; Support'!B7="","",'Operations &amp; Support'!B7)</f>
         <v/>
       </c>
-      <c r="C49" s="27">
+      <c r="C49" s="39">
         <f>IF('Operations &amp; Support'!C7="","",'Operations &amp; Support'!C7)</f>
         <v/>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="39">
         <f>IF('Operations &amp; Support'!D7="","",'Operations &amp; Support'!D7)</f>
         <v/>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="39">
         <f>IF('Operations &amp; Support'!E7="","",'Operations &amp; Support'!E7)</f>
         <v/>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="40">
         <f>IF('Operations &amp; Support'!F7="","",'Operations &amp; Support'!F7)</f>
         <v/>
       </c>
-      <c r="G49" s="27">
+      <c r="G49" s="39">
         <f>IF('Operations &amp; Support'!G7="","",'Operations &amp; Support'!G7)</f>
         <v/>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="29">
+      <c r="A50" s="41">
         <f>IF('Operations &amp; Support'!A8="","",'Operations &amp; Support'!A8)</f>
         <v/>
       </c>
-      <c r="B50" s="29">
+      <c r="B50" s="41">
         <f>IF('Operations &amp; Support'!B8="","",'Operations &amp; Support'!B8)</f>
         <v/>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="41">
         <f>IF('Operations &amp; Support'!C8="","",'Operations &amp; Support'!C8)</f>
         <v/>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="41">
         <f>IF('Operations &amp; Support'!D8="","",'Operations &amp; Support'!D8)</f>
         <v/>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="41">
         <f>IF('Operations &amp; Support'!E8="","",'Operations &amp; Support'!E8)</f>
         <v/>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="40">
         <f>IF('Operations &amp; Support'!F8="","",'Operations &amp; Support'!F8)</f>
         <v/>
       </c>
-      <c r="G50" s="29">
+      <c r="G50" s="41">
         <f>IF('Operations &amp; Support'!G8="","",'Operations &amp; Support'!G8)</f>
         <v/>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="27">
+      <c r="A51" s="39">
         <f>IF('Operations &amp; Support'!A9="","",'Operations &amp; Support'!A9)</f>
         <v/>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="39">
         <f>IF('Operations &amp; Support'!B9="","",'Operations &amp; Support'!B9)</f>
         <v/>
       </c>
-      <c r="C51" s="27">
+      <c r="C51" s="39">
         <f>IF('Operations &amp; Support'!C9="","",'Operations &amp; Support'!C9)</f>
         <v/>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="39">
         <f>IF('Operations &amp; Support'!D9="","",'Operations &amp; Support'!D9)</f>
         <v/>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="39">
         <f>IF('Operations &amp; Support'!E9="","",'Operations &amp; Support'!E9)</f>
         <v/>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="40">
         <f>IF('Operations &amp; Support'!F9="","",'Operations &amp; Support'!F9)</f>
         <v/>
       </c>
-      <c r="G51" s="27">
+      <c r="G51" s="39">
         <f>IF('Operations &amp; Support'!G9="","",'Operations &amp; Support'!G9)</f>
         <v/>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="29">
+      <c r="A52" s="41">
         <f>IF('Operations &amp; Support'!A10="","",'Operations &amp; Support'!A10)</f>
         <v/>
       </c>
-      <c r="B52" s="29">
+      <c r="B52" s="41">
         <f>IF('Operations &amp; Support'!B10="","",'Operations &amp; Support'!B10)</f>
         <v/>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="41">
         <f>IF('Operations &amp; Support'!C10="","",'Operations &amp; Support'!C10)</f>
         <v/>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="41">
         <f>IF('Operations &amp; Support'!D10="","",'Operations &amp; Support'!D10)</f>
         <v/>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="41">
         <f>IF('Operations &amp; Support'!E10="","",'Operations &amp; Support'!E10)</f>
         <v/>
       </c>
-      <c r="F52" s="28">
+      <c r="F52" s="40">
         <f>IF('Operations &amp; Support'!F10="","",'Operations &amp; Support'!F10)</f>
         <v/>
       </c>
-      <c r="G52" s="29">
+      <c r="G52" s="41">
         <f>IF('Operations &amp; Support'!G10="","",'Operations &amp; Support'!G10)</f>
         <v/>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="27">
+      <c r="A53" s="39">
         <f>IF('Operations &amp; Support'!A11="","",'Operations &amp; Support'!A11)</f>
         <v/>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="39">
         <f>IF('Operations &amp; Support'!B11="","",'Operations &amp; Support'!B11)</f>
         <v/>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="39">
         <f>IF('Operations &amp; Support'!C11="","",'Operations &amp; Support'!C11)</f>
         <v/>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="39">
         <f>IF('Operations &amp; Support'!D11="","",'Operations &amp; Support'!D11)</f>
         <v/>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="39">
         <f>IF('Operations &amp; Support'!E11="","",'Operations &amp; Support'!E11)</f>
         <v/>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="40">
         <f>IF('Operations &amp; Support'!F11="","",'Operations &amp; Support'!F11)</f>
         <v/>
       </c>
-      <c r="G53" s="27">
+      <c r="G53" s="39">
         <f>IF('Operations &amp; Support'!G11="","",'Operations &amp; Support'!G11)</f>
         <v/>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="29">
+      <c r="A54" s="41">
         <f>IF('Implementation Planning'!A2="","",'Implementation Planning'!A2)</f>
         <v/>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="41">
         <f>IF('Implementation Planning'!B2="","",'Implementation Planning'!B2)</f>
         <v/>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="41">
         <f>IF('Implementation Planning'!C2="","",'Implementation Planning'!C2)</f>
         <v/>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="41">
         <f>IF('Implementation Planning'!D2="","",'Implementation Planning'!D2)</f>
         <v/>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="41">
         <f>IF('Implementation Planning'!E2="","",'Implementation Planning'!E2)</f>
         <v/>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="40">
         <f>IF('Implementation Planning'!F2="","",'Implementation Planning'!F2)</f>
         <v/>
       </c>
-      <c r="G54" s="29">
+      <c r="G54" s="41">
         <f>IF('Implementation Planning'!G2="","",'Implementation Planning'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="27">
+      <c r="A55" s="39">
         <f>IF('Implementation Planning'!A3="","",'Implementation Planning'!A3)</f>
         <v/>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="39">
         <f>IF('Implementation Planning'!B3="","",'Implementation Planning'!B3)</f>
         <v/>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="39">
         <f>IF('Implementation Planning'!C3="","",'Implementation Planning'!C3)</f>
         <v/>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="39">
         <f>IF('Implementation Planning'!D3="","",'Implementation Planning'!D3)</f>
         <v/>
       </c>
-      <c r="E55" s="27">
+      <c r="E55" s="39">
         <f>IF('Implementation Planning'!E3="","",'Implementation Planning'!E3)</f>
         <v/>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="40">
         <f>IF('Implementation Planning'!F3="","",'Implementation Planning'!F3)</f>
         <v/>
       </c>
-      <c r="G55" s="27">
+      <c r="G55" s="39">
         <f>IF('Implementation Planning'!G3="","",'Implementation Planning'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="29">
+      <c r="A56" s="41">
         <f>IF('Implementation Planning'!A4="","",'Implementation Planning'!A4)</f>
         <v/>
       </c>
-      <c r="B56" s="29">
+      <c r="B56" s="41">
         <f>IF('Implementation Planning'!B4="","",'Implementation Planning'!B4)</f>
         <v/>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="41">
         <f>IF('Implementation Planning'!C4="","",'Implementation Planning'!C4)</f>
         <v/>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="41">
         <f>IF('Implementation Planning'!D4="","",'Implementation Planning'!D4)</f>
         <v/>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="41">
         <f>IF('Implementation Planning'!E4="","",'Implementation Planning'!E4)</f>
         <v/>
       </c>
-      <c r="F56" s="28">
+      <c r="F56" s="40">
         <f>IF('Implementation Planning'!F4="","",'Implementation Planning'!F4)</f>
         <v/>
       </c>
-      <c r="G56" s="29">
+      <c r="G56" s="41">
         <f>IF('Implementation Planning'!G4="","",'Implementation Planning'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="27">
+      <c r="A57" s="39">
         <f>IF('Implementation Planning'!A5="","",'Implementation Planning'!A5)</f>
         <v/>
       </c>
-      <c r="B57" s="27">
+      <c r="B57" s="39">
         <f>IF('Implementation Planning'!B5="","",'Implementation Planning'!B5)</f>
         <v/>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="39">
         <f>IF('Implementation Planning'!C5="","",'Implementation Planning'!C5)</f>
         <v/>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="39">
         <f>IF('Implementation Planning'!D5="","",'Implementation Planning'!D5)</f>
         <v/>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="39">
         <f>IF('Implementation Planning'!E5="","",'Implementation Planning'!E5)</f>
         <v/>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="40">
         <f>IF('Implementation Planning'!F5="","",'Implementation Planning'!F5)</f>
         <v/>
       </c>
-      <c r="G57" s="27">
+      <c r="G57" s="39">
         <f>IF('Implementation Planning'!G5="","",'Implementation Planning'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="29">
+      <c r="A58" s="41">
         <f>IF('Implementation Planning'!A6="","",'Implementation Planning'!A6)</f>
         <v/>
       </c>
-      <c r="B58" s="29">
+      <c r="B58" s="41">
         <f>IF('Implementation Planning'!B6="","",'Implementation Planning'!B6)</f>
         <v/>
       </c>
-      <c r="C58" s="29">
+      <c r="C58" s="41">
         <f>IF('Implementation Planning'!C6="","",'Implementation Planning'!C6)</f>
         <v/>
       </c>
-      <c r="D58" s="29">
+      <c r="D58" s="41">
         <f>IF('Implementation Planning'!D6="","",'Implementation Planning'!D6)</f>
         <v/>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="41">
         <f>IF('Implementation Planning'!E6="","",'Implementation Planning'!E6)</f>
         <v/>
       </c>
-      <c r="F58" s="28">
+      <c r="F58" s="40">
         <f>IF('Implementation Planning'!F6="","",'Implementation Planning'!F6)</f>
         <v/>
       </c>
-      <c r="G58" s="29">
+      <c r="G58" s="41">
         <f>IF('Implementation Planning'!G6="","",'Implementation Planning'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="27">
+      <c r="A59" s="39">
         <f>IF('Implementation Planning'!A7="","",'Implementation Planning'!A7)</f>
         <v/>
       </c>
-      <c r="B59" s="27">
+      <c r="B59" s="39">
         <f>IF('Implementation Planning'!B7="","",'Implementation Planning'!B7)</f>
         <v/>
       </c>
-      <c r="C59" s="27">
+      <c r="C59" s="39">
         <f>IF('Implementation Planning'!C7="","",'Implementation Planning'!C7)</f>
         <v/>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="39">
         <f>IF('Implementation Planning'!D7="","",'Implementation Planning'!D7)</f>
         <v/>
       </c>
-      <c r="E59" s="27">
+      <c r="E59" s="39">
         <f>IF('Implementation Planning'!E7="","",'Implementation Planning'!E7)</f>
         <v/>
       </c>
-      <c r="F59" s="28">
+      <c r="F59" s="40">
         <f>IF('Implementation Planning'!F7="","",'Implementation Planning'!F7)</f>
         <v/>
       </c>
-      <c r="G59" s="27">
+      <c r="G59" s="39">
         <f>IF('Implementation Planning'!G7="","",'Implementation Planning'!G7)</f>
         <v/>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="29">
+      <c r="A60" s="41">
         <f>IF('Implementation Planning'!A8="","",'Implementation Planning'!A8)</f>
         <v/>
       </c>
-      <c r="B60" s="29">
+      <c r="B60" s="41">
         <f>IF('Implementation Planning'!B8="","",'Implementation Planning'!B8)</f>
         <v/>
       </c>
-      <c r="C60" s="29">
+      <c r="C60" s="41">
         <f>IF('Implementation Planning'!C8="","",'Implementation Planning'!C8)</f>
         <v/>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="41">
         <f>IF('Implementation Planning'!D8="","",'Implementation Planning'!D8)</f>
         <v/>
       </c>
-      <c r="E60" s="29">
+      <c r="E60" s="41">
         <f>IF('Implementation Planning'!E8="","",'Implementation Planning'!E8)</f>
         <v/>
       </c>
-      <c r="F60" s="28">
+      <c r="F60" s="40">
         <f>IF('Implementation Planning'!F8="","",'Implementation Planning'!F8)</f>
         <v/>
       </c>
-      <c r="G60" s="29">
+      <c r="G60" s="41">
         <f>IF('Implementation Planning'!G8="","",'Implementation Planning'!G8)</f>
         <v/>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="27">
+      <c r="A61" s="39">
         <f>IF('Implementation Planning'!A9="","",'Implementation Planning'!A9)</f>
         <v/>
       </c>
-      <c r="B61" s="27">
+      <c r="B61" s="39">
         <f>IF('Implementation Planning'!B9="","",'Implementation Planning'!B9)</f>
         <v/>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="39">
         <f>IF('Implementation Planning'!C9="","",'Implementation Planning'!C9)</f>
         <v/>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="39">
         <f>IF('Implementation Planning'!D9="","",'Implementation Planning'!D9)</f>
         <v/>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="39">
         <f>IF('Implementation Planning'!E9="","",'Implementation Planning'!E9)</f>
         <v/>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="40">
         <f>IF('Implementation Planning'!F9="","",'Implementation Planning'!F9)</f>
         <v/>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="39">
         <f>IF('Implementation Planning'!G9="","",'Implementation Planning'!G9)</f>
         <v/>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="29">
+      <c r="A62" s="41">
         <f>IF('Implementation Planning'!A10="","",'Implementation Planning'!A10)</f>
         <v/>
       </c>
-      <c r="B62" s="29">
+      <c r="B62" s="41">
         <f>IF('Implementation Planning'!B10="","",'Implementation Planning'!B10)</f>
         <v/>
       </c>
-      <c r="C62" s="29">
+      <c r="C62" s="41">
         <f>IF('Implementation Planning'!C10="","",'Implementation Planning'!C10)</f>
         <v/>
       </c>
-      <c r="D62" s="29">
+      <c r="D62" s="41">
         <f>IF('Implementation Planning'!D10="","",'Implementation Planning'!D10)</f>
         <v/>
       </c>
-      <c r="E62" s="29">
+      <c r="E62" s="41">
         <f>IF('Implementation Planning'!E10="","",'Implementation Planning'!E10)</f>
         <v/>
       </c>
-      <c r="F62" s="28">
+      <c r="F62" s="40">
         <f>IF('Implementation Planning'!F10="","",'Implementation Planning'!F10)</f>
         <v/>
       </c>
-      <c r="G62" s="29">
+      <c r="G62" s="41">
         <f>IF('Implementation Planning'!G10="","",'Implementation Planning'!G10)</f>
         <v/>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="27">
+      <c r="A63" s="39">
         <f>IF('Implementation Planning'!A11="","",'Implementation Planning'!A11)</f>
         <v/>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="39">
         <f>IF('Implementation Planning'!B11="","",'Implementation Planning'!B11)</f>
         <v/>
       </c>
-      <c r="C63" s="27">
+      <c r="C63" s="39">
         <f>IF('Implementation Planning'!C11="","",'Implementation Planning'!C11)</f>
         <v/>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="39">
         <f>IF('Implementation Planning'!D11="","",'Implementation Planning'!D11)</f>
         <v/>
       </c>
-      <c r="E63" s="27">
+      <c r="E63" s="39">
         <f>IF('Implementation Planning'!E11="","",'Implementation Planning'!E11)</f>
         <v/>
       </c>
-      <c r="F63" s="28">
+      <c r="F63" s="40">
         <f>IF('Implementation Planning'!F11="","",'Implementation Planning'!F11)</f>
         <v/>
       </c>
-      <c r="G63" s="27">
+      <c r="G63" s="39">
         <f>IF('Implementation Planning'!G11="","",'Implementation Planning'!G11)</f>
         <v/>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="29">
+      <c r="A64" s="41">
         <f>IF('Risk &amp; Constraints'!A2="","",'Risk &amp; Constraints'!A2)</f>
         <v/>
       </c>
-      <c r="B64" s="29">
+      <c r="B64" s="41">
         <f>IF('Risk &amp; Constraints'!B2="","",'Risk &amp; Constraints'!B2)</f>
         <v/>
       </c>
-      <c r="C64" s="29">
+      <c r="C64" s="41">
         <f>IF('Risk &amp; Constraints'!C2="","",'Risk &amp; Constraints'!C2)</f>
         <v/>
       </c>
-      <c r="D64" s="29">
+      <c r="D64" s="41">
         <f>IF('Risk &amp; Constraints'!D2="","",'Risk &amp; Constraints'!D2)</f>
         <v/>
       </c>
-      <c r="E64" s="29">
+      <c r="E64" s="41">
         <f>IF('Risk &amp; Constraints'!E2="","",'Risk &amp; Constraints'!E2)</f>
         <v/>
       </c>
-      <c r="F64" s="28">
+      <c r="F64" s="40">
         <f>IF('Risk &amp; Constraints'!F2="","",'Risk &amp; Constraints'!F2)</f>
         <v/>
       </c>
-      <c r="G64" s="29">
+      <c r="G64" s="41">
         <f>IF('Risk &amp; Constraints'!G2="","",'Risk &amp; Constraints'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="27">
+      <c r="A65" s="39">
         <f>IF('Risk &amp; Constraints'!A3="","",'Risk &amp; Constraints'!A3)</f>
         <v/>
       </c>
-      <c r="B65" s="27">
+      <c r="B65" s="39">
         <f>IF('Risk &amp; Constraints'!B3="","",'Risk &amp; Constraints'!B3)</f>
         <v/>
       </c>
-      <c r="C65" s="27">
+      <c r="C65" s="39">
         <f>IF('Risk &amp; Constraints'!C3="","",'Risk &amp; Constraints'!C3)</f>
         <v/>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="39">
         <f>IF('Risk &amp; Constraints'!D3="","",'Risk &amp; Constraints'!D3)</f>
         <v/>
       </c>
-      <c r="E65" s="27">
+      <c r="E65" s="39">
         <f>IF('Risk &amp; Constraints'!E3="","",'Risk &amp; Constraints'!E3)</f>
         <v/>
       </c>
-      <c r="F65" s="28">
+      <c r="F65" s="40">
         <f>IF('Risk &amp; Constraints'!F3="","",'Risk &amp; Constraints'!F3)</f>
         <v/>
       </c>
-      <c r="G65" s="27">
+      <c r="G65" s="39">
         <f>IF('Risk &amp; Constraints'!G3="","",'Risk &amp; Constraints'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="29">
+      <c r="A66" s="41">
         <f>IF('Risk &amp; Constraints'!A4="","",'Risk &amp; Constraints'!A4)</f>
         <v/>
       </c>
-      <c r="B66" s="29">
+      <c r="B66" s="41">
         <f>IF('Risk &amp; Constraints'!B4="","",'Risk &amp; Constraints'!B4)</f>
         <v/>
       </c>
-      <c r="C66" s="29">
+      <c r="C66" s="41">
         <f>IF('Risk &amp; Constraints'!C4="","",'Risk &amp; Constraints'!C4)</f>
         <v/>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="41">
         <f>IF('Risk &amp; Constraints'!D4="","",'Risk &amp; Constraints'!D4)</f>
         <v/>
       </c>
-      <c r="E66" s="29">
+      <c r="E66" s="41">
         <f>IF('Risk &amp; Constraints'!E4="","",'Risk &amp; Constraints'!E4)</f>
         <v/>
       </c>
-      <c r="F66" s="28">
+      <c r="F66" s="40">
         <f>IF('Risk &amp; Constraints'!F4="","",'Risk &amp; Constraints'!F4)</f>
         <v/>
       </c>
-      <c r="G66" s="29">
+      <c r="G66" s="41">
         <f>IF('Risk &amp; Constraints'!G4="","",'Risk &amp; Constraints'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="27">
+      <c r="A67" s="39">
         <f>IF('Risk &amp; Constraints'!A5="","",'Risk &amp; Constraints'!A5)</f>
         <v/>
       </c>
-      <c r="B67" s="27">
+      <c r="B67" s="39">
         <f>IF('Risk &amp; Constraints'!B5="","",'Risk &amp; Constraints'!B5)</f>
         <v/>
       </c>
-      <c r="C67" s="27">
+      <c r="C67" s="39">
         <f>IF('Risk &amp; Constraints'!C5="","",'Risk &amp; Constraints'!C5)</f>
         <v/>
       </c>
-      <c r="D67" s="27">
+      <c r="D67" s="39">
         <f>IF('Risk &amp; Constraints'!D5="","",'Risk &amp; Constraints'!D5)</f>
         <v/>
       </c>
-      <c r="E67" s="27">
+      <c r="E67" s="39">
         <f>IF('Risk &amp; Constraints'!E5="","",'Risk &amp; Constraints'!E5)</f>
         <v/>
       </c>
-      <c r="F67" s="28">
+      <c r="F67" s="40">
         <f>IF('Risk &amp; Constraints'!F5="","",'Risk &amp; Constraints'!F5)</f>
         <v/>
       </c>
-      <c r="G67" s="27">
+      <c r="G67" s="39">
         <f>IF('Risk &amp; Constraints'!G5="","",'Risk &amp; Constraints'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="29">
+      <c r="A68" s="41">
         <f>IF('Risk &amp; Constraints'!A6="","",'Risk &amp; Constraints'!A6)</f>
         <v/>
       </c>
-      <c r="B68" s="29">
+      <c r="B68" s="41">
         <f>IF('Risk &amp; Constraints'!B6="","",'Risk &amp; Constraints'!B6)</f>
         <v/>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="41">
         <f>IF('Risk &amp; Constraints'!C6="","",'Risk &amp; Constraints'!C6)</f>
         <v/>
       </c>
-      <c r="D68" s="29">
+      <c r="D68" s="41">
         <f>IF('Risk &amp; Constraints'!D6="","",'Risk &amp; Constraints'!D6)</f>
         <v/>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="41">
         <f>IF('Risk &amp; Constraints'!E6="","",'Risk &amp; Constraints'!E6)</f>
         <v/>
       </c>
-      <c r="F68" s="28">
+      <c r="F68" s="40">
         <f>IF('Risk &amp; Constraints'!F6="","",'Risk &amp; Constraints'!F6)</f>
         <v/>
       </c>
-      <c r="G68" s="29">
+      <c r="G68" s="41">
         <f>IF('Risk &amp; Constraints'!G6="","",'Risk &amp; Constraints'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="27">
+      <c r="A69" s="39">
         <f>IF('Risk &amp; Constraints'!A7="","",'Risk &amp; Constraints'!A7)</f>
         <v/>
       </c>
-      <c r="B69" s="27">
+      <c r="B69" s="39">
         <f>IF('Risk &amp; Constraints'!B7="","",'Risk &amp; Constraints'!B7)</f>
         <v/>
       </c>
-      <c r="C69" s="27">
+      <c r="C69" s="39">
         <f>IF('Risk &amp; Constraints'!C7="","",'Risk &amp; Constraints'!C7)</f>
         <v/>
       </c>
-      <c r="D69" s="27">
+      <c r="D69" s="39">
         <f>IF('Risk &amp; Constraints'!D7="","",'Risk &amp; Constraints'!D7)</f>
         <v/>
       </c>
-      <c r="E69" s="27">
+      <c r="E69" s="39">
         <f>IF('Risk &amp; Constraints'!E7="","",'Risk &amp; Constraints'!E7)</f>
         <v/>
       </c>
-      <c r="F69" s="28">
+      <c r="F69" s="40">
         <f>IF('Risk &amp; Constraints'!F7="","",'Risk &amp; Constraints'!F7)</f>
         <v/>
       </c>
-      <c r="G69" s="27">
+      <c r="G69" s="39">
         <f>IF('Risk &amp; Constraints'!G7="","",'Risk &amp; Constraints'!G7)</f>
         <v/>
       </c>
@@ -2867,433 +2921,433 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="38" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="38" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="38" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="38" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="38" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="26" t="inlineStr">
+      <c r="F1" s="38" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="38" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="inlineStr">
+      <c r="A2" s="41" t="inlineStr">
         <is>
           <t>BUS-001</t>
         </is>
       </c>
-      <c r="B2" s="29" t="inlineStr">
+      <c r="B2" s="41" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C2" s="41" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="D2" s="29" t="inlineStr">
+      <c r="D2" s="41" t="inlineStr">
         <is>
           <t>What is the name of your Intelligent Document Processing solution?</t>
         </is>
       </c>
-      <c r="E2" s="29" t="inlineStr">
+      <c r="E2" s="41" t="inlineStr">
         <is>
           <t>Provide internal project reference name</t>
         </is>
       </c>
-      <c r="F2" s="28" t="n"/>
-      <c r="G2" s="29" t="inlineStr">
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="41" t="inlineStr">
         <is>
           <t>Internal project reference for tracking</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>BUS-002</t>
         </is>
       </c>
-      <c r="B3" s="27" t="inlineStr">
+      <c r="B3" s="39" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C3" s="27" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
         <is>
           <t>Project Information</t>
         </is>
       </c>
-      <c r="D3" s="27" t="inlineStr">
+      <c r="D3" s="39" t="inlineStr">
         <is>
           <t>Who is the primary stakeholder for this IDP project?</t>
         </is>
       </c>
-      <c r="E3" s="27" t="inlineStr">
+      <c r="E3" s="39" t="inlineStr">
         <is>
           <t>Name, role, and decision-making authority</t>
         </is>
       </c>
-      <c r="F3" s="28" t="n"/>
-      <c r="G3" s="27" t="inlineStr">
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="39" t="inlineStr">
         <is>
           <t>Main point of contact and decision authority</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="inlineStr">
+      <c r="A4" s="41" t="inlineStr">
         <is>
           <t>BUS-003</t>
         </is>
       </c>
-      <c r="B4" s="29" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C4" s="29" t="inlineStr">
+      <c r="C4" s="41" t="inlineStr">
         <is>
           <t>Business Drivers</t>
         </is>
       </c>
-      <c r="D4" s="29" t="inlineStr">
+      <c r="D4" s="41" t="inlineStr">
         <is>
           <t>What document processing challenges are you trying to solve?</t>
         </is>
       </c>
-      <c r="E4" s="29" t="inlineStr">
+      <c r="E4" s="41" t="inlineStr">
         <is>
           <t>Common challenges: Manual data entry, Document classification errors, Slow processing times, High operational costs, Compliance issues, Data accuracy problems</t>
         </is>
       </c>
-      <c r="F4" s="28" t="n"/>
-      <c r="G4" s="29" t="inlineStr">
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="41" t="inlineStr">
         <is>
           <t>Primary business driver for IDP investment</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>BUS-004</t>
         </is>
       </c>
-      <c r="B5" s="27" t="inlineStr">
+      <c r="B5" s="39" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C5" s="27" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D5" s="27" t="inlineStr">
+      <c r="D5" s="39" t="inlineStr">
         <is>
           <t>What is your current document processing workflow?</t>
         </is>
       </c>
-      <c r="E5" s="27" t="inlineStr">
+      <c r="E5" s="39" t="inlineStr">
         <is>
           <t>Describe manual steps, systems involved, and pain points</t>
         </is>
       </c>
-      <c r="F5" s="28" t="n"/>
-      <c r="G5" s="27" t="inlineStr">
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="39" t="inlineStr">
         <is>
           <t>Current state baseline assessment</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="inlineStr">
+      <c r="A6" s="41" t="inlineStr">
         <is>
           <t>BUS-005</t>
         </is>
       </c>
-      <c r="B6" s="29" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C6" s="29" t="inlineStr">
+      <c r="C6" s="41" t="inlineStr">
         <is>
           <t>Current State</t>
         </is>
       </c>
-      <c r="D6" s="29" t="inlineStr">
+      <c r="D6" s="41" t="inlineStr">
         <is>
           <t>What types of documents do you process regularly?</t>
         </is>
       </c>
-      <c r="E6" s="29" t="inlineStr">
+      <c r="E6" s="41" t="inlineStr">
         <is>
           <t>Common types: Invoices, Contracts, Insurance claims, Medical records, Tax documents, Legal documents, Forms, Letters</t>
         </is>
       </c>
-      <c r="F6" s="28" t="n"/>
-      <c r="G6" s="29" t="inlineStr">
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="41" t="inlineStr">
         <is>
           <t>Document type classification and scope</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="inlineStr">
+      <c r="A7" s="39" t="inlineStr">
         <is>
           <t>BUS-006</t>
         </is>
       </c>
-      <c r="B7" s="27" t="inlineStr">
+      <c r="B7" s="39" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C7" s="27" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
         <is>
           <t>Volume</t>
         </is>
       </c>
-      <c r="D7" s="27" t="inlineStr">
+      <c r="D7" s="39" t="inlineStr">
         <is>
           <t>What volume of documents do you process monthly?</t>
         </is>
       </c>
-      <c r="E7" s="27" t="inlineStr">
+      <c r="E7" s="39" t="inlineStr">
         <is>
           <t>Typical ranges: 1-100, 101-1000, 1001-10000, 10000+</t>
         </is>
       </c>
-      <c r="F7" s="28" t="n"/>
-      <c r="G7" s="27" t="inlineStr">
+      <c r="F7" s="40" t="n"/>
+      <c r="G7" s="39" t="inlineStr">
         <is>
           <t>Processing volume drives infrastructure sizing</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="inlineStr">
+      <c r="A8" s="41" t="inlineStr">
         <is>
           <t>BUS-007</t>
         </is>
       </c>
-      <c r="B8" s="29" t="inlineStr">
+      <c r="B8" s="41" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C8" s="29" t="inlineStr">
+      <c r="C8" s="41" t="inlineStr">
         <is>
           <t>Objectives</t>
         </is>
       </c>
-      <c r="D8" s="29" t="inlineStr">
+      <c r="D8" s="41" t="inlineStr">
         <is>
           <t>What are your primary goals for implementing IDP?</t>
         </is>
       </c>
-      <c r="E8" s="29" t="inlineStr">
+      <c r="E8" s="41" t="inlineStr">
         <is>
           <t>Common goals: Reduce manual data entry, Improve processing speed, Increase accuracy, Lower operational costs, Ensure compliance, Enable scalability</t>
         </is>
       </c>
-      <c r="F8" s="28" t="n"/>
-      <c r="G8" s="29" t="inlineStr">
+      <c r="F8" s="40" t="n"/>
+      <c r="G8" s="41" t="inlineStr">
         <is>
           <t>Business objectives and expected outcomes</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="inlineStr">
+      <c r="A9" s="39" t="inlineStr">
         <is>
           <t>BUS-008</t>
         </is>
       </c>
-      <c r="B9" s="27" t="inlineStr">
+      <c r="B9" s="39" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C9" s="27" t="inlineStr">
+      <c r="C9" s="39" t="inlineStr">
         <is>
           <t>Success Criteria</t>
         </is>
       </c>
-      <c r="D9" s="27" t="inlineStr">
+      <c r="D9" s="39" t="inlineStr">
         <is>
           <t>How will you measure IDP success?</t>
         </is>
       </c>
-      <c r="E9" s="27" t="inlineStr">
+      <c r="E9" s="39" t="inlineStr">
         <is>
           <t>Define KPIs: accuracy %, processing time reduction, cost savings, error rate reduction</t>
         </is>
       </c>
-      <c r="F9" s="28" t="n"/>
-      <c r="G9" s="27" t="inlineStr">
+      <c r="F9" s="40" t="n"/>
+      <c r="G9" s="39" t="inlineStr">
         <is>
           <t>Success metrics for project evaluation</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="inlineStr">
+      <c r="A10" s="41" t="inlineStr">
         <is>
           <t>BUS-009</t>
         </is>
       </c>
-      <c r="B10" s="29" t="inlineStr">
+      <c r="B10" s="41" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C10" s="29" t="inlineStr">
+      <c r="C10" s="41" t="inlineStr">
         <is>
           <t>Timeline</t>
         </is>
       </c>
-      <c r="D10" s="29" t="inlineStr">
+      <c r="D10" s="41" t="inlineStr">
         <is>
           <t>What is your expected timeline for IDP implementation?</t>
         </is>
       </c>
-      <c r="E10" s="29" t="inlineStr">
+      <c r="E10" s="41" t="inlineStr">
         <is>
           <t>Typical ranges: 0-3 months, 3-6 months, 6-12 months, 12+ months</t>
         </is>
       </c>
-      <c r="F10" s="28" t="n"/>
-      <c r="G10" s="29" t="inlineStr">
+      <c r="F10" s="40" t="n"/>
+      <c r="G10" s="41" t="inlineStr">
         <is>
           <t>Project timeline expectations and constraints</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="inlineStr">
+      <c r="A11" s="39" t="inlineStr">
         <is>
           <t>BUS-010</t>
         </is>
       </c>
-      <c r="B11" s="27" t="inlineStr">
+      <c r="B11" s="39" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C11" s="27" t="inlineStr">
+      <c r="C11" s="39" t="inlineStr">
         <is>
           <t>Budget</t>
         </is>
       </c>
-      <c r="D11" s="27" t="inlineStr">
+      <c r="D11" s="39" t="inlineStr">
         <is>
           <t>What is your approved budget range for this IDP solution?</t>
         </is>
       </c>
-      <c r="E11" s="27" t="inlineStr">
+      <c r="E11" s="39" t="inlineStr">
         <is>
           <t>Common ranges: $0-50K, $50K-250K, $250K-1M, $1M+. Include both CapEx and OpEx</t>
         </is>
       </c>
-      <c r="F11" s="28" t="n"/>
-      <c r="G11" s="27" t="inlineStr">
+      <c r="F11" s="40" t="n"/>
+      <c r="G11" s="39" t="inlineStr">
         <is>
           <t>Budget constraints for solution sizing</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="inlineStr">
+      <c r="A12" s="41" t="inlineStr">
         <is>
           <t>BUS-011</t>
         </is>
       </c>
-      <c r="B12" s="29" t="inlineStr">
+      <c r="B12" s="41" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C12" s="29" t="inlineStr">
+      <c r="C12" s="41" t="inlineStr">
         <is>
           <t>Future Vision</t>
         </is>
       </c>
-      <c r="D12" s="29" t="inlineStr">
+      <c r="D12" s="41" t="inlineStr">
         <is>
           <t>What is your long-term vision for document processing automation?</t>
         </is>
       </c>
-      <c r="E12" s="29" t="inlineStr">
+      <c r="E12" s="41" t="inlineStr">
         <is>
           <t>Consider expansion to other document types, departments, or processes</t>
         </is>
       </c>
-      <c r="F12" s="28" t="n"/>
-      <c r="G12" s="29" t="inlineStr">
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="41" t="inlineStr">
         <is>
           <t>Future roadmap and scalability planning</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="27" t="inlineStr">
+      <c r="A13" s="39" t="inlineStr">
         <is>
           <t>BUS-012</t>
         </is>
       </c>
-      <c r="B13" s="27" t="inlineStr">
+      <c r="B13" s="39" t="inlineStr">
         <is>
           <t>Business Requirements</t>
         </is>
       </c>
-      <c r="C13" s="27" t="inlineStr">
+      <c r="C13" s="39" t="inlineStr">
         <is>
           <t>Growth Projections</t>
         </is>
       </c>
-      <c r="D13" s="27" t="inlineStr">
+      <c r="D13" s="39" t="inlineStr">
         <is>
           <t>How do you expect document processing volumes to change over 3 years?</t>
         </is>
       </c>
-      <c r="E13" s="27" t="inlineStr">
+      <c r="E13" s="39" t="inlineStr">
         <is>
           <t>Provide current volume and projected annual growth rate</t>
         </is>
       </c>
-      <c r="F13" s="28" t="n"/>
-      <c r="G13" s="27" t="inlineStr">
+      <c r="F13" s="40" t="n"/>
+      <c r="G13" s="39" t="inlineStr">
         <is>
           <t>Scalability requirements and capacity planning</t>
         </is>
@@ -3329,664 +3383,664 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="38" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="38" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="38" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="38" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="38" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="26" t="inlineStr">
+      <c r="F1" s="38" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="38" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="inlineStr">
+      <c r="A2" s="41" t="inlineStr">
         <is>
           <t>TECH-001</t>
         </is>
       </c>
-      <c r="B2" s="29" t="inlineStr">
+      <c r="B2" s="41" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C2" s="41" t="inlineStr">
         <is>
           <t>AWS Environment</t>
         </is>
       </c>
-      <c r="D2" s="29" t="inlineStr">
+      <c r="D2" s="41" t="inlineStr">
         <is>
           <t>What AWS services are you currently using?</t>
         </is>
       </c>
-      <c r="E2" s="29" t="inlineStr">
+      <c r="E2" s="41" t="inlineStr">
         <is>
           <t>AWS services: S3, Lambda, API Gateway, Textract, Comprehend, SageMaker, None, Other</t>
         </is>
       </c>
-      <c r="F2" s="28" t="n"/>
-      <c r="G2" s="29" t="inlineStr">
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="41" t="inlineStr">
         <is>
           <t>Current AWS footprint and existing infrastructure</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>TECH-002</t>
         </is>
       </c>
-      <c r="B3" s="27" t="inlineStr">
+      <c r="B3" s="39" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C3" s="27" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
         <is>
           <t>AWS Environment</t>
         </is>
       </c>
-      <c r="D3" s="27" t="inlineStr">
+      <c r="D3" s="39" t="inlineStr">
         <is>
           <t>What AWS region(s) do you prefer for data processing?</t>
         </is>
       </c>
-      <c r="E3" s="27" t="inlineStr">
+      <c r="E3" s="39" t="inlineStr">
         <is>
           <t>Consider data residency, latency, and compliance requirements</t>
         </is>
       </c>
-      <c r="F3" s="28" t="n"/>
-      <c r="G3" s="27" t="inlineStr">
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="39" t="inlineStr">
         <is>
           <t>Regional deployment requirements</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="inlineStr">
+      <c r="A4" s="41" t="inlineStr">
         <is>
           <t>TECH-003</t>
         </is>
       </c>
-      <c r="B4" s="29" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C4" s="29" t="inlineStr">
+      <c r="C4" s="41" t="inlineStr">
         <is>
           <t>Document Specifications</t>
         </is>
       </c>
-      <c r="D4" s="29" t="inlineStr">
+      <c r="D4" s="41" t="inlineStr">
         <is>
           <t>What specific document types need automated processing?</t>
         </is>
       </c>
-      <c r="E4" s="29" t="inlineStr">
+      <c r="E4" s="41" t="inlineStr">
         <is>
           <t>List each type with typical monthly volume</t>
         </is>
       </c>
-      <c r="F4" s="28" t="n"/>
-      <c r="G4" s="29" t="inlineStr">
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="41" t="inlineStr">
         <is>
           <t>Detailed document classification and prioritization</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>TECH-004</t>
         </is>
       </c>
-      <c r="B5" s="27" t="inlineStr">
+      <c r="B5" s="39" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C5" s="27" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>Document Structure</t>
         </is>
       </c>
-      <c r="D5" s="27" t="inlineStr">
+      <c r="D5" s="39" t="inlineStr">
         <is>
           <t>Are your documents structured semi-structured or unstructured?</t>
         </is>
       </c>
-      <c r="E5" s="27" t="inlineStr">
+      <c r="E5" s="39" t="inlineStr">
         <is>
           <t>Types: Structured forms, Semi-structured invoices, Unstructured letters, Mixed types</t>
         </is>
       </c>
-      <c r="F5" s="28" t="n"/>
-      <c r="G5" s="27" t="inlineStr">
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="39" t="inlineStr">
         <is>
           <t>Document structure affects extraction complexity</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="inlineStr">
+      <c r="A6" s="41" t="inlineStr">
         <is>
           <t>TECH-005</t>
         </is>
       </c>
-      <c r="B6" s="29" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C6" s="29" t="inlineStr">
+      <c r="C6" s="41" t="inlineStr">
         <is>
           <t>Document Quality</t>
         </is>
       </c>
-      <c r="D6" s="29" t="inlineStr">
+      <c r="D6" s="41" t="inlineStr">
         <is>
           <t>What is the typical quality of your source documents?</t>
         </is>
       </c>
-      <c r="E6" s="29" t="inlineStr">
+      <c r="E6" s="41" t="inlineStr">
         <is>
           <t>Quality levels: High quality digital, Good quality scanned, Poor quality scanned, Handwritten, Mixed quality</t>
         </is>
       </c>
-      <c r="F6" s="28" t="n"/>
-      <c r="G6" s="29" t="inlineStr">
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="41" t="inlineStr">
         <is>
           <t>OCR accuracy expectations and preprocessing needs</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="inlineStr">
+      <c r="A7" s="39" t="inlineStr">
         <is>
           <t>TECH-006</t>
         </is>
       </c>
-      <c r="B7" s="27" t="inlineStr">
+      <c r="B7" s="39" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C7" s="27" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
         <is>
           <t>Document Languages</t>
         </is>
       </c>
-      <c r="D7" s="27" t="inlineStr">
+      <c r="D7" s="39" t="inlineStr">
         <is>
           <t>What languages appear in your documents?</t>
         </is>
       </c>
-      <c r="E7" s="27" t="inlineStr">
+      <c r="E7" s="39" t="inlineStr">
         <is>
           <t>List all languages; multi-language affects model selection</t>
         </is>
       </c>
-      <c r="F7" s="28" t="n"/>
-      <c r="G7" s="27" t="inlineStr">
+      <c r="F7" s="40" t="n"/>
+      <c r="G7" s="39" t="inlineStr">
         <is>
           <t>Multi-language processing requirements</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="inlineStr">
+      <c r="A8" s="41" t="inlineStr">
         <is>
           <t>TECH-007</t>
         </is>
       </c>
-      <c r="B8" s="29" t="inlineStr">
+      <c r="B8" s="41" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C8" s="29" t="inlineStr">
+      <c r="C8" s="41" t="inlineStr">
         <is>
           <t>Document Variations</t>
         </is>
       </c>
-      <c r="D8" s="29" t="inlineStr">
+      <c r="D8" s="41" t="inlineStr">
         <is>
           <t>How much variation exists within each document type?</t>
         </is>
       </c>
-      <c r="E8" s="29" t="inlineStr">
+      <c r="E8" s="41" t="inlineStr">
         <is>
           <t>Variation levels: Highly standardized, Some variation, Significant variation, Completely variable</t>
         </is>
       </c>
-      <c r="F8" s="28" t="n"/>
-      <c r="G8" s="29" t="inlineStr">
+      <c r="F8" s="40" t="n"/>
+      <c r="G8" s="41" t="inlineStr">
         <is>
           <t>Model training complexity and custom model needs</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="inlineStr">
+      <c r="A9" s="39" t="inlineStr">
         <is>
           <t>TECH-008</t>
         </is>
       </c>
-      <c r="B9" s="27" t="inlineStr">
+      <c r="B9" s="39" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C9" s="27" t="inlineStr">
+      <c r="C9" s="39" t="inlineStr">
         <is>
           <t>Document Sources</t>
         </is>
       </c>
-      <c r="D9" s="27" t="inlineStr">
+      <c r="D9" s="39" t="inlineStr">
         <is>
           <t>Where do documents originate?</t>
         </is>
       </c>
-      <c r="E9" s="27" t="inlineStr">
+      <c r="E9" s="39" t="inlineStr">
         <is>
           <t>Sources: Email, Web upload, API, Fax, Scan station, Mobile app, FTP</t>
         </is>
       </c>
-      <c r="F9" s="28" t="n"/>
-      <c r="G9" s="27" t="inlineStr">
+      <c r="F9" s="40" t="n"/>
+      <c r="G9" s="39" t="inlineStr">
         <is>
           <t>Input channel and integration requirements</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="inlineStr">
+      <c r="A10" s="41" t="inlineStr">
         <is>
           <t>TECH-009</t>
         </is>
       </c>
-      <c r="B10" s="29" t="inlineStr">
+      <c r="B10" s="41" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C10" s="29" t="inlineStr">
+      <c r="C10" s="41" t="inlineStr">
         <is>
           <t>Document Formats</t>
         </is>
       </c>
-      <c r="D10" s="29" t="inlineStr">
+      <c r="D10" s="41" t="inlineStr">
         <is>
           <t>What document formats do you currently handle?</t>
         </is>
       </c>
-      <c r="E10" s="29" t="inlineStr">
+      <c r="E10" s="41" t="inlineStr">
         <is>
           <t>Common formats: PDF, Word, Scanned images, Handwritten, Multi-page, Email attachments, Fax</t>
         </is>
       </c>
-      <c r="F10" s="28" t="n"/>
-      <c r="G10" s="29" t="inlineStr">
+      <c r="F10" s="40" t="n"/>
+      <c r="G10" s="41" t="inlineStr">
         <is>
           <t>Input format compatibility requirements</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="inlineStr">
+      <c r="A11" s="39" t="inlineStr">
         <is>
           <t>TECH-010</t>
         </is>
       </c>
-      <c r="B11" s="27" t="inlineStr">
+      <c r="B11" s="39" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C11" s="27" t="inlineStr">
+      <c r="C11" s="39" t="inlineStr">
         <is>
           <t>Data Extraction</t>
         </is>
       </c>
-      <c r="D11" s="27" t="inlineStr">
+      <c r="D11" s="39" t="inlineStr">
         <is>
           <t>What specific data fields do you need to extract from documents?</t>
         </is>
       </c>
-      <c r="E11" s="27" t="inlineStr">
+      <c r="E11" s="39" t="inlineStr">
         <is>
           <t>List all data fields with required vs optional classification</t>
         </is>
       </c>
-      <c r="F11" s="28" t="n"/>
-      <c r="G11" s="27" t="inlineStr">
+      <c r="F11" s="40" t="n"/>
+      <c r="G11" s="39" t="inlineStr">
         <is>
           <t>Data extraction schema and requirements</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="inlineStr">
+      <c r="A12" s="41" t="inlineStr">
         <is>
           <t>TECH-011</t>
         </is>
       </c>
-      <c r="B12" s="29" t="inlineStr">
+      <c r="B12" s="41" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C12" s="29" t="inlineStr">
+      <c r="C12" s="41" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D12" s="29" t="inlineStr">
+      <c r="D12" s="41" t="inlineStr">
         <is>
           <t>What systems need to integrate with the IDP solution?</t>
         </is>
       </c>
-      <c r="E12" s="29" t="inlineStr">
+      <c r="E12" s="41" t="inlineStr">
         <is>
           <t>List downstream systems, databases, and applications</t>
         </is>
       </c>
-      <c r="F12" s="28" t="n"/>
-      <c r="G12" s="29" t="inlineStr">
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="41" t="inlineStr">
         <is>
           <t>Integration scope and complexity</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="27" t="inlineStr">
+      <c r="A13" s="39" t="inlineStr">
         <is>
           <t>TECH-012</t>
         </is>
       </c>
-      <c r="B13" s="27" t="inlineStr">
+      <c r="B13" s="39" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C13" s="27" t="inlineStr">
+      <c r="C13" s="39" t="inlineStr">
         <is>
           <t>Storage Integration</t>
         </is>
       </c>
-      <c r="D13" s="27" t="inlineStr">
+      <c r="D13" s="39" t="inlineStr">
         <is>
           <t>What document storage systems do you currently use?</t>
         </is>
       </c>
-      <c r="E13" s="27" t="inlineStr">
+      <c r="E13" s="39" t="inlineStr">
         <is>
           <t>Common systems: AWS S3, SharePoint, Google Drive, Box, On-premises file servers, Email systems</t>
         </is>
       </c>
-      <c r="F13" s="28" t="n"/>
-      <c r="G13" s="27" t="inlineStr">
+      <c r="F13" s="40" t="n"/>
+      <c r="G13" s="39" t="inlineStr">
         <is>
           <t>Storage integration and data flow requirements</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29" t="inlineStr">
+      <c r="A14" s="41" t="inlineStr">
         <is>
           <t>TECH-013</t>
         </is>
       </c>
-      <c r="B14" s="29" t="inlineStr">
+      <c r="B14" s="41" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C14" s="29" t="inlineStr">
+      <c r="C14" s="41" t="inlineStr">
         <is>
           <t>Processing Mode</t>
         </is>
       </c>
-      <c r="D14" s="29" t="inlineStr">
+      <c r="D14" s="41" t="inlineStr">
         <is>
           <t>Do you need real-time or batch document processing?</t>
         </is>
       </c>
-      <c r="E14" s="29" t="inlineStr">
+      <c r="E14" s="41" t="inlineStr">
         <is>
           <t>Options: Real-time processing, Batch processing, Both options</t>
         </is>
       </c>
-      <c r="F14" s="28" t="n"/>
-      <c r="G14" s="29" t="inlineStr">
+      <c r="F14" s="40" t="n"/>
+      <c r="G14" s="41" t="inlineStr">
         <is>
           <t>Processing mode affects architecture design</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="inlineStr">
+      <c r="A15" s="39" t="inlineStr">
         <is>
           <t>TECH-014</t>
         </is>
       </c>
-      <c r="B15" s="27" t="inlineStr">
+      <c r="B15" s="39" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C15" s="27" t="inlineStr">
+      <c r="C15" s="39" t="inlineStr">
         <is>
           <t>API Requirements</t>
         </is>
       </c>
-      <c r="D15" s="27" t="inlineStr">
+      <c r="D15" s="39" t="inlineStr">
         <is>
           <t>What API integration capabilities do you need?</t>
         </is>
       </c>
-      <c r="E15" s="27" t="inlineStr">
+      <c r="E15" s="39" t="inlineStr">
         <is>
           <t>Common integrations: REST APIs, Webhooks, File upload endpoints, Email integration, FTP integration</t>
         </is>
       </c>
-      <c r="F15" s="28" t="n"/>
-      <c r="G15" s="27" t="inlineStr">
+      <c r="F15" s="40" t="n"/>
+      <c r="G15" s="39" t="inlineStr">
         <is>
           <t>API integration design requirements</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="29" t="inlineStr">
+      <c r="A16" s="41" t="inlineStr">
         <is>
           <t>TECH-015</t>
         </is>
       </c>
-      <c r="B16" s="29" t="inlineStr">
+      <c r="B16" s="41" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C16" s="29" t="inlineStr">
+      <c r="C16" s="41" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="D16" s="29" t="inlineStr">
+      <c r="D16" s="41" t="inlineStr">
         <is>
           <t>What are your document processing speed requirements?</t>
         </is>
       </c>
-      <c r="E16" s="29" t="inlineStr">
+      <c r="E16" s="41" t="inlineStr">
         <is>
           <t>Specify: documents per minute, maximum processing time per document</t>
         </is>
       </c>
-      <c r="F16" s="28" t="n"/>
-      <c r="G16" s="29" t="inlineStr">
+      <c r="F16" s="40" t="n"/>
+      <c r="G16" s="41" t="inlineStr">
         <is>
           <t>Performance targets for infrastructure sizing</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="27" t="inlineStr">
+      <c r="A17" s="39" t="inlineStr">
         <is>
           <t>TECH-016</t>
         </is>
       </c>
-      <c r="B17" s="27" t="inlineStr">
+      <c r="B17" s="39" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C17" s="27" t="inlineStr">
+      <c r="C17" s="39" t="inlineStr">
         <is>
           <t>Accuracy Requirements</t>
         </is>
       </c>
-      <c r="D17" s="27" t="inlineStr">
+      <c r="D17" s="39" t="inlineStr">
         <is>
           <t>What accuracy level do you require for data extraction?</t>
         </is>
       </c>
-      <c r="E17" s="27" t="inlineStr">
+      <c r="E17" s="39" t="inlineStr">
         <is>
           <t>Common targets: 95%+, 98%+, 99%+, 99.5%+</t>
         </is>
       </c>
-      <c r="F17" s="28" t="n"/>
-      <c r="G17" s="27" t="inlineStr">
+      <c r="F17" s="40" t="n"/>
+      <c r="G17" s="39" t="inlineStr">
         <is>
           <t>Accuracy threshold affects model selection and human review needs</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="29" t="inlineStr">
+      <c r="A18" s="41" t="inlineStr">
         <is>
           <t>TECH-017</t>
         </is>
       </c>
-      <c r="B18" s="29" t="inlineStr">
+      <c r="B18" s="41" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C18" s="29" t="inlineStr">
+      <c r="C18" s="41" t="inlineStr">
         <is>
           <t>AI/ML Models</t>
         </is>
       </c>
-      <c r="D18" s="29" t="inlineStr">
+      <c r="D18" s="41" t="inlineStr">
         <is>
           <t>Do you need custom ML models or will AWS pre-built services suffice?</t>
         </is>
       </c>
-      <c r="E18" s="29" t="inlineStr">
+      <c r="E18" s="41" t="inlineStr">
         <is>
           <t>Options: AWS Textract only, AWS Comprehend only, Custom classification models, Custom extraction models, Combination approach</t>
         </is>
       </c>
-      <c r="F18" s="28" t="n"/>
-      <c r="G18" s="29" t="inlineStr">
+      <c r="F18" s="40" t="n"/>
+      <c r="G18" s="41" t="inlineStr">
         <is>
           <t>Model complexity and development requirements</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="27" t="inlineStr">
+      <c r="A19" s="39" t="inlineStr">
         <is>
           <t>TECH-018</t>
         </is>
       </c>
-      <c r="B19" s="27" t="inlineStr">
+      <c r="B19" s="39" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C19" s="27" t="inlineStr">
+      <c r="C19" s="39" t="inlineStr">
         <is>
           <t>Training Data</t>
         </is>
       </c>
-      <c r="D19" s="27" t="inlineStr">
+      <c r="D19" s="39" t="inlineStr">
         <is>
           <t>Do you have labeled training data for custom models?</t>
         </is>
       </c>
-      <c r="E19" s="27" t="inlineStr">
+      <c r="E19" s="39" t="inlineStr">
         <is>
           <t>Options: Yes - substantial dataset, Yes - limited dataset, No - need data labeling, Unsure</t>
         </is>
       </c>
-      <c r="F19" s="28" t="n"/>
-      <c r="G19" s="27" t="inlineStr">
+      <c r="F19" s="40" t="n"/>
+      <c r="G19" s="39" t="inlineStr">
         <is>
           <t>Training data availability affects project timeline</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="29" t="inlineStr">
+      <c r="A20" s="41" t="inlineStr">
         <is>
           <t>TECH-019</t>
         </is>
       </c>
-      <c r="B20" s="29" t="inlineStr">
+      <c r="B20" s="41" t="inlineStr">
         <is>
           <t>Technical Requirements</t>
         </is>
       </c>
-      <c r="C20" s="29" t="inlineStr">
+      <c r="C20" s="41" t="inlineStr">
         <is>
           <t>Model Maintenance</t>
         </is>
       </c>
-      <c r="D20" s="29" t="inlineStr">
+      <c r="D20" s="41" t="inlineStr">
         <is>
           <t>How often do you expect to retrain or update models?</t>
         </is>
       </c>
-      <c r="E20" s="29" t="inlineStr">
+      <c r="E20" s="41" t="inlineStr">
         <is>
           <t>Options: Never, Quarterly, Monthly, As needed, Continuously</t>
         </is>
       </c>
-      <c r="F20" s="28" t="n"/>
-      <c r="G20" s="29" t="inlineStr">
+      <c r="F20" s="40" t="n"/>
+      <c r="G20" s="41" t="inlineStr">
         <is>
           <t>Model lifecycle management requirements</t>
         </is>
@@ -4022,301 +4076,301 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="38" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="38" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="38" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="38" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="38" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="26" t="inlineStr">
+      <c r="F1" s="38" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="38" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="inlineStr">
+      <c r="A2" s="41" t="inlineStr">
         <is>
           <t>SEC-001</t>
         </is>
       </c>
-      <c r="B2" s="29" t="inlineStr">
+      <c r="B2" s="41" t="inlineStr">
         <is>
           <t>Security &amp; Compliance</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C2" s="41" t="inlineStr">
         <is>
           <t>Data Classification</t>
         </is>
       </c>
-      <c r="D2" s="29" t="inlineStr">
+      <c r="D2" s="41" t="inlineStr">
         <is>
           <t>What is the highest data classification level in your documents?</t>
         </is>
       </c>
-      <c r="E2" s="29" t="inlineStr">
+      <c r="E2" s="41" t="inlineStr">
         <is>
           <t>Levels: Public, Internal, Confidential, Restricted</t>
         </is>
       </c>
-      <c r="F2" s="28" t="n"/>
-      <c r="G2" s="29" t="inlineStr">
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="41" t="inlineStr">
         <is>
           <t>Determines encryption and access control requirements</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>SEC-002</t>
         </is>
       </c>
-      <c r="B3" s="27" t="inlineStr">
+      <c r="B3" s="39" t="inlineStr">
         <is>
           <t>Security &amp; Compliance</t>
         </is>
       </c>
-      <c r="C3" s="27" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
         <is>
           <t>Sensitive Data</t>
         </is>
       </c>
-      <c r="D3" s="27" t="inlineStr">
+      <c r="D3" s="39" t="inlineStr">
         <is>
           <t>What sensitive data types are present in your documents?</t>
         </is>
       </c>
-      <c r="E3" s="27" t="inlineStr">
+      <c r="E3" s="39" t="inlineStr">
         <is>
           <t>Sensitive data types: PII, PHI, Financial data, Credit card numbers, SSNs, Other sensitive data, No sensitive data</t>
         </is>
       </c>
-      <c r="F3" s="28" t="n"/>
-      <c r="G3" s="27" t="inlineStr">
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="39" t="inlineStr">
         <is>
           <t>Data protection and masking requirements</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="inlineStr">
+      <c r="A4" s="41" t="inlineStr">
         <is>
           <t>SEC-003</t>
         </is>
       </c>
-      <c r="B4" s="29" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>Security &amp; Compliance</t>
         </is>
       </c>
-      <c r="C4" s="29" t="inlineStr">
+      <c r="C4" s="41" t="inlineStr">
         <is>
           <t>Compliance Standards</t>
         </is>
       </c>
-      <c r="D4" s="29" t="inlineStr">
+      <c r="D4" s="41" t="inlineStr">
         <is>
           <t>What compliance standards must the IDP solution meet?</t>
         </is>
       </c>
-      <c r="E4" s="29" t="inlineStr">
+      <c r="E4" s="41" t="inlineStr">
         <is>
           <t>Common standards: SOC 2, ISO 27001, HIPAA, PCI DSS, GDPR, FedRAMP, None</t>
         </is>
       </c>
-      <c r="F4" s="28" t="n"/>
-      <c r="G4" s="29" t="inlineStr">
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="41" t="inlineStr">
         <is>
           <t>Compliance controls and audit requirements</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>SEC-004</t>
         </is>
       </c>
-      <c r="B5" s="27" t="inlineStr">
+      <c r="B5" s="39" t="inlineStr">
         <is>
           <t>Security &amp; Compliance</t>
         </is>
       </c>
-      <c r="C5" s="27" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>Encryption</t>
         </is>
       </c>
-      <c r="D5" s="27" t="inlineStr">
+      <c r="D5" s="39" t="inlineStr">
         <is>
           <t>What encryption requirements apply?</t>
         </is>
       </c>
-      <c r="E5" s="27" t="inlineStr">
+      <c r="E5" s="39" t="inlineStr">
         <is>
           <t>Requirements: Encryption at rest (AES-256), Encryption in transit (TLS 1.2+), Key management (AWS KMS)</t>
         </is>
       </c>
-      <c r="F5" s="28" t="n"/>
-      <c r="G5" s="27" t="inlineStr">
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="39" t="inlineStr">
         <is>
           <t>Security architecture and key management</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="inlineStr">
+      <c r="A6" s="41" t="inlineStr">
         <is>
           <t>SEC-005</t>
         </is>
       </c>
-      <c r="B6" s="29" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>Security &amp; Compliance</t>
         </is>
       </c>
-      <c r="C6" s="29" t="inlineStr">
+      <c r="C6" s="41" t="inlineStr">
         <is>
           <t>Access Control</t>
         </is>
       </c>
-      <c r="D6" s="29" t="inlineStr">
+      <c r="D6" s="41" t="inlineStr">
         <is>
           <t>What authentication and authorization requirements apply?</t>
         </is>
       </c>
-      <c r="E6" s="29" t="inlineStr">
+      <c r="E6" s="41" t="inlineStr">
         <is>
           <t>Options: SSO (SAML/OIDC), MFA required, Role-based access, IAM integration, Certificate-based</t>
         </is>
       </c>
-      <c r="F6" s="28" t="n"/>
-      <c r="G6" s="29" t="inlineStr">
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="41" t="inlineStr">
         <is>
           <t>Identity and access management requirements</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="inlineStr">
+      <c r="A7" s="39" t="inlineStr">
         <is>
           <t>SEC-006</t>
         </is>
       </c>
-      <c r="B7" s="27" t="inlineStr">
+      <c r="B7" s="39" t="inlineStr">
         <is>
           <t>Security &amp; Compliance</t>
         </is>
       </c>
-      <c r="C7" s="27" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
         <is>
           <t>Audit Logging</t>
         </is>
       </c>
-      <c r="D7" s="27" t="inlineStr">
+      <c r="D7" s="39" t="inlineStr">
         <is>
           <t>What audit and logging requirements do you have?</t>
         </is>
       </c>
-      <c r="E7" s="27" t="inlineStr">
+      <c r="E7" s="39" t="inlineStr">
         <is>
           <t>Requirements: CloudTrail logging, Access logs, Processing audit trail, Data lineage tracking</t>
         </is>
       </c>
-      <c r="F7" s="28" t="n"/>
-      <c r="G7" s="27" t="inlineStr">
+      <c r="F7" s="40" t="n"/>
+      <c r="G7" s="39" t="inlineStr">
         <is>
           <t>Audit trail and compliance reporting needs</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="inlineStr">
+      <c r="A8" s="41" t="inlineStr">
         <is>
           <t>SEC-007</t>
         </is>
       </c>
-      <c r="B8" s="29" t="inlineStr">
+      <c r="B8" s="41" t="inlineStr">
         <is>
           <t>Security &amp; Compliance</t>
         </is>
       </c>
-      <c r="C8" s="29" t="inlineStr">
+      <c r="C8" s="41" t="inlineStr">
         <is>
           <t>Data Retention</t>
         </is>
       </c>
-      <c r="D8" s="29" t="inlineStr">
+      <c r="D8" s="41" t="inlineStr">
         <is>
           <t>What are your data retention and deletion requirements?</t>
         </is>
       </c>
-      <c r="E8" s="29" t="inlineStr">
+      <c r="E8" s="41" t="inlineStr">
         <is>
           <t>Specify retention period, deletion procedures, and compliance drivers</t>
         </is>
       </c>
-      <c r="F8" s="28" t="n"/>
-      <c r="G8" s="29" t="inlineStr">
+      <c r="F8" s="40" t="n"/>
+      <c r="G8" s="41" t="inlineStr">
         <is>
           <t>Data lifecycle management and compliance</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="inlineStr">
+      <c r="A9" s="39" t="inlineStr">
         <is>
           <t>SEC-008</t>
         </is>
       </c>
-      <c r="B9" s="27" t="inlineStr">
+      <c r="B9" s="39" t="inlineStr">
         <is>
           <t>Security &amp; Compliance</t>
         </is>
       </c>
-      <c r="C9" s="27" t="inlineStr">
+      <c r="C9" s="39" t="inlineStr">
         <is>
           <t>Data Residency</t>
         </is>
       </c>
-      <c r="D9" s="27" t="inlineStr">
+      <c r="D9" s="39" t="inlineStr">
         <is>
           <t>Do you require data residency in specific regions?</t>
         </is>
       </c>
-      <c r="E9" s="27" t="inlineStr">
+      <c r="E9" s="39" t="inlineStr">
         <is>
           <t>Specify regions or countries; affects AWS region selection</t>
         </is>
       </c>
-      <c r="F9" s="28" t="n"/>
-      <c r="G9" s="27" t="inlineStr">
+      <c r="F9" s="40" t="n"/>
+      <c r="G9" s="39" t="inlineStr">
         <is>
           <t>Geographic data sovereignty requirements</t>
         </is>
@@ -4352,367 +4406,367 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="38" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="38" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="38" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="38" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="38" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="26" t="inlineStr">
+      <c r="F1" s="38" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="38" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="inlineStr">
+      <c r="A2" s="41" t="inlineStr">
         <is>
           <t>OPS-001</t>
         </is>
       </c>
-      <c r="B2" s="29" t="inlineStr">
+      <c r="B2" s="41" t="inlineStr">
         <is>
           <t>Operations &amp; Support</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C2" s="41" t="inlineStr">
         <is>
           <t>Availability</t>
         </is>
       </c>
-      <c r="D2" s="29" t="inlineStr">
+      <c r="D2" s="41" t="inlineStr">
         <is>
           <t>What uptime requirements do you have for document processing?</t>
         </is>
       </c>
-      <c r="E2" s="29" t="inlineStr">
+      <c r="E2" s="41" t="inlineStr">
         <is>
           <t>Common targets: 99%, 99.5%, 99.9%, 99.95%, 99.99%</t>
         </is>
       </c>
-      <c r="F2" s="28" t="n"/>
-      <c r="G2" s="29" t="inlineStr">
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="41" t="inlineStr">
         <is>
           <t>SLA requirements drive architecture design</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>OPS-002</t>
         </is>
       </c>
-      <c r="B3" s="27" t="inlineStr">
+      <c r="B3" s="39" t="inlineStr">
         <is>
           <t>Operations &amp; Support</t>
         </is>
       </c>
-      <c r="C3" s="27" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
         <is>
           <t>RTO/RPO</t>
         </is>
       </c>
-      <c r="D3" s="27" t="inlineStr">
+      <c r="D3" s="39" t="inlineStr">
         <is>
           <t>What are your Recovery Time Objective (RTO) and Recovery Point Objective (RPO)?</t>
         </is>
       </c>
-      <c r="E3" s="27" t="inlineStr">
+      <c r="E3" s="39" t="inlineStr">
         <is>
           <t>RTO: Maximum acceptable downtime, RPO: Maximum acceptable data loss</t>
         </is>
       </c>
-      <c r="F3" s="28" t="n"/>
-      <c r="G3" s="27" t="inlineStr">
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="39" t="inlineStr">
         <is>
           <t>Disaster recovery architecture requirements</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="inlineStr">
+      <c r="A4" s="41" t="inlineStr">
         <is>
           <t>OPS-003</t>
         </is>
       </c>
-      <c r="B4" s="29" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>Operations &amp; Support</t>
         </is>
       </c>
-      <c r="C4" s="29" t="inlineStr">
+      <c r="C4" s="41" t="inlineStr">
         <is>
           <t>Support Coverage</t>
         </is>
       </c>
-      <c r="D4" s="29" t="inlineStr">
+      <c r="D4" s="41" t="inlineStr">
         <is>
           <t>What support coverage do you require?</t>
         </is>
       </c>
-      <c r="E4" s="29" t="inlineStr">
+      <c r="E4" s="41" t="inlineStr">
         <is>
           <t>Options: Business hours (8x5), Extended (24x5), Full (24x7)</t>
         </is>
       </c>
-      <c r="F4" s="28" t="n"/>
-      <c r="G4" s="29" t="inlineStr">
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="41" t="inlineStr">
         <is>
           <t>Support staffing and cost planning</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>OPS-004</t>
         </is>
       </c>
-      <c r="B5" s="27" t="inlineStr">
+      <c r="B5" s="39" t="inlineStr">
         <is>
           <t>Operations &amp; Support</t>
         </is>
       </c>
-      <c r="C5" s="27" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>Monitoring</t>
         </is>
       </c>
-      <c r="D5" s="27" t="inlineStr">
+      <c r="D5" s="39" t="inlineStr">
         <is>
           <t>What monitoring and alerting is required?</t>
         </is>
       </c>
-      <c r="E5" s="27" t="inlineStr">
+      <c r="E5" s="39" t="inlineStr">
         <is>
           <t>Requirements: Processing metrics, Error notifications, Performance dashboards, CloudWatch alarms</t>
         </is>
       </c>
-      <c r="F5" s="28" t="n"/>
-      <c r="G5" s="27" t="inlineStr">
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="39" t="inlineStr">
         <is>
           <t>Operational visibility and incident response</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="inlineStr">
+      <c r="A6" s="41" t="inlineStr">
         <is>
           <t>OPS-005</t>
         </is>
       </c>
-      <c r="B6" s="29" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>Operations &amp; Support</t>
         </is>
       </c>
-      <c r="C6" s="29" t="inlineStr">
+      <c r="C6" s="41" t="inlineStr">
         <is>
           <t>Workflow Processing</t>
         </is>
       </c>
-      <c r="D6" s="29" t="inlineStr">
+      <c r="D6" s="41" t="inlineStr">
         <is>
           <t>What happens to documents after data extraction?</t>
         </is>
       </c>
-      <c r="E6" s="29" t="inlineStr">
+      <c r="E6" s="41" t="inlineStr">
         <is>
           <t>Describe downstream systems, approval workflows, and data routing</t>
         </is>
       </c>
-      <c r="F6" s="28" t="n"/>
-      <c r="G6" s="29" t="inlineStr">
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="41" t="inlineStr">
         <is>
           <t>Downstream processing and integration requirements</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="inlineStr">
+      <c r="A7" s="39" t="inlineStr">
         <is>
           <t>OPS-006</t>
         </is>
       </c>
-      <c r="B7" s="27" t="inlineStr">
+      <c r="B7" s="39" t="inlineStr">
         <is>
           <t>Operations &amp; Support</t>
         </is>
       </c>
-      <c r="C7" s="27" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
         <is>
           <t>Error Handling</t>
         </is>
       </c>
-      <c r="D7" s="27" t="inlineStr">
+      <c r="D7" s="39" t="inlineStr">
         <is>
           <t>How should processing errors and exceptions be handled?</t>
         </is>
       </c>
-      <c r="E7" s="27" t="inlineStr">
+      <c r="E7" s="39" t="inlineStr">
         <is>
           <t>Options: Automatic retry, Manual review queue, Email notification, API callback</t>
         </is>
       </c>
-      <c r="F7" s="28" t="n"/>
-      <c r="G7" s="27" t="inlineStr">
+      <c r="F7" s="40" t="n"/>
+      <c r="G7" s="39" t="inlineStr">
         <is>
           <t>Error handling and exception management</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="inlineStr">
+      <c r="A8" s="41" t="inlineStr">
         <is>
           <t>OPS-007</t>
         </is>
       </c>
-      <c r="B8" s="29" t="inlineStr">
+      <c r="B8" s="41" t="inlineStr">
         <is>
           <t>Operations &amp; Support</t>
         </is>
       </c>
-      <c r="C8" s="29" t="inlineStr">
+      <c r="C8" s="41" t="inlineStr">
         <is>
           <t>Human Review</t>
         </is>
       </c>
-      <c r="D8" s="29" t="inlineStr">
+      <c r="D8" s="41" t="inlineStr">
         <is>
           <t>Do you need human-in-the-loop review capabilities?</t>
         </is>
       </c>
-      <c r="E8" s="29" t="inlineStr">
+      <c r="E8" s="41" t="inlineStr">
         <is>
           <t>Options: Always required, Only for low confidence, Only for exceptions, Never needed</t>
         </is>
       </c>
-      <c r="F8" s="28" t="n"/>
-      <c r="G8" s="29" t="inlineStr">
+      <c r="F8" s="40" t="n"/>
+      <c r="G8" s="41" t="inlineStr">
         <is>
           <t>Human review requirements (Amazon A2I integration)</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="inlineStr">
+      <c r="A9" s="39" t="inlineStr">
         <is>
           <t>OPS-008</t>
         </is>
       </c>
-      <c r="B9" s="27" t="inlineStr">
+      <c r="B9" s="39" t="inlineStr">
         <is>
           <t>Operations &amp; Support</t>
         </is>
       </c>
-      <c r="C9" s="27" t="inlineStr">
+      <c r="C9" s="39" t="inlineStr">
         <is>
           <t>Quality Assurance</t>
         </is>
       </c>
-      <c r="D9" s="27" t="inlineStr">
+      <c r="D9" s="39" t="inlineStr">
         <is>
           <t>How will you handle cases where extraction accuracy is low?</t>
         </is>
       </c>
-      <c r="E9" s="27" t="inlineStr">
+      <c r="E9" s="39" t="inlineStr">
         <is>
           <t>Options: Human review workflow (A2I), Confidence scoring, Automated rejection, Manual correction interface</t>
         </is>
       </c>
-      <c r="F9" s="28" t="n"/>
-      <c r="G9" s="27" t="inlineStr">
+      <c r="F9" s="40" t="n"/>
+      <c r="G9" s="39" t="inlineStr">
         <is>
           <t>Quality assurance process design</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="inlineStr">
+      <c r="A10" s="41" t="inlineStr">
         <is>
           <t>OPS-009</t>
         </is>
       </c>
-      <c r="B10" s="29" t="inlineStr">
+      <c r="B10" s="41" t="inlineStr">
         <is>
           <t>Operations &amp; Support</t>
         </is>
       </c>
-      <c r="C10" s="29" t="inlineStr">
+      <c r="C10" s="41" t="inlineStr">
         <is>
           <t>Notifications</t>
         </is>
       </c>
-      <c r="D10" s="29" t="inlineStr">
+      <c r="D10" s="41" t="inlineStr">
         <is>
           <t>What notifications or alerts do you need during processing?</t>
         </is>
       </c>
-      <c r="E10" s="29" t="inlineStr">
+      <c r="E10" s="41" t="inlineStr">
         <is>
           <t>Examples: Processing complete, Errors detected, Low confidence results, SLA threshold exceeded</t>
         </is>
       </c>
-      <c r="F10" s="28" t="n"/>
-      <c r="G10" s="29" t="inlineStr">
+      <c r="F10" s="40" t="n"/>
+      <c r="G10" s="41" t="inlineStr">
         <is>
           <t>Notification and alerting requirements</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="inlineStr">
+      <c r="A11" s="39" t="inlineStr">
         <is>
           <t>OPS-010</t>
         </is>
       </c>
-      <c r="B11" s="27" t="inlineStr">
+      <c r="B11" s="39" t="inlineStr">
         <is>
           <t>Operations &amp; Support</t>
         </is>
       </c>
-      <c r="C11" s="27" t="inlineStr">
+      <c r="C11" s="39" t="inlineStr">
         <is>
           <t>Backup</t>
         </is>
       </c>
-      <c r="D11" s="27" t="inlineStr">
+      <c r="D11" s="39" t="inlineStr">
         <is>
           <t>What backup and disaster recovery procedures are required?</t>
         </is>
       </c>
-      <c r="E11" s="27" t="inlineStr">
+      <c r="E11" s="39" t="inlineStr">
         <is>
           <t>Specify backup frequency, retention period, and recovery procedures</t>
         </is>
       </c>
-      <c r="F11" s="28" t="n"/>
-      <c r="G11" s="27" t="inlineStr">
+      <c r="F11" s="40" t="n"/>
+      <c r="G11" s="39" t="inlineStr">
         <is>
           <t>Backup strategy and data protection</t>
         </is>
@@ -4748,367 +4802,367 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="38" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="38" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="38" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="38" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="38" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="26" t="inlineStr">
+      <c r="F1" s="38" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="38" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="inlineStr">
+      <c r="A2" s="41" t="inlineStr">
         <is>
           <t>IMPL-001</t>
         </is>
       </c>
-      <c r="B2" s="29" t="inlineStr">
+      <c r="B2" s="41" t="inlineStr">
         <is>
           <t>Implementation Planning</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C2" s="41" t="inlineStr">
         <is>
           <t>Resources</t>
         </is>
       </c>
-      <c r="D2" s="29" t="inlineStr">
+      <c r="D2" s="41" t="inlineStr">
         <is>
           <t>Who will be the technical lead for this IDP project?</t>
         </is>
       </c>
-      <c r="E2" s="29" t="inlineStr">
+      <c r="E2" s="41" t="inlineStr">
         <is>
           <t>Name, role, contact information</t>
         </is>
       </c>
-      <c r="F2" s="28" t="n"/>
-      <c r="G2" s="29" t="inlineStr">
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="41" t="inlineStr">
         <is>
           <t>Technical ownership and project management</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>IMPL-002</t>
         </is>
       </c>
-      <c r="B3" s="27" t="inlineStr">
+      <c r="B3" s="39" t="inlineStr">
         <is>
           <t>Implementation Planning</t>
         </is>
       </c>
-      <c r="C3" s="27" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
         <is>
           <t>Team Availability</t>
         </is>
       </c>
-      <c r="D3" s="27" t="inlineStr">
+      <c r="D3" s="39" t="inlineStr">
         <is>
           <t>What internal resources are available for IDP implementation?</t>
         </is>
       </c>
-      <c r="E3" s="27" t="inlineStr">
+      <c r="E3" s="39" t="inlineStr">
         <is>
           <t>List team members, roles, and time commitment (hours per week)</t>
         </is>
       </c>
-      <c r="F3" s="28" t="n"/>
-      <c r="G3" s="27" t="inlineStr">
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="39" t="inlineStr">
         <is>
           <t>Resource planning and project timeline feasibility</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="inlineStr">
+      <c r="A4" s="41" t="inlineStr">
         <is>
           <t>IMPL-003</t>
         </is>
       </c>
-      <c r="B4" s="29" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>Implementation Planning</t>
         </is>
       </c>
-      <c r="C4" s="29" t="inlineStr">
+      <c r="C4" s="41" t="inlineStr">
         <is>
           <t>AWS Experience</t>
         </is>
       </c>
-      <c r="D4" s="29" t="inlineStr">
+      <c r="D4" s="41" t="inlineStr">
         <is>
           <t>What is your team's experience with AWS AI/ML services?</t>
         </is>
       </c>
-      <c r="E4" s="29" t="inlineStr">
+      <c r="E4" s="41" t="inlineStr">
         <is>
           <t>Experience levels: No experience, Basic knowledge, Intermediate, Advanced, Expert</t>
         </is>
       </c>
-      <c r="F4" s="28" t="n"/>
-      <c r="G4" s="29" t="inlineStr">
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="41" t="inlineStr">
         <is>
           <t>Training needs assessment and knowledge transfer requirements</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>IMPL-004</t>
         </is>
       </c>
-      <c r="B5" s="27" t="inlineStr">
+      <c r="B5" s="39" t="inlineStr">
         <is>
           <t>Implementation Planning</t>
         </is>
       </c>
-      <c r="C5" s="27" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>Migration Approach</t>
         </is>
       </c>
-      <c r="D5" s="27" t="inlineStr">
+      <c r="D5" s="39" t="inlineStr">
         <is>
           <t>What is your preferred migration approach?</t>
         </is>
       </c>
-      <c r="E5" s="27" t="inlineStr">
+      <c r="E5" s="39" t="inlineStr">
         <is>
           <t>Options: Phased migration by document type, Pilot then scale, Big bang cutover, Parallel run</t>
         </is>
       </c>
-      <c r="F5" s="28" t="n"/>
-      <c r="G5" s="27" t="inlineStr">
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="39" t="inlineStr">
         <is>
           <t>Implementation strategy and risk mitigation</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="inlineStr">
+      <c r="A6" s="41" t="inlineStr">
         <is>
           <t>IMPL-005</t>
         </is>
       </c>
-      <c r="B6" s="29" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>Implementation Planning</t>
         </is>
       </c>
-      <c r="C6" s="29" t="inlineStr">
+      <c r="C6" s="41" t="inlineStr">
         <is>
           <t>Parallel Run</t>
         </is>
       </c>
-      <c r="D6" s="29" t="inlineStr">
+      <c r="D6" s="41" t="inlineStr">
         <is>
           <t>Do you require a parallel run period with existing systems?</t>
         </is>
       </c>
-      <c r="E6" s="29" t="inlineStr">
+      <c r="E6" s="41" t="inlineStr">
         <is>
           <t>Specify duration if needed (e.g., 1 month, 3 months)</t>
         </is>
       </c>
-      <c r="F6" s="28" t="n"/>
-      <c r="G6" s="29" t="inlineStr">
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="41" t="inlineStr">
         <is>
           <t>Implementation timeline and validation approach</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="inlineStr">
+      <c r="A7" s="39" t="inlineStr">
         <is>
           <t>IMPL-006</t>
         </is>
       </c>
-      <c r="B7" s="27" t="inlineStr">
+      <c r="B7" s="39" t="inlineStr">
         <is>
           <t>Implementation Planning</t>
         </is>
       </c>
-      <c r="C7" s="27" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
         <is>
           <t>Change Management</t>
         </is>
       </c>
-      <c r="D7" s="27" t="inlineStr">
+      <c r="D7" s="39" t="inlineStr">
         <is>
           <t>How will you handle the transition from manual to automated processing?</t>
         </is>
       </c>
-      <c r="E7" s="27" t="inlineStr">
+      <c r="E7" s="39" t="inlineStr">
         <is>
           <t>Consider communication, training, and gradual rollout</t>
         </is>
       </c>
-      <c r="F7" s="28" t="n"/>
-      <c r="G7" s="27" t="inlineStr">
+      <c r="F7" s="40" t="n"/>
+      <c r="G7" s="39" t="inlineStr">
         <is>
           <t>Change management and user adoption strategy</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="inlineStr">
+      <c r="A8" s="41" t="inlineStr">
         <is>
           <t>IMPL-007</t>
         </is>
       </c>
-      <c r="B8" s="29" t="inlineStr">
+      <c r="B8" s="41" t="inlineStr">
         <is>
           <t>Implementation Planning</t>
         </is>
       </c>
-      <c r="C8" s="29" t="inlineStr">
+      <c r="C8" s="41" t="inlineStr">
         <is>
           <t>Training Needs</t>
         </is>
       </c>
-      <c r="D8" s="29" t="inlineStr">
+      <c r="D8" s="41" t="inlineStr">
         <is>
           <t>What training will be needed for end users and administrators?</t>
         </is>
       </c>
-      <c r="E8" s="29" t="inlineStr">
+      <c r="E8" s="41" t="inlineStr">
         <is>
           <t>Types: Admin training, End-user training, Train-the-trainer, Documentation</t>
         </is>
       </c>
-      <c r="F8" s="28" t="n"/>
-      <c r="G8" s="29" t="inlineStr">
+      <c r="F8" s="40" t="n"/>
+      <c r="G8" s="41" t="inlineStr">
         <is>
           <t>Knowledge transfer scope and timeline</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="inlineStr">
+      <c r="A9" s="39" t="inlineStr">
         <is>
           <t>IMPL-008</t>
         </is>
       </c>
-      <c r="B9" s="27" t="inlineStr">
+      <c r="B9" s="39" t="inlineStr">
         <is>
           <t>Implementation Planning</t>
         </is>
       </c>
-      <c r="C9" s="27" t="inlineStr">
+      <c r="C9" s="39" t="inlineStr">
         <is>
           <t>Testing Requirements</t>
         </is>
       </c>
-      <c r="D9" s="27" t="inlineStr">
+      <c r="D9" s="39" t="inlineStr">
         <is>
           <t>What user acceptance testing (UAT) approach do you prefer?</t>
         </is>
       </c>
-      <c r="E9" s="27" t="inlineStr">
+      <c r="E9" s="39" t="inlineStr">
         <is>
           <t>Options: Internal UAT, Pilot users, Full user group, Staged rollout</t>
         </is>
       </c>
-      <c r="F9" s="28" t="n"/>
-      <c r="G9" s="27" t="inlineStr">
+      <c r="F9" s="40" t="n"/>
+      <c r="G9" s="39" t="inlineStr">
         <is>
           <t>Testing and validation requirements</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="inlineStr">
+      <c r="A10" s="41" t="inlineStr">
         <is>
           <t>IMPL-009</t>
         </is>
       </c>
-      <c r="B10" s="29" t="inlineStr">
+      <c r="B10" s="41" t="inlineStr">
         <is>
           <t>Implementation Planning</t>
         </is>
       </c>
-      <c r="C10" s="29" t="inlineStr">
+      <c r="C10" s="41" t="inlineStr">
         <is>
           <t>Approval Process</t>
         </is>
       </c>
-      <c r="D10" s="29" t="inlineStr">
+      <c r="D10" s="41" t="inlineStr">
         <is>
           <t>What approval processes are required for document processing changes?</t>
         </is>
       </c>
-      <c r="E10" s="29" t="inlineStr">
+      <c r="E10" s="41" t="inlineStr">
         <is>
           <t>Describe change control, stakeholder approvals, and governance</t>
         </is>
       </c>
-      <c r="F10" s="28" t="n"/>
-      <c r="G10" s="29" t="inlineStr">
+      <c r="F10" s="40" t="n"/>
+      <c r="G10" s="41" t="inlineStr">
         <is>
           <t>Change approval and governance requirements</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="inlineStr">
+      <c r="A11" s="39" t="inlineStr">
         <is>
           <t>IMPL-010</t>
         </is>
       </c>
-      <c r="B11" s="27" t="inlineStr">
+      <c r="B11" s="39" t="inlineStr">
         <is>
           <t>Implementation Planning</t>
         </is>
       </c>
-      <c r="C11" s="27" t="inlineStr">
+      <c r="C11" s="39" t="inlineStr">
         <is>
           <t>Vendor Requirements</t>
         </is>
       </c>
-      <c r="D11" s="27" t="inlineStr">
+      <c r="D11" s="39" t="inlineStr">
         <is>
           <t>What AWS AI/ML implementation experience do you expect from partners?</t>
         </is>
       </c>
-      <c r="E11" s="27" t="inlineStr">
+      <c r="E11" s="39" t="inlineStr">
         <is>
           <t>Specify certifications, past projects, or specific expertise needed</t>
         </is>
       </c>
-      <c r="F11" s="28" t="n"/>
-      <c r="G11" s="27" t="inlineStr">
+      <c r="F11" s="40" t="n"/>
+      <c r="G11" s="39" t="inlineStr">
         <is>
           <t>Partner selection criteria and requirements</t>
         </is>
@@ -5144,235 +5198,235 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="38" t="inlineStr">
         <is>
           <t>Question ID</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="38" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="38" t="inlineStr">
         <is>
           <t>Sub-Category</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="38" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="38" t="inlineStr">
         <is>
           <t>Guidance</t>
         </is>
       </c>
-      <c r="F1" s="26" t="inlineStr">
+      <c r="F1" s="38" t="inlineStr">
         <is>
           <t>Customer Response</t>
         </is>
       </c>
-      <c r="G1" s="26" t="inlineStr">
+      <c r="G1" s="38" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="inlineStr">
+      <c r="A2" s="41" t="inlineStr">
         <is>
           <t>RISK-001</t>
         </is>
       </c>
-      <c r="B2" s="29" t="inlineStr">
+      <c r="B2" s="41" t="inlineStr">
         <is>
           <t>Risk &amp; Constraints</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C2" s="41" t="inlineStr">
         <is>
           <t>Implementation Risks</t>
         </is>
       </c>
-      <c r="D2" s="29" t="inlineStr">
+      <c r="D2" s="41" t="inlineStr">
         <is>
           <t>What are your main concerns about implementing IDP?</t>
         </is>
       </c>
-      <c r="E2" s="29" t="inlineStr">
+      <c r="E2" s="41" t="inlineStr">
         <is>
           <t>Consider: technology risk, organizational change, budget, timeline, vendor lock-in</t>
         </is>
       </c>
-      <c r="F2" s="28" t="n"/>
-      <c r="G2" s="29" t="inlineStr">
+      <c r="F2" s="40" t="n"/>
+      <c r="G2" s="41" t="inlineStr">
         <is>
           <t>Primary implementation concerns and risk factors</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="inlineStr">
+      <c r="A3" s="39" t="inlineStr">
         <is>
           <t>RISK-002</t>
         </is>
       </c>
-      <c r="B3" s="27" t="inlineStr">
+      <c r="B3" s="39" t="inlineStr">
         <is>
           <t>Risk &amp; Constraints</t>
         </is>
       </c>
-      <c r="C3" s="27" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
         <is>
           <t>Failure Factors</t>
         </is>
       </c>
-      <c r="D3" s="27" t="inlineStr">
+      <c r="D3" s="39" t="inlineStr">
         <is>
           <t>What could cause this IDP project to fail?</t>
         </is>
       </c>
-      <c r="E3" s="27" t="inlineStr">
+      <c r="E3" s="39" t="inlineStr">
         <is>
           <t>Consider: lack of executive support, poor data quality, insufficient resources, unclear requirements</t>
         </is>
       </c>
-      <c r="F3" s="28" t="n"/>
-      <c r="G3" s="27" t="inlineStr">
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="39" t="inlineStr">
         <is>
           <t>Failure mode analysis and mitigation planning</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="inlineStr">
+      <c r="A4" s="41" t="inlineStr">
         <is>
           <t>RISK-003</t>
         </is>
       </c>
-      <c r="B4" s="29" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>Risk &amp; Constraints</t>
         </is>
       </c>
-      <c r="C4" s="29" t="inlineStr">
+      <c r="C4" s="41" t="inlineStr">
         <is>
           <t>Data Quality Risks</t>
         </is>
       </c>
-      <c r="D4" s="29" t="inlineStr">
+      <c r="D4" s="41" t="inlineStr">
         <is>
           <t>What are your concerns about data accuracy and quality?</t>
         </is>
       </c>
-      <c r="E4" s="29" t="inlineStr">
+      <c r="E4" s="41" t="inlineStr">
         <is>
           <t>Consider: source document quality, validation requirements, error impact</t>
         </is>
       </c>
-      <c r="F4" s="28" t="n"/>
-      <c r="G4" s="29" t="inlineStr">
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="41" t="inlineStr">
         <is>
           <t>Data quality risks and validation requirements</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="inlineStr">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>RISK-004</t>
         </is>
       </c>
-      <c r="B5" s="27" t="inlineStr">
+      <c r="B5" s="39" t="inlineStr">
         <is>
           <t>Risk &amp; Constraints</t>
         </is>
       </c>
-      <c r="C5" s="27" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>Technical Risks</t>
         </is>
       </c>
-      <c r="D5" s="27" t="inlineStr">
+      <c r="D5" s="39" t="inlineStr">
         <is>
           <t>What technical risks worry you most about AI/ML implementation?</t>
         </is>
       </c>
-      <c r="E5" s="27" t="inlineStr">
+      <c r="E5" s="39" t="inlineStr">
         <is>
           <t>Consider: model accuracy, integration complexity, performance, maintenance</t>
         </is>
       </c>
-      <c r="F5" s="28" t="n"/>
-      <c r="G5" s="27" t="inlineStr">
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="39" t="inlineStr">
         <is>
           <t>Technical risk factors and mitigation strategies</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29" t="inlineStr">
+      <c r="A6" s="41" t="inlineStr">
         <is>
           <t>RISK-005</t>
         </is>
       </c>
-      <c r="B6" s="29" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>Risk &amp; Constraints</t>
         </is>
       </c>
-      <c r="C6" s="29" t="inlineStr">
+      <c r="C6" s="41" t="inlineStr">
         <is>
           <t>Dependencies</t>
         </is>
       </c>
-      <c r="D6" s="29" t="inlineStr">
+      <c r="D6" s="41" t="inlineStr">
         <is>
           <t>What external dependencies exist for this project?</t>
         </is>
       </c>
-      <c r="E6" s="29" t="inlineStr">
+      <c r="E6" s="41" t="inlineStr">
         <is>
           <t>Examples: Third-party approvals, other projects, procurement timelines, vendor availability</t>
         </is>
       </c>
-      <c r="F6" s="28" t="n"/>
-      <c r="G6" s="29" t="inlineStr">
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="41" t="inlineStr">
         <is>
           <t>Project dependencies and critical path items</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="inlineStr">
+      <c r="A7" s="39" t="inlineStr">
         <is>
           <t>RISK-006</t>
         </is>
       </c>
-      <c r="B7" s="27" t="inlineStr">
+      <c r="B7" s="39" t="inlineStr">
         <is>
           <t>Risk &amp; Constraints</t>
         </is>
       </c>
-      <c r="C7" s="27" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
         <is>
           <t>Constraints</t>
         </is>
       </c>
-      <c r="D7" s="27" t="inlineStr">
+      <c r="D7" s="39" t="inlineStr">
         <is>
           <t>What constraints must the solution work within?</t>
         </is>
       </c>
-      <c r="E7" s="27" t="inlineStr">
+      <c r="E7" s="39" t="inlineStr">
         <is>
           <t>Consider: budget limits, timeline, technology standards, regulatory, organizational policies</t>
         </is>
       </c>
-      <c r="F7" s="28" t="n"/>
-      <c r="G7" s="27" t="inlineStr">
+      <c r="F7" s="40" t="n"/>
+      <c r="G7" s="39" t="inlineStr">
         <is>
           <t>Solution design boundaries and constraints</t>
         </is>

--- a/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
@@ -786,7 +786,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>

--- a/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/presales/discovery-questionnaire.xlsx
@@ -786,7 +786,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 24, 2025</t>
+          <t>November 26, 2025</t>
         </is>
       </c>
     </row>
